--- a/QA/Test-Documentation/Check Lists/Checklist for Registration Form (еxtended).xlsx
+++ b/QA/Test-Documentation/Check Lists/Checklist for Registration Form (еxtended).xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="artem"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1647088513" val="976" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1647088513" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1647088513" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1647088513"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +43,7 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>Artem Dzh</t>
+    <t>Artem</t>
   </si>
   <si>
     <t>ID</t>
@@ -367,49 +379,142 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
+    <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1647088513" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Verdana"/>
+      <charset val="204"/>
+      <family val="2"/>
       <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1647088513" ulstyle="none" kern="1">
+            <pm:latin face="Verdana" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1647088513" ulstyle="none" kern="1">
+            <pm:latin face="Verdana" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
-        <bgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647088513" type="1" fgLvl="100" fgClr="00A2C4C9" bgLvl="0" bgClr="00A2C4C9"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647088513" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="4">
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647088513"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647088513"/>
+        </ext>
+      </extLst>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -423,146 +528,138 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647088513">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647088513"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1647088513" count="1">
+        <pm:charStyle name="Обычный" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1647088513" count="1">
+        <pm:color name="Цвет 24" rgb="A2C4C9"/>
+      </pm:colors>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,157 +671,220 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="13" defaultColWidth="14.432432" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="3" width="21.86"/>
-    <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="5" width="15.29"/>
-    <col customWidth="1" min="6" max="6" width="12.14"/>
+    <col min="1" max="1" width="7.432432" customWidth="1"/>
+    <col min="2" max="2" width="74.288288" customWidth="1"/>
+    <col min="3" max="3" width="21.855856" customWidth="1"/>
+    <col min="4" max="4" width="48.000000" customWidth="1"/>
+    <col min="5" max="5" width="15.288288" customWidth="1"/>
+    <col min="6" max="6" width="12.135135" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +910,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -776,12 +936,12 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
-        <v>44606.0</v>
+      <c r="F3" s="4" t="n">
+        <v>44606</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -802,7 +962,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,7 +988,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -866,7 +1026,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -894,17 +1054,17 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3"/>
@@ -928,17 +1088,17 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3"/>
@@ -962,14 +1122,14 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3"/>
@@ -993,14 +1153,14 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3"/>
@@ -1024,14 +1184,14 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3"/>
@@ -1055,14 +1215,14 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="3"/>
@@ -1086,14 +1246,14 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3"/>
@@ -1117,7 +1277,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
@@ -1125,7 +1285,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="3"/>
@@ -1149,15 +1309,15 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="3"/>
@@ -1181,17 +1341,17 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="3"/>
@@ -1215,7 +1375,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="10"/>
@@ -1241,7 +1401,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>47</v>
@@ -1269,17 +1429,17 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="3"/>
@@ -1303,17 +1463,17 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="3"/>
@@ -1337,14 +1497,14 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="3"/>
@@ -1368,17 +1528,17 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="3"/>
@@ -1402,17 +1562,17 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="3"/>
@@ -1436,17 +1596,17 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3"/>
@@ -1470,17 +1630,17 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="3"/>
@@ -1504,15 +1664,15 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E26" s="3"/>
@@ -1536,11 +1696,11 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1562,13 +1722,13 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1590,17 +1750,17 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="14" t="s">
         <v>81</v>
       </c>
       <c r="E29" s="3"/>
@@ -1624,14 +1784,14 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A30" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="3"/>
@@ -1655,14 +1815,14 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="10" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="3"/>
@@ -1686,14 +1846,14 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A32" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>90</v>
       </c>
       <c r="E32" s="3"/>
@@ -1717,15 +1877,15 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="3"/>
@@ -1749,17 +1909,17 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E34" s="3"/>
@@ -1783,15 +1943,15 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="3"/>
@@ -1815,15 +1975,15 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E36" s="3"/>
@@ -1847,17 +2007,17 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="3"/>
@@ -1881,14 +2041,14 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="3"/>
@@ -1912,14 +2072,14 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E39" s="3"/>
@@ -1943,14 +2103,14 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="10" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="3"/>
@@ -1974,14 +2134,14 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="3"/>
@@ -2005,7 +2165,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="10"/>
@@ -2031,7 +2191,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="10"/>
@@ -2057,7 +2217,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="10"/>
@@ -2083,7 +2243,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="10"/>
@@ -2109,7 +2269,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="10"/>
@@ -2135,7 +2295,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="10"/>
@@ -2161,7 +2321,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="10"/>
@@ -2187,7 +2347,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="10"/>
@@ -2213,7 +2373,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="10"/>
@@ -2239,7 +2399,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="10"/>
@@ -2265,7 +2425,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="10"/>
@@ -2291,7 +2451,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="10"/>
@@ -2317,7 +2477,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="10"/>
@@ -2343,7 +2503,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="10"/>
@@ -2369,7 +2529,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="10"/>
@@ -2395,7 +2555,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
@@ -2421,7 +2581,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="10"/>
@@ -2447,7 +2607,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="10"/>
@@ -2473,7 +2633,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="3"/>
       <c r="C60" s="10"/>
@@ -2499,7 +2659,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="3"/>
       <c r="C61" s="10"/>
@@ -2525,7 +2685,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="10"/>
@@ -2551,7 +2711,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="3"/>
       <c r="C63" s="10"/>
@@ -2577,7 +2737,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="3"/>
       <c r="C64" s="10"/>
@@ -2603,7 +2763,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="10"/>
@@ -2629,7 +2789,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="3"/>
       <c r="C66" s="10"/>
@@ -2655,7 +2815,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="3"/>
       <c r="C67" s="10"/>
@@ -2681,7 +2841,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="3"/>
       <c r="C68" s="10"/>
@@ -2707,7 +2867,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="3"/>
       <c r="C69" s="10"/>
@@ -2733,7 +2893,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="3"/>
       <c r="C70" s="10"/>
@@ -2759,7 +2919,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="3"/>
       <c r="C71" s="10"/>
@@ -2785,7 +2945,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
       <c r="C72" s="10"/>
@@ -2811,7 +2971,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
       <c r="C73" s="10"/>
@@ -2837,7 +2997,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
       <c r="C74" s="10"/>
@@ -2863,7 +3023,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="3"/>
       <c r="C75" s="10"/>
@@ -2889,7 +3049,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="3"/>
       <c r="C76" s="10"/>
@@ -2915,7 +3075,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="3"/>
       <c r="C77" s="10"/>
@@ -2941,7 +3101,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="3"/>
       <c r="C78" s="10"/>
@@ -2967,7 +3127,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="3"/>
       <c r="C79" s="10"/>
@@ -2993,7 +3153,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="3"/>
       <c r="C80" s="10"/>
@@ -3019,7 +3179,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="3"/>
       <c r="C81" s="10"/>
@@ -3045,7 +3205,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="3"/>
       <c r="C82" s="10"/>
@@ -3071,7 +3231,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="3"/>
       <c r="C83" s="10"/>
@@ -3097,7 +3257,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="3"/>
       <c r="C84" s="10"/>
@@ -3123,7 +3283,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="3"/>
       <c r="C85" s="10"/>
@@ -3149,7 +3309,7 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="3"/>
       <c r="C86" s="10"/>
@@ -3175,7 +3335,7 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="3"/>
       <c r="C87" s="10"/>
@@ -3201,7 +3361,7 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="3"/>
       <c r="C88" s="10"/>
@@ -3227,7 +3387,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="3"/>
       <c r="C89" s="10"/>
@@ -3253,7 +3413,7 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="3"/>
       <c r="C90" s="10"/>
@@ -3279,7 +3439,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="3"/>
       <c r="C91" s="10"/>
@@ -3305,7 +3465,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="3"/>
       <c r="C92" s="10"/>
@@ -3331,7 +3491,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="3"/>
       <c r="C93" s="10"/>
@@ -3357,7 +3517,7 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="3"/>
       <c r="C94" s="10"/>
@@ -3383,7 +3543,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="3"/>
       <c r="C95" s="10"/>
@@ -3409,7 +3569,7 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="3"/>
       <c r="C96" s="10"/>
@@ -3435,7 +3595,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="3"/>
       <c r="C97" s="10"/>
@@ -3461,7 +3621,7 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="3"/>
       <c r="C98" s="10"/>
@@ -3487,7 +3647,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="3"/>
       <c r="C99" s="10"/>
@@ -3513,7 +3673,7 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="3"/>
       <c r="C100" s="10"/>
@@ -3539,7 +3699,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" s="8"/>
       <c r="B101" s="3"/>
       <c r="C101" s="10"/>
@@ -3565,7 +3725,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="3"/>
       <c r="C102" s="10"/>
@@ -3591,7 +3751,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="3"/>
       <c r="C103" s="10"/>
@@ -3617,7 +3777,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="3"/>
       <c r="C104" s="10"/>
@@ -3643,7 +3803,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="3"/>
       <c r="C105" s="10"/>
@@ -3669,7 +3829,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="3"/>
       <c r="C106" s="10"/>
@@ -3695,7 +3855,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="3"/>
       <c r="C107" s="10"/>
@@ -3721,7 +3881,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="3"/>
       <c r="C108" s="10"/>
@@ -3747,7 +3907,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="3"/>
       <c r="C109" s="10"/>
@@ -3773,7 +3933,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="3"/>
       <c r="C110" s="10"/>
@@ -3799,7 +3959,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="3"/>
       <c r="C111" s="10"/>
@@ -3825,7 +3985,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="3"/>
       <c r="C112" s="10"/>
@@ -3851,7 +4011,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="3"/>
       <c r="C113" s="10"/>
@@ -3877,7 +4037,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="3"/>
       <c r="C114" s="10"/>
@@ -3903,7 +4063,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="3"/>
       <c r="C115" s="10"/>
@@ -3929,7 +4089,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="3"/>
       <c r="C116" s="10"/>
@@ -3955,7 +4115,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="3"/>
       <c r="C117" s="10"/>
@@ -3981,7 +4141,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="3"/>
       <c r="C118" s="10"/>
@@ -4007,7 +4167,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="3"/>
       <c r="C119" s="10"/>
@@ -4033,7 +4193,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="3"/>
       <c r="C120" s="10"/>
@@ -4059,7 +4219,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="3"/>
       <c r="C121" s="10"/>
@@ -4085,7 +4245,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="10"/>
@@ -4111,7 +4271,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="10"/>
@@ -4137,7 +4297,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="3"/>
       <c r="C124" s="10"/>
@@ -4163,7 +4323,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="3"/>
       <c r="C125" s="10"/>
@@ -4189,7 +4349,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="3"/>
       <c r="C126" s="10"/>
@@ -4215,7 +4375,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="3"/>
       <c r="C127" s="10"/>
@@ -4241,7 +4401,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="3"/>
       <c r="C128" s="10"/>
@@ -4267,7 +4427,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="3"/>
       <c r="C129" s="10"/>
@@ -4293,7 +4453,7 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="3"/>
       <c r="C130" s="10"/>
@@ -4319,7 +4479,7 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="3"/>
       <c r="C131" s="10"/>
@@ -4345,7 +4505,7 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="3"/>
       <c r="C132" s="10"/>
@@ -4371,7 +4531,7 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="3"/>
       <c r="C133" s="10"/>
@@ -4397,7 +4557,7 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="3"/>
       <c r="C134" s="10"/>
@@ -4423,7 +4583,7 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="3"/>
       <c r="C135" s="10"/>
@@ -4449,7 +4609,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="3"/>
       <c r="C136" s="10"/>
@@ -4475,7 +4635,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="3"/>
       <c r="C137" s="10"/>
@@ -4501,7 +4661,7 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="3"/>
       <c r="C138" s="10"/>
@@ -4527,7 +4687,7 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="3"/>
       <c r="C139" s="10"/>
@@ -4553,7 +4713,7 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="3"/>
       <c r="C140" s="10"/>
@@ -4579,7 +4739,7 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="3"/>
       <c r="C141" s="10"/>
@@ -4605,7 +4765,7 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="3"/>
       <c r="C142" s="10"/>
@@ -4631,7 +4791,7 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="3"/>
       <c r="C143" s="10"/>
@@ -4657,7 +4817,7 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="3"/>
       <c r="C144" s="10"/>
@@ -4683,7 +4843,7 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="3"/>
       <c r="C145" s="10"/>
@@ -4709,7 +4869,7 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="3"/>
       <c r="C146" s="10"/>
@@ -4735,7 +4895,7 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="3"/>
       <c r="C147" s="10"/>
@@ -4761,7 +4921,7 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="3"/>
       <c r="C148" s="10"/>
@@ -4787,7 +4947,7 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="3"/>
       <c r="C149" s="10"/>
@@ -4813,7 +4973,7 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="3"/>
       <c r="C150" s="10"/>
@@ -4839,7 +4999,7 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="3"/>
       <c r="C151" s="10"/>
@@ -4865,7 +5025,7 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="3"/>
       <c r="C152" s="10"/>
@@ -4891,7 +5051,7 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="3"/>
       <c r="C153" s="10"/>
@@ -4917,7 +5077,7 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="3"/>
       <c r="C154" s="10"/>
@@ -4943,7 +5103,7 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="3"/>
       <c r="C155" s="10"/>
@@ -4969,7 +5129,7 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="3"/>
       <c r="C156" s="10"/>
@@ -4995,7 +5155,7 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="3"/>
       <c r="C157" s="10"/>
@@ -5021,7 +5181,7 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="3"/>
       <c r="C158" s="10"/>
@@ -5047,7 +5207,7 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="3"/>
       <c r="C159" s="10"/>
@@ -5073,7 +5233,7 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="3"/>
       <c r="C160" s="10"/>
@@ -5099,7 +5259,7 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="3"/>
       <c r="C161" s="10"/>
@@ -5125,7 +5285,7 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
       <c r="B162" s="3"/>
       <c r="C162" s="10"/>
@@ -5151,7 +5311,7 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="3"/>
       <c r="C163" s="10"/>
@@ -5177,7 +5337,7 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
       <c r="B164" s="3"/>
       <c r="C164" s="10"/>
@@ -5203,7 +5363,7 @@
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
       <c r="B165" s="3"/>
       <c r="C165" s="10"/>
@@ -5229,7 +5389,7 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="3"/>
       <c r="C166" s="10"/>
@@ -5255,7 +5415,7 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1">
       <c r="A167" s="8"/>
       <c r="B167" s="3"/>
       <c r="C167" s="10"/>
@@ -5281,7 +5441,7 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="3"/>
       <c r="C168" s="10"/>
@@ -5307,7 +5467,7 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="3"/>
       <c r="C169" s="10"/>
@@ -5333,7 +5493,7 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1">
       <c r="A170" s="8"/>
       <c r="B170" s="3"/>
       <c r="C170" s="10"/>
@@ -5359,7 +5519,7 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1">
       <c r="A171" s="8"/>
       <c r="B171" s="3"/>
       <c r="C171" s="10"/>
@@ -5385,7 +5545,7 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1">
       <c r="A172" s="8"/>
       <c r="B172" s="3"/>
       <c r="C172" s="10"/>
@@ -5411,7 +5571,7 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1">
       <c r="A173" s="8"/>
       <c r="B173" s="3"/>
       <c r="C173" s="10"/>
@@ -5437,7 +5597,7 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1">
       <c r="A174" s="8"/>
       <c r="B174" s="3"/>
       <c r="C174" s="10"/>
@@ -5463,7 +5623,7 @@
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1">
       <c r="A175" s="8"/>
       <c r="B175" s="3"/>
       <c r="C175" s="10"/>
@@ -5489,7 +5649,7 @@
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="3"/>
       <c r="C176" s="10"/>
@@ -5515,7 +5675,7 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="3"/>
       <c r="C177" s="10"/>
@@ -5541,7 +5701,7 @@
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="3"/>
       <c r="C178" s="10"/>
@@ -5567,7 +5727,7 @@
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="3"/>
       <c r="C179" s="10"/>
@@ -5593,7 +5753,7 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="3"/>
       <c r="C180" s="10"/>
@@ -5619,7 +5779,7 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="3"/>
       <c r="C181" s="10"/>
@@ -5645,7 +5805,7 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="3"/>
       <c r="C182" s="10"/>
@@ -5671,7 +5831,7 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1">
       <c r="A183" s="8"/>
       <c r="B183" s="3"/>
       <c r="C183" s="10"/>
@@ -5697,7 +5857,7 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="3"/>
       <c r="C184" s="10"/>
@@ -5723,7 +5883,7 @@
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="3"/>
       <c r="C185" s="10"/>
@@ -5749,7 +5909,7 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="3"/>
       <c r="C186" s="10"/>
@@ -5775,7 +5935,7 @@
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1">
       <c r="A187" s="8"/>
       <c r="B187" s="3"/>
       <c r="C187" s="10"/>
@@ -5801,7 +5961,7 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="3"/>
       <c r="C188" s="10"/>
@@ -5827,7 +5987,7 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="3"/>
       <c r="C189" s="10"/>
@@ -5853,7 +6013,7 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="3"/>
       <c r="C190" s="10"/>
@@ -5879,7 +6039,7 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="3"/>
       <c r="C191" s="10"/>
@@ -5905,7 +6065,7 @@
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1">
       <c r="A192" s="8"/>
       <c r="B192" s="3"/>
       <c r="C192" s="10"/>
@@ -5931,7 +6091,7 @@
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1">
       <c r="A193" s="8"/>
       <c r="B193" s="3"/>
       <c r="C193" s="10"/>
@@ -5957,7 +6117,7 @@
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1">
       <c r="A194" s="8"/>
       <c r="B194" s="3"/>
       <c r="C194" s="10"/>
@@ -5983,7 +6143,7 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="3"/>
       <c r="C195" s="10"/>
@@ -6009,7 +6169,7 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
       <c r="A196" s="8"/>
       <c r="B196" s="3"/>
       <c r="C196" s="10"/>
@@ -6035,7 +6195,7 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="8"/>
       <c r="B197" s="3"/>
       <c r="C197" s="10"/>
@@ -6061,7 +6221,7 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="3"/>
       <c r="C198" s="10"/>
@@ -6087,7 +6247,7 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="3"/>
       <c r="C199" s="10"/>
@@ -6113,7 +6273,7 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="3"/>
       <c r="C200" s="10"/>
@@ -6139,7 +6299,7 @@
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="3"/>
       <c r="C201" s="10"/>
@@ -6165,7 +6325,7 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="3"/>
       <c r="C202" s="10"/>
@@ -6191,7 +6351,7 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="8"/>
       <c r="B203" s="3"/>
       <c r="C203" s="10"/>
@@ -6217,7 +6377,7 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="3"/>
       <c r="C204" s="10"/>
@@ -6243,7 +6403,7 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="3"/>
       <c r="C205" s="10"/>
@@ -6269,7 +6429,7 @@
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="3"/>
       <c r="C206" s="10"/>
@@ -6295,7 +6455,7 @@
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="3"/>
       <c r="C207" s="10"/>
@@ -6321,7 +6481,7 @@
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="3"/>
       <c r="C208" s="10"/>
@@ -6347,7 +6507,7 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="8"/>
       <c r="B209" s="3"/>
       <c r="C209" s="10"/>
@@ -6373,7 +6533,7 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="3"/>
       <c r="C210" s="10"/>
@@ -6399,7 +6559,7 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="3"/>
       <c r="C211" s="10"/>
@@ -6425,7 +6585,7 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="3"/>
       <c r="C212" s="10"/>
@@ -6451,7 +6611,7 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="3"/>
       <c r="C213" s="10"/>
@@ -6477,7 +6637,7 @@
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" s="8"/>
       <c r="B214" s="3"/>
       <c r="C214" s="10"/>
@@ -6503,7 +6663,7 @@
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="3"/>
       <c r="C215" s="10"/>
@@ -6529,7 +6689,7 @@
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="3"/>
       <c r="C216" s="10"/>
@@ -6555,7 +6715,7 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="3"/>
       <c r="C217" s="10"/>
@@ -6581,7 +6741,7 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="3"/>
       <c r="C218" s="10"/>
@@ -6607,7 +6767,7 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="3"/>
       <c r="C219" s="10"/>
@@ -6633,7 +6793,7 @@
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="3"/>
       <c r="C220" s="10"/>
@@ -6659,7 +6819,7 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1">
       <c r="A221" s="8"/>
       <c r="B221" s="3"/>
       <c r="C221" s="10"/>
@@ -6685,7 +6845,7 @@
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1">
       <c r="A222" s="8"/>
       <c r="B222" s="3"/>
       <c r="C222" s="10"/>
@@ -6711,7 +6871,7 @@
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:24" ht="15.75" customHeight="1">
       <c r="A223" s="8"/>
       <c r="B223" s="3"/>
       <c r="C223" s="10"/>
@@ -6737,7 +6897,7 @@
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:24" ht="15.75" customHeight="1">
       <c r="A224" s="8"/>
       <c r="B224" s="3"/>
       <c r="C224" s="10"/>
@@ -6763,7 +6923,7 @@
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:24" ht="15.75" customHeight="1">
       <c r="A225" s="8"/>
       <c r="B225" s="3"/>
       <c r="C225" s="10"/>
@@ -6789,7 +6949,7 @@
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:24" ht="15.75" customHeight="1">
       <c r="A226" s="8"/>
       <c r="B226" s="3"/>
       <c r="C226" s="10"/>
@@ -6815,7 +6975,7 @@
       <c r="W226" s="3"/>
       <c r="X226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:24" ht="15.75" customHeight="1">
       <c r="A227" s="8"/>
       <c r="B227" s="3"/>
       <c r="C227" s="10"/>
@@ -6841,7 +7001,7 @@
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:24" ht="15.75" customHeight="1">
       <c r="A228" s="8"/>
       <c r="B228" s="3"/>
       <c r="C228" s="10"/>
@@ -6867,7 +7027,7 @@
       <c r="W228" s="3"/>
       <c r="X228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:24" ht="15.75" customHeight="1">
       <c r="A229" s="8"/>
       <c r="B229" s="3"/>
       <c r="C229" s="10"/>
@@ -6893,7 +7053,7 @@
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:24" ht="15.75" customHeight="1">
       <c r="A230" s="8"/>
       <c r="B230" s="3"/>
       <c r="C230" s="10"/>
@@ -6919,7 +7079,7 @@
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:24" ht="15.75" customHeight="1">
       <c r="A231" s="8"/>
       <c r="B231" s="3"/>
       <c r="C231" s="10"/>
@@ -6945,7 +7105,7 @@
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:24" ht="15.75" customHeight="1">
       <c r="A232" s="8"/>
       <c r="B232" s="3"/>
       <c r="C232" s="10"/>
@@ -6971,7 +7131,7 @@
       <c r="W232" s="3"/>
       <c r="X232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:24" ht="15.75" customHeight="1">
       <c r="A233" s="8"/>
       <c r="B233" s="3"/>
       <c r="C233" s="10"/>
@@ -6997,7 +7157,7 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:24" ht="15.75" customHeight="1">
       <c r="A234" s="8"/>
       <c r="B234" s="3"/>
       <c r="C234" s="10"/>
@@ -7023,7 +7183,7 @@
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:24" ht="15.75" customHeight="1">
       <c r="A235" s="8"/>
       <c r="B235" s="3"/>
       <c r="C235" s="10"/>
@@ -7049,7 +7209,7 @@
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:24" ht="15.75" customHeight="1">
       <c r="A236" s="8"/>
       <c r="B236" s="3"/>
       <c r="C236" s="10"/>
@@ -7075,7 +7235,7 @@
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:24" ht="15.75" customHeight="1">
       <c r="A237" s="8"/>
       <c r="B237" s="3"/>
       <c r="C237" s="10"/>
@@ -7101,7 +7261,7 @@
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:24" ht="15.75" customHeight="1">
       <c r="A238" s="8"/>
       <c r="B238" s="3"/>
       <c r="C238" s="10"/>
@@ -7127,7 +7287,7 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:24" ht="15.75" customHeight="1">
       <c r="A239" s="8"/>
       <c r="B239" s="3"/>
       <c r="C239" s="10"/>
@@ -7153,7 +7313,7 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:24" ht="15.75" customHeight="1">
       <c r="A240" s="8"/>
       <c r="B240" s="3"/>
       <c r="C240" s="10"/>
@@ -7179,7 +7339,7 @@
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:24" ht="15.75" customHeight="1">
       <c r="A241" s="8"/>
       <c r="B241" s="3"/>
       <c r="C241" s="10"/>
@@ -7205,7 +7365,7 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:24" ht="15.75" customHeight="1">
       <c r="A242" s="8"/>
       <c r="B242" s="3"/>
       <c r="C242" s="10"/>
@@ -7231,7 +7391,7 @@
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:24" ht="15.75" customHeight="1">
       <c r="A243" s="8"/>
       <c r="B243" s="3"/>
       <c r="C243" s="10"/>
@@ -7257,7 +7417,7 @@
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:24" ht="15.75" customHeight="1">
       <c r="A244" s="8"/>
       <c r="B244" s="3"/>
       <c r="C244" s="10"/>
@@ -7283,7 +7443,7 @@
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:24" ht="15.75" customHeight="1">
       <c r="A245" s="8"/>
       <c r="B245" s="3"/>
       <c r="C245" s="10"/>
@@ -7309,7 +7469,7 @@
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:24" ht="15.75" customHeight="1">
       <c r="A246" s="8"/>
       <c r="B246" s="3"/>
       <c r="C246" s="10"/>
@@ -7335,7 +7495,7 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:24" ht="15.75" customHeight="1">
       <c r="A247" s="8"/>
       <c r="B247" s="3"/>
       <c r="C247" s="10"/>
@@ -7361,7 +7521,7 @@
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1">
       <c r="A248" s="8"/>
       <c r="B248" s="3"/>
       <c r="C248" s="10"/>
@@ -7387,7 +7547,7 @@
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:24" ht="15.75" customHeight="1">
       <c r="A249" s="8"/>
       <c r="B249" s="3"/>
       <c r="C249" s="10"/>
@@ -7413,7 +7573,7 @@
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:24" ht="15.75" customHeight="1">
       <c r="A250" s="8"/>
       <c r="B250" s="3"/>
       <c r="C250" s="10"/>
@@ -7439,7 +7599,7 @@
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1">
       <c r="A251" s="8"/>
       <c r="B251" s="3"/>
       <c r="C251" s="10"/>
@@ -7465,7 +7625,7 @@
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:24" ht="15.75" customHeight="1">
       <c r="A252" s="8"/>
       <c r="B252" s="3"/>
       <c r="C252" s="10"/>
@@ -7491,7 +7651,7 @@
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:24" ht="15.75" customHeight="1">
       <c r="A253" s="8"/>
       <c r="B253" s="3"/>
       <c r="C253" s="10"/>
@@ -7517,7 +7677,7 @@
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:24" ht="15.75" customHeight="1">
       <c r="A254" s="8"/>
       <c r="B254" s="3"/>
       <c r="C254" s="10"/>
@@ -7543,7 +7703,7 @@
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:24" ht="15.75" customHeight="1">
       <c r="A255" s="8"/>
       <c r="B255" s="3"/>
       <c r="C255" s="10"/>
@@ -7569,7 +7729,7 @@
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:24" ht="15.75" customHeight="1">
       <c r="A256" s="8"/>
       <c r="B256" s="3"/>
       <c r="C256" s="10"/>
@@ -7595,7 +7755,7 @@
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:24" ht="15.75" customHeight="1">
       <c r="A257" s="8"/>
       <c r="B257" s="3"/>
       <c r="C257" s="10"/>
@@ -7621,7 +7781,7 @@
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:24" ht="15.75" customHeight="1">
       <c r="A258" s="8"/>
       <c r="B258" s="3"/>
       <c r="C258" s="10"/>
@@ -7647,7 +7807,7 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:24" ht="15.75" customHeight="1">
       <c r="A259" s="8"/>
       <c r="B259" s="3"/>
       <c r="C259" s="10"/>
@@ -7673,7 +7833,7 @@
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:24" ht="15.75" customHeight="1">
       <c r="A260" s="8"/>
       <c r="B260" s="3"/>
       <c r="C260" s="10"/>
@@ -7699,7 +7859,7 @@
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:24" ht="15.75" customHeight="1">
       <c r="A261" s="8"/>
       <c r="B261" s="3"/>
       <c r="C261" s="10"/>
@@ -7725,7 +7885,7 @@
       <c r="W261" s="3"/>
       <c r="X261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:24" ht="15.75" customHeight="1">
       <c r="A262" s="8"/>
       <c r="B262" s="3"/>
       <c r="C262" s="10"/>
@@ -7751,7 +7911,7 @@
       <c r="W262" s="3"/>
       <c r="X262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:24" ht="15.75" customHeight="1">
       <c r="A263" s="8"/>
       <c r="B263" s="3"/>
       <c r="C263" s="10"/>
@@ -7777,7 +7937,7 @@
       <c r="W263" s="3"/>
       <c r="X263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:24" ht="15.75" customHeight="1">
       <c r="A264" s="8"/>
       <c r="B264" s="3"/>
       <c r="C264" s="10"/>
@@ -7803,7 +7963,7 @@
       <c r="W264" s="3"/>
       <c r="X264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:24" ht="15.75" customHeight="1">
       <c r="A265" s="8"/>
       <c r="B265" s="3"/>
       <c r="C265" s="10"/>
@@ -7829,7 +7989,7 @@
       <c r="W265" s="3"/>
       <c r="X265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:24" ht="15.75" customHeight="1">
       <c r="A266" s="8"/>
       <c r="B266" s="3"/>
       <c r="C266" s="10"/>
@@ -7855,7 +8015,7 @@
       <c r="W266" s="3"/>
       <c r="X266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:24" ht="15.75" customHeight="1">
       <c r="A267" s="8"/>
       <c r="B267" s="3"/>
       <c r="C267" s="10"/>
@@ -7881,7 +8041,7 @@
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:24" ht="15.75" customHeight="1">
       <c r="A268" s="8"/>
       <c r="B268" s="3"/>
       <c r="C268" s="10"/>
@@ -7907,7 +8067,7 @@
       <c r="W268" s="3"/>
       <c r="X268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:24" ht="15.75" customHeight="1">
       <c r="A269" s="8"/>
       <c r="B269" s="3"/>
       <c r="C269" s="10"/>
@@ -7933,7 +8093,7 @@
       <c r="W269" s="3"/>
       <c r="X269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:24" ht="15.75" customHeight="1">
       <c r="A270" s="8"/>
       <c r="B270" s="3"/>
       <c r="C270" s="10"/>
@@ -7959,7 +8119,7 @@
       <c r="W270" s="3"/>
       <c r="X270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:24" ht="15.75" customHeight="1">
       <c r="A271" s="8"/>
       <c r="B271" s="3"/>
       <c r="C271" s="10"/>
@@ -7985,7 +8145,7 @@
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:24" ht="15.75" customHeight="1">
       <c r="A272" s="8"/>
       <c r="B272" s="3"/>
       <c r="C272" s="10"/>
@@ -8011,7 +8171,7 @@
       <c r="W272" s="3"/>
       <c r="X272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:24" ht="15.75" customHeight="1">
       <c r="A273" s="8"/>
       <c r="B273" s="3"/>
       <c r="C273" s="10"/>
@@ -8037,7 +8197,7 @@
       <c r="W273" s="3"/>
       <c r="X273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:24" ht="15.75" customHeight="1">
       <c r="A274" s="8"/>
       <c r="B274" s="3"/>
       <c r="C274" s="10"/>
@@ -8063,7 +8223,7 @@
       <c r="W274" s="3"/>
       <c r="X274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:24" ht="15.75" customHeight="1">
       <c r="A275" s="8"/>
       <c r="B275" s="3"/>
       <c r="C275" s="10"/>
@@ -8089,7 +8249,7 @@
       <c r="W275" s="3"/>
       <c r="X275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:24" ht="15.75" customHeight="1">
       <c r="A276" s="8"/>
       <c r="B276" s="3"/>
       <c r="C276" s="10"/>
@@ -8115,7 +8275,7 @@
       <c r="W276" s="3"/>
       <c r="X276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:24" ht="15.75" customHeight="1">
       <c r="A277" s="8"/>
       <c r="B277" s="3"/>
       <c r="C277" s="10"/>
@@ -8141,7 +8301,7 @@
       <c r="W277" s="3"/>
       <c r="X277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:24" ht="15.75" customHeight="1">
       <c r="A278" s="8"/>
       <c r="B278" s="3"/>
       <c r="C278" s="10"/>
@@ -8167,7 +8327,7 @@
       <c r="W278" s="3"/>
       <c r="X278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:24" ht="15.75" customHeight="1">
       <c r="A279" s="8"/>
       <c r="B279" s="3"/>
       <c r="C279" s="10"/>
@@ -8193,7 +8353,7 @@
       <c r="W279" s="3"/>
       <c r="X279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:24" ht="15.75" customHeight="1">
       <c r="A280" s="8"/>
       <c r="B280" s="3"/>
       <c r="C280" s="10"/>
@@ -8219,7 +8379,7 @@
       <c r="W280" s="3"/>
       <c r="X280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:24" ht="15.75" customHeight="1">
       <c r="A281" s="8"/>
       <c r="B281" s="3"/>
       <c r="C281" s="10"/>
@@ -8245,7 +8405,7 @@
       <c r="W281" s="3"/>
       <c r="X281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:24" ht="15.75" customHeight="1">
       <c r="A282" s="8"/>
       <c r="B282" s="3"/>
       <c r="C282" s="10"/>
@@ -8271,7 +8431,7 @@
       <c r="W282" s="3"/>
       <c r="X282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:24" ht="15.75" customHeight="1">
       <c r="A283" s="8"/>
       <c r="B283" s="3"/>
       <c r="C283" s="10"/>
@@ -8297,7 +8457,7 @@
       <c r="W283" s="3"/>
       <c r="X283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:24" ht="15.75" customHeight="1">
       <c r="A284" s="8"/>
       <c r="B284" s="3"/>
       <c r="C284" s="10"/>
@@ -8323,7 +8483,7 @@
       <c r="W284" s="3"/>
       <c r="X284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:24" ht="15.75" customHeight="1">
       <c r="A285" s="8"/>
       <c r="B285" s="3"/>
       <c r="C285" s="10"/>
@@ -8349,7 +8509,7 @@
       <c r="W285" s="3"/>
       <c r="X285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:24" ht="15.75" customHeight="1">
       <c r="A286" s="8"/>
       <c r="B286" s="3"/>
       <c r="C286" s="10"/>
@@ -8375,7 +8535,7 @@
       <c r="W286" s="3"/>
       <c r="X286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:24" ht="15.75" customHeight="1">
       <c r="A287" s="8"/>
       <c r="B287" s="3"/>
       <c r="C287" s="10"/>
@@ -8401,7 +8561,7 @@
       <c r="W287" s="3"/>
       <c r="X287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:24" ht="15.75" customHeight="1">
       <c r="A288" s="8"/>
       <c r="B288" s="3"/>
       <c r="C288" s="10"/>
@@ -8427,7 +8587,7 @@
       <c r="W288" s="3"/>
       <c r="X288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:24" ht="15.75" customHeight="1">
       <c r="A289" s="8"/>
       <c r="B289" s="3"/>
       <c r="C289" s="10"/>
@@ -8453,7 +8613,7 @@
       <c r="W289" s="3"/>
       <c r="X289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:24" ht="15.75" customHeight="1">
       <c r="A290" s="8"/>
       <c r="B290" s="3"/>
       <c r="C290" s="10"/>
@@ -8479,7 +8639,7 @@
       <c r="W290" s="3"/>
       <c r="X290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:24" ht="15.75" customHeight="1">
       <c r="A291" s="8"/>
       <c r="B291" s="3"/>
       <c r="C291" s="10"/>
@@ -8505,7 +8665,7 @@
       <c r="W291" s="3"/>
       <c r="X291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:24" ht="15.75" customHeight="1">
       <c r="A292" s="8"/>
       <c r="B292" s="3"/>
       <c r="C292" s="10"/>
@@ -8531,7 +8691,7 @@
       <c r="W292" s="3"/>
       <c r="X292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:24" ht="15.75" customHeight="1">
       <c r="A293" s="8"/>
       <c r="B293" s="3"/>
       <c r="C293" s="10"/>
@@ -8557,7 +8717,7 @@
       <c r="W293" s="3"/>
       <c r="X293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:24" ht="15.75" customHeight="1">
       <c r="A294" s="8"/>
       <c r="B294" s="3"/>
       <c r="C294" s="10"/>
@@ -8583,7 +8743,7 @@
       <c r="W294" s="3"/>
       <c r="X294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:24" ht="15.75" customHeight="1">
       <c r="A295" s="8"/>
       <c r="B295" s="3"/>
       <c r="C295" s="10"/>
@@ -8609,7 +8769,7 @@
       <c r="W295" s="3"/>
       <c r="X295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:24" ht="15.75" customHeight="1">
       <c r="A296" s="8"/>
       <c r="B296" s="3"/>
       <c r="C296" s="10"/>
@@ -8635,7 +8795,7 @@
       <c r="W296" s="3"/>
       <c r="X296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:24" ht="15.75" customHeight="1">
       <c r="A297" s="8"/>
       <c r="B297" s="3"/>
       <c r="C297" s="10"/>
@@ -8661,7 +8821,7 @@
       <c r="W297" s="3"/>
       <c r="X297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:24" ht="15.75" customHeight="1">
       <c r="A298" s="8"/>
       <c r="B298" s="3"/>
       <c r="C298" s="10"/>
@@ -8687,7 +8847,7 @@
       <c r="W298" s="3"/>
       <c r="X298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:24" ht="15.75" customHeight="1">
       <c r="A299" s="8"/>
       <c r="B299" s="3"/>
       <c r="C299" s="10"/>
@@ -8713,7 +8873,7 @@
       <c r="W299" s="3"/>
       <c r="X299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:24" ht="15.75" customHeight="1">
       <c r="A300" s="8"/>
       <c r="B300" s="3"/>
       <c r="C300" s="10"/>
@@ -8739,7 +8899,7 @@
       <c r="W300" s="3"/>
       <c r="X300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:24" ht="15.75" customHeight="1">
       <c r="A301" s="8"/>
       <c r="B301" s="3"/>
       <c r="C301" s="10"/>
@@ -8765,7 +8925,7 @@
       <c r="W301" s="3"/>
       <c r="X301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:24" ht="15.75" customHeight="1">
       <c r="A302" s="8"/>
       <c r="B302" s="3"/>
       <c r="C302" s="10"/>
@@ -8791,7 +8951,7 @@
       <c r="W302" s="3"/>
       <c r="X302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:24" ht="15.75" customHeight="1">
       <c r="A303" s="8"/>
       <c r="B303" s="3"/>
       <c r="C303" s="10"/>
@@ -8817,7 +8977,7 @@
       <c r="W303" s="3"/>
       <c r="X303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:24" ht="15.75" customHeight="1">
       <c r="A304" s="8"/>
       <c r="B304" s="3"/>
       <c r="C304" s="10"/>
@@ -8843,7 +9003,7 @@
       <c r="W304" s="3"/>
       <c r="X304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:24" ht="15.75" customHeight="1">
       <c r="A305" s="8"/>
       <c r="B305" s="3"/>
       <c r="C305" s="10"/>
@@ -8869,7 +9029,7 @@
       <c r="W305" s="3"/>
       <c r="X305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:24" ht="15.75" customHeight="1">
       <c r="A306" s="8"/>
       <c r="B306" s="3"/>
       <c r="C306" s="10"/>
@@ -8895,7 +9055,7 @@
       <c r="W306" s="3"/>
       <c r="X306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:24" ht="15.75" customHeight="1">
       <c r="A307" s="8"/>
       <c r="B307" s="3"/>
       <c r="C307" s="10"/>
@@ -8921,7 +9081,7 @@
       <c r="W307" s="3"/>
       <c r="X307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:24" ht="15.75" customHeight="1">
       <c r="A308" s="8"/>
       <c r="B308" s="3"/>
       <c r="C308" s="10"/>
@@ -8947,7 +9107,7 @@
       <c r="W308" s="3"/>
       <c r="X308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:24" ht="15.75" customHeight="1">
       <c r="A309" s="8"/>
       <c r="B309" s="3"/>
       <c r="C309" s="10"/>
@@ -8973,7 +9133,7 @@
       <c r="W309" s="3"/>
       <c r="X309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:24" ht="15.75" customHeight="1">
       <c r="A310" s="8"/>
       <c r="B310" s="3"/>
       <c r="C310" s="10"/>
@@ -8999,7 +9159,7 @@
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:24" ht="15.75" customHeight="1">
       <c r="A311" s="8"/>
       <c r="B311" s="3"/>
       <c r="C311" s="10"/>
@@ -9025,7 +9185,7 @@
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:24" ht="15.75" customHeight="1">
       <c r="A312" s="8"/>
       <c r="B312" s="3"/>
       <c r="C312" s="10"/>
@@ -9051,7 +9211,7 @@
       <c r="W312" s="3"/>
       <c r="X312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:24" ht="15.75" customHeight="1">
       <c r="A313" s="8"/>
       <c r="B313" s="3"/>
       <c r="C313" s="10"/>
@@ -9077,7 +9237,7 @@
       <c r="W313" s="3"/>
       <c r="X313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:24" ht="15.75" customHeight="1">
       <c r="A314" s="8"/>
       <c r="B314" s="3"/>
       <c r="C314" s="10"/>
@@ -9103,7 +9263,7 @@
       <c r="W314" s="3"/>
       <c r="X314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:24" ht="15.75" customHeight="1">
       <c r="A315" s="8"/>
       <c r="B315" s="3"/>
       <c r="C315" s="10"/>
@@ -9129,7 +9289,7 @@
       <c r="W315" s="3"/>
       <c r="X315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:24" ht="15.75" customHeight="1">
       <c r="A316" s="8"/>
       <c r="B316" s="3"/>
       <c r="C316" s="10"/>
@@ -9155,7 +9315,7 @@
       <c r="W316" s="3"/>
       <c r="X316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:24" ht="15.75" customHeight="1">
       <c r="A317" s="8"/>
       <c r="B317" s="3"/>
       <c r="C317" s="10"/>
@@ -9181,7 +9341,7 @@
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:24" ht="15.75" customHeight="1">
       <c r="A318" s="8"/>
       <c r="B318" s="3"/>
       <c r="C318" s="10"/>
@@ -9207,7 +9367,7 @@
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:24" ht="15.75" customHeight="1">
       <c r="A319" s="8"/>
       <c r="B319" s="3"/>
       <c r="C319" s="10"/>
@@ -9233,7 +9393,7 @@
       <c r="W319" s="3"/>
       <c r="X319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:24" ht="15.75" customHeight="1">
       <c r="A320" s="8"/>
       <c r="B320" s="3"/>
       <c r="C320" s="10"/>
@@ -9259,7 +9419,7 @@
       <c r="W320" s="3"/>
       <c r="X320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:24" ht="15.75" customHeight="1">
       <c r="A321" s="8"/>
       <c r="B321" s="3"/>
       <c r="C321" s="10"/>
@@ -9285,7 +9445,7 @@
       <c r="W321" s="3"/>
       <c r="X321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:24" ht="15.75" customHeight="1">
       <c r="A322" s="8"/>
       <c r="B322" s="3"/>
       <c r="C322" s="10"/>
@@ -9311,7 +9471,7 @@
       <c r="W322" s="3"/>
       <c r="X322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:24" ht="15.75" customHeight="1">
       <c r="A323" s="8"/>
       <c r="B323" s="3"/>
       <c r="C323" s="10"/>
@@ -9337,7 +9497,7 @@
       <c r="W323" s="3"/>
       <c r="X323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:24" ht="15.75" customHeight="1">
       <c r="A324" s="8"/>
       <c r="B324" s="3"/>
       <c r="C324" s="10"/>
@@ -9363,7 +9523,7 @@
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:24" ht="15.75" customHeight="1">
       <c r="A325" s="8"/>
       <c r="B325" s="3"/>
       <c r="C325" s="10"/>
@@ -9389,7 +9549,7 @@
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:24" ht="15.75" customHeight="1">
       <c r="A326" s="8"/>
       <c r="B326" s="3"/>
       <c r="C326" s="10"/>
@@ -9415,7 +9575,7 @@
       <c r="W326" s="3"/>
       <c r="X326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:24" ht="15.75" customHeight="1">
       <c r="A327" s="8"/>
       <c r="B327" s="3"/>
       <c r="C327" s="10"/>
@@ -9441,7 +9601,7 @@
       <c r="W327" s="3"/>
       <c r="X327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:24" ht="15.75" customHeight="1">
       <c r="A328" s="8"/>
       <c r="B328" s="3"/>
       <c r="C328" s="10"/>
@@ -9467,7 +9627,7 @@
       <c r="W328" s="3"/>
       <c r="X328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:24" ht="15.75" customHeight="1">
       <c r="A329" s="8"/>
       <c r="B329" s="3"/>
       <c r="C329" s="10"/>
@@ -9493,7 +9653,7 @@
       <c r="W329" s="3"/>
       <c r="X329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:24" ht="15.75" customHeight="1">
       <c r="A330" s="8"/>
       <c r="B330" s="3"/>
       <c r="C330" s="10"/>
@@ -9519,7 +9679,7 @@
       <c r="W330" s="3"/>
       <c r="X330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:24" ht="15.75" customHeight="1">
       <c r="A331" s="8"/>
       <c r="B331" s="3"/>
       <c r="C331" s="10"/>
@@ -9545,7 +9705,7 @@
       <c r="W331" s="3"/>
       <c r="X331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:24" ht="15.75" customHeight="1">
       <c r="A332" s="8"/>
       <c r="B332" s="3"/>
       <c r="C332" s="10"/>
@@ -9571,7 +9731,7 @@
       <c r="W332" s="3"/>
       <c r="X332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:24" ht="15.75" customHeight="1">
       <c r="A333" s="8"/>
       <c r="B333" s="3"/>
       <c r="C333" s="10"/>
@@ -9597,7 +9757,7 @@
       <c r="W333" s="3"/>
       <c r="X333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:24" ht="15.75" customHeight="1">
       <c r="A334" s="8"/>
       <c r="B334" s="3"/>
       <c r="C334" s="10"/>
@@ -9623,7 +9783,7 @@
       <c r="W334" s="3"/>
       <c r="X334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:24" ht="15.75" customHeight="1">
       <c r="A335" s="8"/>
       <c r="B335" s="3"/>
       <c r="C335" s="10"/>
@@ -9649,7 +9809,7 @@
       <c r="W335" s="3"/>
       <c r="X335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:24" ht="15.75" customHeight="1">
       <c r="A336" s="8"/>
       <c r="B336" s="3"/>
       <c r="C336" s="10"/>
@@ -9675,7 +9835,7 @@
       <c r="W336" s="3"/>
       <c r="X336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:24" ht="15.75" customHeight="1">
       <c r="A337" s="8"/>
       <c r="B337" s="3"/>
       <c r="C337" s="10"/>
@@ -9701,7 +9861,7 @@
       <c r="W337" s="3"/>
       <c r="X337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:24" ht="15.75" customHeight="1">
       <c r="A338" s="8"/>
       <c r="B338" s="3"/>
       <c r="C338" s="10"/>
@@ -9727,7 +9887,7 @@
       <c r="W338" s="3"/>
       <c r="X338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:24" ht="15.75" customHeight="1">
       <c r="A339" s="8"/>
       <c r="B339" s="3"/>
       <c r="C339" s="10"/>
@@ -9753,7 +9913,7 @@
       <c r="W339" s="3"/>
       <c r="X339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:24" ht="15.75" customHeight="1">
       <c r="A340" s="8"/>
       <c r="B340" s="3"/>
       <c r="C340" s="10"/>
@@ -9779,7 +9939,7 @@
       <c r="W340" s="3"/>
       <c r="X340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:24" ht="15.75" customHeight="1">
       <c r="A341" s="8"/>
       <c r="B341" s="3"/>
       <c r="C341" s="10"/>
@@ -9805,7 +9965,7 @@
       <c r="W341" s="3"/>
       <c r="X341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:24" ht="15.75" customHeight="1">
       <c r="A342" s="8"/>
       <c r="B342" s="3"/>
       <c r="C342" s="10"/>
@@ -9831,7 +9991,7 @@
       <c r="W342" s="3"/>
       <c r="X342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:24" ht="15.75" customHeight="1">
       <c r="A343" s="8"/>
       <c r="B343" s="3"/>
       <c r="C343" s="10"/>
@@ -9857,7 +10017,7 @@
       <c r="W343" s="3"/>
       <c r="X343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:24" ht="15.75" customHeight="1">
       <c r="A344" s="8"/>
       <c r="B344" s="3"/>
       <c r="C344" s="10"/>
@@ -9883,7 +10043,7 @@
       <c r="W344" s="3"/>
       <c r="X344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:24" ht="15.75" customHeight="1">
       <c r="A345" s="8"/>
       <c r="B345" s="3"/>
       <c r="C345" s="10"/>
@@ -9909,7 +10069,7 @@
       <c r="W345" s="3"/>
       <c r="X345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:24" ht="15.75" customHeight="1">
       <c r="A346" s="8"/>
       <c r="B346" s="3"/>
       <c r="C346" s="10"/>
@@ -9935,7 +10095,7 @@
       <c r="W346" s="3"/>
       <c r="X346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:24" ht="15.75" customHeight="1">
       <c r="A347" s="8"/>
       <c r="B347" s="3"/>
       <c r="C347" s="10"/>
@@ -9961,7 +10121,7 @@
       <c r="W347" s="3"/>
       <c r="X347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:24" ht="15.75" customHeight="1">
       <c r="A348" s="8"/>
       <c r="B348" s="3"/>
       <c r="C348" s="10"/>
@@ -9987,7 +10147,7 @@
       <c r="W348" s="3"/>
       <c r="X348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:24" ht="15.75" customHeight="1">
       <c r="A349" s="8"/>
       <c r="B349" s="3"/>
       <c r="C349" s="10"/>
@@ -10013,7 +10173,7 @@
       <c r="W349" s="3"/>
       <c r="X349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:24" ht="15.75" customHeight="1">
       <c r="A350" s="8"/>
       <c r="B350" s="3"/>
       <c r="C350" s="10"/>
@@ -10039,7 +10199,7 @@
       <c r="W350" s="3"/>
       <c r="X350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:24" ht="15.75" customHeight="1">
       <c r="A351" s="8"/>
       <c r="B351" s="3"/>
       <c r="C351" s="10"/>
@@ -10065,7 +10225,7 @@
       <c r="W351" s="3"/>
       <c r="X351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:24" ht="15.75" customHeight="1">
       <c r="A352" s="8"/>
       <c r="B352" s="3"/>
       <c r="C352" s="10"/>
@@ -10091,7 +10251,7 @@
       <c r="W352" s="3"/>
       <c r="X352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:24" ht="15.75" customHeight="1">
       <c r="A353" s="8"/>
       <c r="B353" s="3"/>
       <c r="C353" s="10"/>
@@ -10117,7 +10277,7 @@
       <c r="W353" s="3"/>
       <c r="X353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:24" ht="15.75" customHeight="1">
       <c r="A354" s="8"/>
       <c r="B354" s="3"/>
       <c r="C354" s="10"/>
@@ -10143,7 +10303,7 @@
       <c r="W354" s="3"/>
       <c r="X354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:24" ht="15.75" customHeight="1">
       <c r="A355" s="8"/>
       <c r="B355" s="3"/>
       <c r="C355" s="10"/>
@@ -10169,7 +10329,7 @@
       <c r="W355" s="3"/>
       <c r="X355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:24" ht="15.75" customHeight="1">
       <c r="A356" s="8"/>
       <c r="B356" s="3"/>
       <c r="C356" s="10"/>
@@ -10195,7 +10355,7 @@
       <c r="W356" s="3"/>
       <c r="X356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:24" ht="15.75" customHeight="1">
       <c r="A357" s="8"/>
       <c r="B357" s="3"/>
       <c r="C357" s="10"/>
@@ -10221,7 +10381,7 @@
       <c r="W357" s="3"/>
       <c r="X357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:24" ht="15.75" customHeight="1">
       <c r="A358" s="8"/>
       <c r="B358" s="3"/>
       <c r="C358" s="10"/>
@@ -10247,7 +10407,7 @@
       <c r="W358" s="3"/>
       <c r="X358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:24" ht="15.75" customHeight="1">
       <c r="A359" s="8"/>
       <c r="B359" s="3"/>
       <c r="C359" s="10"/>
@@ -10273,7 +10433,7 @@
       <c r="W359" s="3"/>
       <c r="X359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:24" ht="15.75" customHeight="1">
       <c r="A360" s="8"/>
       <c r="B360" s="3"/>
       <c r="C360" s="10"/>
@@ -10299,7 +10459,7 @@
       <c r="W360" s="3"/>
       <c r="X360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:24" ht="15.75" customHeight="1">
       <c r="A361" s="8"/>
       <c r="B361" s="3"/>
       <c r="C361" s="10"/>
@@ -10325,7 +10485,7 @@
       <c r="W361" s="3"/>
       <c r="X361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:24" ht="15.75" customHeight="1">
       <c r="A362" s="8"/>
       <c r="B362" s="3"/>
       <c r="C362" s="10"/>
@@ -10351,7 +10511,7 @@
       <c r="W362" s="3"/>
       <c r="X362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:24" ht="15.75" customHeight="1">
       <c r="A363" s="8"/>
       <c r="B363" s="3"/>
       <c r="C363" s="10"/>
@@ -10377,7 +10537,7 @@
       <c r="W363" s="3"/>
       <c r="X363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:24" ht="15.75" customHeight="1">
       <c r="A364" s="8"/>
       <c r="B364" s="3"/>
       <c r="C364" s="10"/>
@@ -10403,7 +10563,7 @@
       <c r="W364" s="3"/>
       <c r="X364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:24" ht="15.75" customHeight="1">
       <c r="A365" s="8"/>
       <c r="B365" s="3"/>
       <c r="C365" s="10"/>
@@ -10429,7 +10589,7 @@
       <c r="W365" s="3"/>
       <c r="X365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:24" ht="15.75" customHeight="1">
       <c r="A366" s="8"/>
       <c r="B366" s="3"/>
       <c r="C366" s="10"/>
@@ -10455,7 +10615,7 @@
       <c r="W366" s="3"/>
       <c r="X366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:24" ht="15.75" customHeight="1">
       <c r="A367" s="8"/>
       <c r="B367" s="3"/>
       <c r="C367" s="10"/>
@@ -10481,7 +10641,7 @@
       <c r="W367" s="3"/>
       <c r="X367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:24" ht="15.75" customHeight="1">
       <c r="A368" s="8"/>
       <c r="B368" s="3"/>
       <c r="C368" s="10"/>
@@ -10507,7 +10667,7 @@
       <c r="W368" s="3"/>
       <c r="X368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:24" ht="15.75" customHeight="1">
       <c r="A369" s="8"/>
       <c r="B369" s="3"/>
       <c r="C369" s="10"/>
@@ -10533,7 +10693,7 @@
       <c r="W369" s="3"/>
       <c r="X369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:24" ht="15.75" customHeight="1">
       <c r="A370" s="8"/>
       <c r="B370" s="3"/>
       <c r="C370" s="10"/>
@@ -10559,7 +10719,7 @@
       <c r="W370" s="3"/>
       <c r="X370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:24" ht="15.75" customHeight="1">
       <c r="A371" s="8"/>
       <c r="B371" s="3"/>
       <c r="C371" s="10"/>
@@ -10585,7 +10745,7 @@
       <c r="W371" s="3"/>
       <c r="X371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:24" ht="15.75" customHeight="1">
       <c r="A372" s="8"/>
       <c r="B372" s="3"/>
       <c r="C372" s="10"/>
@@ -10611,7 +10771,7 @@
       <c r="W372" s="3"/>
       <c r="X372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:24" ht="15.75" customHeight="1">
       <c r="A373" s="8"/>
       <c r="B373" s="3"/>
       <c r="C373" s="10"/>
@@ -10637,7 +10797,7 @@
       <c r="W373" s="3"/>
       <c r="X373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:24" ht="15.75" customHeight="1">
       <c r="A374" s="8"/>
       <c r="B374" s="3"/>
       <c r="C374" s="10"/>
@@ -10663,7 +10823,7 @@
       <c r="W374" s="3"/>
       <c r="X374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:24" ht="15.75" customHeight="1">
       <c r="A375" s="8"/>
       <c r="B375" s="3"/>
       <c r="C375" s="10"/>
@@ -10689,7 +10849,7 @@
       <c r="W375" s="3"/>
       <c r="X375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:24" ht="15.75" customHeight="1">
       <c r="A376" s="8"/>
       <c r="B376" s="3"/>
       <c r="C376" s="10"/>
@@ -10715,7 +10875,7 @@
       <c r="W376" s="3"/>
       <c r="X376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:24" ht="15.75" customHeight="1">
       <c r="A377" s="8"/>
       <c r="B377" s="3"/>
       <c r="C377" s="10"/>
@@ -10741,7 +10901,7 @@
       <c r="W377" s="3"/>
       <c r="X377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:24" ht="15.75" customHeight="1">
       <c r="A378" s="8"/>
       <c r="B378" s="3"/>
       <c r="C378" s="10"/>
@@ -10767,7 +10927,7 @@
       <c r="W378" s="3"/>
       <c r="X378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:24" ht="15.75" customHeight="1">
       <c r="A379" s="8"/>
       <c r="B379" s="3"/>
       <c r="C379" s="10"/>
@@ -10793,7 +10953,7 @@
       <c r="W379" s="3"/>
       <c r="X379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:24" ht="15.75" customHeight="1">
       <c r="A380" s="8"/>
       <c r="B380" s="3"/>
       <c r="C380" s="10"/>
@@ -10819,7 +10979,7 @@
       <c r="W380" s="3"/>
       <c r="X380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:24" ht="15.75" customHeight="1">
       <c r="A381" s="8"/>
       <c r="B381" s="3"/>
       <c r="C381" s="10"/>
@@ -10845,7 +11005,7 @@
       <c r="W381" s="3"/>
       <c r="X381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:24" ht="15.75" customHeight="1">
       <c r="A382" s="8"/>
       <c r="B382" s="3"/>
       <c r="C382" s="10"/>
@@ -10871,7 +11031,7 @@
       <c r="W382" s="3"/>
       <c r="X382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:24" ht="15.75" customHeight="1">
       <c r="A383" s="8"/>
       <c r="B383" s="3"/>
       <c r="C383" s="10"/>
@@ -10897,7 +11057,7 @@
       <c r="W383" s="3"/>
       <c r="X383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:24" ht="15.75" customHeight="1">
       <c r="A384" s="8"/>
       <c r="B384" s="3"/>
       <c r="C384" s="10"/>
@@ -10923,7 +11083,7 @@
       <c r="W384" s="3"/>
       <c r="X384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:24" ht="15.75" customHeight="1">
       <c r="A385" s="8"/>
       <c r="B385" s="3"/>
       <c r="C385" s="10"/>
@@ -10949,7 +11109,7 @@
       <c r="W385" s="3"/>
       <c r="X385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:24" ht="15.75" customHeight="1">
       <c r="A386" s="8"/>
       <c r="B386" s="3"/>
       <c r="C386" s="10"/>
@@ -10975,7 +11135,7 @@
       <c r="W386" s="3"/>
       <c r="X386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:24" ht="15.75" customHeight="1">
       <c r="A387" s="8"/>
       <c r="B387" s="3"/>
       <c r="C387" s="10"/>
@@ -11001,7 +11161,7 @@
       <c r="W387" s="3"/>
       <c r="X387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:24" ht="15.75" customHeight="1">
       <c r="A388" s="8"/>
       <c r="B388" s="3"/>
       <c r="C388" s="10"/>
@@ -11027,7 +11187,7 @@
       <c r="W388" s="3"/>
       <c r="X388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:24" ht="15.75" customHeight="1">
       <c r="A389" s="8"/>
       <c r="B389" s="3"/>
       <c r="C389" s="10"/>
@@ -11053,7 +11213,7 @@
       <c r="W389" s="3"/>
       <c r="X389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:24" ht="15.75" customHeight="1">
       <c r="A390" s="8"/>
       <c r="B390" s="3"/>
       <c r="C390" s="10"/>
@@ -11079,7 +11239,7 @@
       <c r="W390" s="3"/>
       <c r="X390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:24" ht="15.75" customHeight="1">
       <c r="A391" s="8"/>
       <c r="B391" s="3"/>
       <c r="C391" s="10"/>
@@ -11105,7 +11265,7 @@
       <c r="W391" s="3"/>
       <c r="X391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:24" ht="15.75" customHeight="1">
       <c r="A392" s="8"/>
       <c r="B392" s="3"/>
       <c r="C392" s="10"/>
@@ -11131,7 +11291,7 @@
       <c r="W392" s="3"/>
       <c r="X392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:24" ht="15.75" customHeight="1">
       <c r="A393" s="8"/>
       <c r="B393" s="3"/>
       <c r="C393" s="10"/>
@@ -11157,7 +11317,7 @@
       <c r="W393" s="3"/>
       <c r="X393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:24" ht="15.75" customHeight="1">
       <c r="A394" s="8"/>
       <c r="B394" s="3"/>
       <c r="C394" s="10"/>
@@ -11183,7 +11343,7 @@
       <c r="W394" s="3"/>
       <c r="X394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:24" ht="15.75" customHeight="1">
       <c r="A395" s="8"/>
       <c r="B395" s="3"/>
       <c r="C395" s="10"/>
@@ -11209,7 +11369,7 @@
       <c r="W395" s="3"/>
       <c r="X395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:24" ht="15.75" customHeight="1">
       <c r="A396" s="8"/>
       <c r="B396" s="3"/>
       <c r="C396" s="10"/>
@@ -11235,7 +11395,7 @@
       <c r="W396" s="3"/>
       <c r="X396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:24" ht="15.75" customHeight="1">
       <c r="A397" s="8"/>
       <c r="B397" s="3"/>
       <c r="C397" s="10"/>
@@ -11261,7 +11421,7 @@
       <c r="W397" s="3"/>
       <c r="X397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:24" ht="15.75" customHeight="1">
       <c r="A398" s="8"/>
       <c r="B398" s="3"/>
       <c r="C398" s="10"/>
@@ -11287,7 +11447,7 @@
       <c r="W398" s="3"/>
       <c r="X398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:24" ht="15.75" customHeight="1">
       <c r="A399" s="8"/>
       <c r="B399" s="3"/>
       <c r="C399" s="10"/>
@@ -11313,7 +11473,7 @@
       <c r="W399" s="3"/>
       <c r="X399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:24" ht="15.75" customHeight="1">
       <c r="A400" s="8"/>
       <c r="B400" s="3"/>
       <c r="C400" s="10"/>
@@ -11339,7 +11499,7 @@
       <c r="W400" s="3"/>
       <c r="X400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:24" ht="15.75" customHeight="1">
       <c r="A401" s="8"/>
       <c r="B401" s="3"/>
       <c r="C401" s="10"/>
@@ -11365,7 +11525,7 @@
       <c r="W401" s="3"/>
       <c r="X401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:24" ht="15.75" customHeight="1">
       <c r="A402" s="8"/>
       <c r="B402" s="3"/>
       <c r="C402" s="10"/>
@@ -11391,7 +11551,7 @@
       <c r="W402" s="3"/>
       <c r="X402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:24" ht="15.75" customHeight="1">
       <c r="A403" s="8"/>
       <c r="B403" s="3"/>
       <c r="C403" s="10"/>
@@ -11417,7 +11577,7 @@
       <c r="W403" s="3"/>
       <c r="X403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:24" ht="15.75" customHeight="1">
       <c r="A404" s="8"/>
       <c r="B404" s="3"/>
       <c r="C404" s="10"/>
@@ -11443,7 +11603,7 @@
       <c r="W404" s="3"/>
       <c r="X404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:24" ht="15.75" customHeight="1">
       <c r="A405" s="8"/>
       <c r="B405" s="3"/>
       <c r="C405" s="10"/>
@@ -11469,7 +11629,7 @@
       <c r="W405" s="3"/>
       <c r="X405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:24" ht="15.75" customHeight="1">
       <c r="A406" s="8"/>
       <c r="B406" s="3"/>
       <c r="C406" s="10"/>
@@ -11495,7 +11655,7 @@
       <c r="W406" s="3"/>
       <c r="X406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:24" ht="15.75" customHeight="1">
       <c r="A407" s="8"/>
       <c r="B407" s="3"/>
       <c r="C407" s="10"/>
@@ -11521,7 +11681,7 @@
       <c r="W407" s="3"/>
       <c r="X407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:24" ht="15.75" customHeight="1">
       <c r="A408" s="8"/>
       <c r="B408" s="3"/>
       <c r="C408" s="10"/>
@@ -11547,7 +11707,7 @@
       <c r="W408" s="3"/>
       <c r="X408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:24" ht="15.75" customHeight="1">
       <c r="A409" s="8"/>
       <c r="B409" s="3"/>
       <c r="C409" s="10"/>
@@ -11573,7 +11733,7 @@
       <c r="W409" s="3"/>
       <c r="X409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:24" ht="15.75" customHeight="1">
       <c r="A410" s="8"/>
       <c r="B410" s="3"/>
       <c r="C410" s="10"/>
@@ -11599,7 +11759,7 @@
       <c r="W410" s="3"/>
       <c r="X410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:24" ht="15.75" customHeight="1">
       <c r="A411" s="8"/>
       <c r="B411" s="3"/>
       <c r="C411" s="10"/>
@@ -11625,7 +11785,7 @@
       <c r="W411" s="3"/>
       <c r="X411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:24" ht="15.75" customHeight="1">
       <c r="A412" s="8"/>
       <c r="B412" s="3"/>
       <c r="C412" s="10"/>
@@ -11651,7 +11811,7 @@
       <c r="W412" s="3"/>
       <c r="X412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:24" ht="15.75" customHeight="1">
       <c r="A413" s="8"/>
       <c r="B413" s="3"/>
       <c r="C413" s="10"/>
@@ -11677,7 +11837,7 @@
       <c r="W413" s="3"/>
       <c r="X413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:24" ht="15.75" customHeight="1">
       <c r="A414" s="8"/>
       <c r="B414" s="3"/>
       <c r="C414" s="10"/>
@@ -11703,7 +11863,7 @@
       <c r="W414" s="3"/>
       <c r="X414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:24" ht="15.75" customHeight="1">
       <c r="A415" s="8"/>
       <c r="B415" s="3"/>
       <c r="C415" s="10"/>
@@ -11729,7 +11889,7 @@
       <c r="W415" s="3"/>
       <c r="X415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:24" ht="15.75" customHeight="1">
       <c r="A416" s="8"/>
       <c r="B416" s="3"/>
       <c r="C416" s="10"/>
@@ -11755,7 +11915,7 @@
       <c r="W416" s="3"/>
       <c r="X416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:24" ht="15.75" customHeight="1">
       <c r="A417" s="8"/>
       <c r="B417" s="3"/>
       <c r="C417" s="10"/>
@@ -11781,7 +11941,7 @@
       <c r="W417" s="3"/>
       <c r="X417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:24" ht="15.75" customHeight="1">
       <c r="A418" s="8"/>
       <c r="B418" s="3"/>
       <c r="C418" s="10"/>
@@ -11807,7 +11967,7 @@
       <c r="W418" s="3"/>
       <c r="X418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:24" ht="15.75" customHeight="1">
       <c r="A419" s="8"/>
       <c r="B419" s="3"/>
       <c r="C419" s="10"/>
@@ -11833,7 +11993,7 @@
       <c r="W419" s="3"/>
       <c r="X419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:24" ht="15.75" customHeight="1">
       <c r="A420" s="8"/>
       <c r="B420" s="3"/>
       <c r="C420" s="10"/>
@@ -11859,7 +12019,7 @@
       <c r="W420" s="3"/>
       <c r="X420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:24" ht="15.75" customHeight="1">
       <c r="A421" s="8"/>
       <c r="B421" s="3"/>
       <c r="C421" s="10"/>
@@ -11885,7 +12045,7 @@
       <c r="W421" s="3"/>
       <c r="X421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:24" ht="15.75" customHeight="1">
       <c r="A422" s="8"/>
       <c r="B422" s="3"/>
       <c r="C422" s="10"/>
@@ -11911,7 +12071,7 @@
       <c r="W422" s="3"/>
       <c r="X422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:24" ht="15.75" customHeight="1">
       <c r="A423" s="8"/>
       <c r="B423" s="3"/>
       <c r="C423" s="10"/>
@@ -11937,7 +12097,7 @@
       <c r="W423" s="3"/>
       <c r="X423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:24" ht="15.75" customHeight="1">
       <c r="A424" s="8"/>
       <c r="B424" s="3"/>
       <c r="C424" s="10"/>
@@ -11963,7 +12123,7 @@
       <c r="W424" s="3"/>
       <c r="X424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:24" ht="15.75" customHeight="1">
       <c r="A425" s="8"/>
       <c r="B425" s="3"/>
       <c r="C425" s="10"/>
@@ -11989,7 +12149,7 @@
       <c r="W425" s="3"/>
       <c r="X425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:24" ht="15.75" customHeight="1">
       <c r="A426" s="8"/>
       <c r="B426" s="3"/>
       <c r="C426" s="10"/>
@@ -12015,7 +12175,7 @@
       <c r="W426" s="3"/>
       <c r="X426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:24" ht="15.75" customHeight="1">
       <c r="A427" s="8"/>
       <c r="B427" s="3"/>
       <c r="C427" s="10"/>
@@ -12041,7 +12201,7 @@
       <c r="W427" s="3"/>
       <c r="X427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:24" ht="15.75" customHeight="1">
       <c r="A428" s="8"/>
       <c r="B428" s="3"/>
       <c r="C428" s="10"/>
@@ -12067,7 +12227,7 @@
       <c r="W428" s="3"/>
       <c r="X428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:24" ht="15.75" customHeight="1">
       <c r="A429" s="8"/>
       <c r="B429" s="3"/>
       <c r="C429" s="10"/>
@@ -12093,7 +12253,7 @@
       <c r="W429" s="3"/>
       <c r="X429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:24" ht="15.75" customHeight="1">
       <c r="A430" s="8"/>
       <c r="B430" s="3"/>
       <c r="C430" s="10"/>
@@ -12119,7 +12279,7 @@
       <c r="W430" s="3"/>
       <c r="X430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:24" ht="15.75" customHeight="1">
       <c r="A431" s="8"/>
       <c r="B431" s="3"/>
       <c r="C431" s="10"/>
@@ -12145,7 +12305,7 @@
       <c r="W431" s="3"/>
       <c r="X431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:24" ht="15.75" customHeight="1">
       <c r="A432" s="8"/>
       <c r="B432" s="3"/>
       <c r="C432" s="10"/>
@@ -12171,7 +12331,7 @@
       <c r="W432" s="3"/>
       <c r="X432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:24" ht="15.75" customHeight="1">
       <c r="A433" s="8"/>
       <c r="B433" s="3"/>
       <c r="C433" s="10"/>
@@ -12197,7 +12357,7 @@
       <c r="W433" s="3"/>
       <c r="X433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:24" ht="15.75" customHeight="1">
       <c r="A434" s="8"/>
       <c r="B434" s="3"/>
       <c r="C434" s="10"/>
@@ -12223,7 +12383,7 @@
       <c r="W434" s="3"/>
       <c r="X434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:24" ht="15.75" customHeight="1">
       <c r="A435" s="8"/>
       <c r="B435" s="3"/>
       <c r="C435" s="10"/>
@@ -12249,7 +12409,7 @@
       <c r="W435" s="3"/>
       <c r="X435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:24" ht="15.75" customHeight="1">
       <c r="A436" s="8"/>
       <c r="B436" s="3"/>
       <c r="C436" s="10"/>
@@ -12275,7 +12435,7 @@
       <c r="W436" s="3"/>
       <c r="X436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:24" ht="15.75" customHeight="1">
       <c r="A437" s="8"/>
       <c r="B437" s="3"/>
       <c r="C437" s="10"/>
@@ -12301,7 +12461,7 @@
       <c r="W437" s="3"/>
       <c r="X437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:24" ht="15.75" customHeight="1">
       <c r="A438" s="8"/>
       <c r="B438" s="3"/>
       <c r="C438" s="10"/>
@@ -12327,7 +12487,7 @@
       <c r="W438" s="3"/>
       <c r="X438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:24" ht="15.75" customHeight="1">
       <c r="A439" s="8"/>
       <c r="B439" s="3"/>
       <c r="C439" s="10"/>
@@ -12353,7 +12513,7 @@
       <c r="W439" s="3"/>
       <c r="X439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:24" ht="15.75" customHeight="1">
       <c r="A440" s="8"/>
       <c r="B440" s="3"/>
       <c r="C440" s="10"/>
@@ -12379,7 +12539,7 @@
       <c r="W440" s="3"/>
       <c r="X440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:24" ht="15.75" customHeight="1">
       <c r="A441" s="8"/>
       <c r="B441" s="3"/>
       <c r="C441" s="10"/>
@@ -12405,7 +12565,7 @@
       <c r="W441" s="3"/>
       <c r="X441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:24" ht="15.75" customHeight="1">
       <c r="A442" s="8"/>
       <c r="B442" s="3"/>
       <c r="C442" s="10"/>
@@ -12431,7 +12591,7 @@
       <c r="W442" s="3"/>
       <c r="X442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:24" ht="15.75" customHeight="1">
       <c r="A443" s="8"/>
       <c r="B443" s="3"/>
       <c r="C443" s="10"/>
@@ -12457,7 +12617,7 @@
       <c r="W443" s="3"/>
       <c r="X443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:24" ht="15.75" customHeight="1">
       <c r="A444" s="8"/>
       <c r="B444" s="3"/>
       <c r="C444" s="10"/>
@@ -12483,7 +12643,7 @@
       <c r="W444" s="3"/>
       <c r="X444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:24" ht="15.75" customHeight="1">
       <c r="A445" s="8"/>
       <c r="B445" s="3"/>
       <c r="C445" s="10"/>
@@ -12509,7 +12669,7 @@
       <c r="W445" s="3"/>
       <c r="X445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:24" ht="15.75" customHeight="1">
       <c r="A446" s="8"/>
       <c r="B446" s="3"/>
       <c r="C446" s="10"/>
@@ -12535,7 +12695,7 @@
       <c r="W446" s="3"/>
       <c r="X446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:24" ht="15.75" customHeight="1">
       <c r="A447" s="8"/>
       <c r="B447" s="3"/>
       <c r="C447" s="10"/>
@@ -12561,7 +12721,7 @@
       <c r="W447" s="3"/>
       <c r="X447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:24" ht="15.75" customHeight="1">
       <c r="A448" s="8"/>
       <c r="B448" s="3"/>
       <c r="C448" s="10"/>
@@ -12587,7 +12747,7 @@
       <c r="W448" s="3"/>
       <c r="X448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:24" ht="15.75" customHeight="1">
       <c r="A449" s="8"/>
       <c r="B449" s="3"/>
       <c r="C449" s="10"/>
@@ -12613,7 +12773,7 @@
       <c r="W449" s="3"/>
       <c r="X449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:24" ht="15.75" customHeight="1">
       <c r="A450" s="8"/>
       <c r="B450" s="3"/>
       <c r="C450" s="10"/>
@@ -12639,7 +12799,7 @@
       <c r="W450" s="3"/>
       <c r="X450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:24" ht="15.75" customHeight="1">
       <c r="A451" s="8"/>
       <c r="B451" s="3"/>
       <c r="C451" s="10"/>
@@ -12665,7 +12825,7 @@
       <c r="W451" s="3"/>
       <c r="X451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:24" ht="15.75" customHeight="1">
       <c r="A452" s="8"/>
       <c r="B452" s="3"/>
       <c r="C452" s="10"/>
@@ -12691,7 +12851,7 @@
       <c r="W452" s="3"/>
       <c r="X452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:24" ht="15.75" customHeight="1">
       <c r="A453" s="8"/>
       <c r="B453" s="3"/>
       <c r="C453" s="10"/>
@@ -12717,7 +12877,7 @@
       <c r="W453" s="3"/>
       <c r="X453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:24" ht="15.75" customHeight="1">
       <c r="A454" s="8"/>
       <c r="B454" s="3"/>
       <c r="C454" s="10"/>
@@ -12743,7 +12903,7 @@
       <c r="W454" s="3"/>
       <c r="X454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:24" ht="15.75" customHeight="1">
       <c r="A455" s="8"/>
       <c r="B455" s="3"/>
       <c r="C455" s="10"/>
@@ -12769,7 +12929,7 @@
       <c r="W455" s="3"/>
       <c r="X455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:24" ht="15.75" customHeight="1">
       <c r="A456" s="8"/>
       <c r="B456" s="3"/>
       <c r="C456" s="10"/>
@@ -12795,7 +12955,7 @@
       <c r="W456" s="3"/>
       <c r="X456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:24" ht="15.75" customHeight="1">
       <c r="A457" s="8"/>
       <c r="B457" s="3"/>
       <c r="C457" s="10"/>
@@ -12821,7 +12981,7 @@
       <c r="W457" s="3"/>
       <c r="X457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:24" ht="15.75" customHeight="1">
       <c r="A458" s="8"/>
       <c r="B458" s="3"/>
       <c r="C458" s="10"/>
@@ -12847,7 +13007,7 @@
       <c r="W458" s="3"/>
       <c r="X458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:24" ht="15.75" customHeight="1">
       <c r="A459" s="8"/>
       <c r="B459" s="3"/>
       <c r="C459" s="10"/>
@@ -12873,7 +13033,7 @@
       <c r="W459" s="3"/>
       <c r="X459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:24" ht="15.75" customHeight="1">
       <c r="A460" s="8"/>
       <c r="B460" s="3"/>
       <c r="C460" s="10"/>
@@ -12899,7 +13059,7 @@
       <c r="W460" s="3"/>
       <c r="X460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:24" ht="15.75" customHeight="1">
       <c r="A461" s="8"/>
       <c r="B461" s="3"/>
       <c r="C461" s="10"/>
@@ -12925,7 +13085,7 @@
       <c r="W461" s="3"/>
       <c r="X461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:24" ht="15.75" customHeight="1">
       <c r="A462" s="8"/>
       <c r="B462" s="3"/>
       <c r="C462" s="10"/>
@@ -12951,7 +13111,7 @@
       <c r="W462" s="3"/>
       <c r="X462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:24" ht="15.75" customHeight="1">
       <c r="A463" s="8"/>
       <c r="B463" s="3"/>
       <c r="C463" s="10"/>
@@ -12977,7 +13137,7 @@
       <c r="W463" s="3"/>
       <c r="X463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:24" ht="15.75" customHeight="1">
       <c r="A464" s="8"/>
       <c r="B464" s="3"/>
       <c r="C464" s="10"/>
@@ -13003,7 +13163,7 @@
       <c r="W464" s="3"/>
       <c r="X464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:24" ht="15.75" customHeight="1">
       <c r="A465" s="8"/>
       <c r="B465" s="3"/>
       <c r="C465" s="10"/>
@@ -13029,7 +13189,7 @@
       <c r="W465" s="3"/>
       <c r="X465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:24" ht="15.75" customHeight="1">
       <c r="A466" s="8"/>
       <c r="B466" s="3"/>
       <c r="C466" s="10"/>
@@ -13055,7 +13215,7 @@
       <c r="W466" s="3"/>
       <c r="X466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:24" ht="15.75" customHeight="1">
       <c r="A467" s="8"/>
       <c r="B467" s="3"/>
       <c r="C467" s="10"/>
@@ -13081,7 +13241,7 @@
       <c r="W467" s="3"/>
       <c r="X467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:24" ht="15.75" customHeight="1">
       <c r="A468" s="8"/>
       <c r="B468" s="3"/>
       <c r="C468" s="10"/>
@@ -13107,7 +13267,7 @@
       <c r="W468" s="3"/>
       <c r="X468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:24" ht="15.75" customHeight="1">
       <c r="A469" s="8"/>
       <c r="B469" s="3"/>
       <c r="C469" s="10"/>
@@ -13133,7 +13293,7 @@
       <c r="W469" s="3"/>
       <c r="X469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:24" ht="15.75" customHeight="1">
       <c r="A470" s="8"/>
       <c r="B470" s="3"/>
       <c r="C470" s="10"/>
@@ -13159,7 +13319,7 @@
       <c r="W470" s="3"/>
       <c r="X470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:24" ht="15.75" customHeight="1">
       <c r="A471" s="8"/>
       <c r="B471" s="3"/>
       <c r="C471" s="10"/>
@@ -13185,7 +13345,7 @@
       <c r="W471" s="3"/>
       <c r="X471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:24" ht="15.75" customHeight="1">
       <c r="A472" s="8"/>
       <c r="B472" s="3"/>
       <c r="C472" s="10"/>
@@ -13211,7 +13371,7 @@
       <c r="W472" s="3"/>
       <c r="X472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:24" ht="15.75" customHeight="1">
       <c r="A473" s="8"/>
       <c r="B473" s="3"/>
       <c r="C473" s="10"/>
@@ -13237,7 +13397,7 @@
       <c r="W473" s="3"/>
       <c r="X473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:24" ht="15.75" customHeight="1">
       <c r="A474" s="8"/>
       <c r="B474" s="3"/>
       <c r="C474" s="10"/>
@@ -13263,7 +13423,7 @@
       <c r="W474" s="3"/>
       <c r="X474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:24" ht="15.75" customHeight="1">
       <c r="A475" s="8"/>
       <c r="B475" s="3"/>
       <c r="C475" s="10"/>
@@ -13289,7 +13449,7 @@
       <c r="W475" s="3"/>
       <c r="X475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:24" ht="15.75" customHeight="1">
       <c r="A476" s="8"/>
       <c r="B476" s="3"/>
       <c r="C476" s="10"/>
@@ -13315,7 +13475,7 @@
       <c r="W476" s="3"/>
       <c r="X476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:24" ht="15.75" customHeight="1">
       <c r="A477" s="8"/>
       <c r="B477" s="3"/>
       <c r="C477" s="10"/>
@@ -13341,7 +13501,7 @@
       <c r="W477" s="3"/>
       <c r="X477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:24" ht="15.75" customHeight="1">
       <c r="A478" s="8"/>
       <c r="B478" s="3"/>
       <c r="C478" s="10"/>
@@ -13367,7 +13527,7 @@
       <c r="W478" s="3"/>
       <c r="X478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:24" ht="15.75" customHeight="1">
       <c r="A479" s="8"/>
       <c r="B479" s="3"/>
       <c r="C479" s="10"/>
@@ -13393,7 +13553,7 @@
       <c r="W479" s="3"/>
       <c r="X479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:24" ht="15.75" customHeight="1">
       <c r="A480" s="8"/>
       <c r="B480" s="3"/>
       <c r="C480" s="10"/>
@@ -13419,7 +13579,7 @@
       <c r="W480" s="3"/>
       <c r="X480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:24" ht="15.75" customHeight="1">
       <c r="A481" s="8"/>
       <c r="B481" s="3"/>
       <c r="C481" s="10"/>
@@ -13445,7 +13605,7 @@
       <c r="W481" s="3"/>
       <c r="X481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:24" ht="15.75" customHeight="1">
       <c r="A482" s="8"/>
       <c r="B482" s="3"/>
       <c r="C482" s="10"/>
@@ -13471,7 +13631,7 @@
       <c r="W482" s="3"/>
       <c r="X482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:24" ht="15.75" customHeight="1">
       <c r="A483" s="8"/>
       <c r="B483" s="3"/>
       <c r="C483" s="10"/>
@@ -13497,7 +13657,7 @@
       <c r="W483" s="3"/>
       <c r="X483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:24" ht="15.75" customHeight="1">
       <c r="A484" s="8"/>
       <c r="B484" s="3"/>
       <c r="C484" s="10"/>
@@ -13523,7 +13683,7 @@
       <c r="W484" s="3"/>
       <c r="X484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:24" ht="15.75" customHeight="1">
       <c r="A485" s="8"/>
       <c r="B485" s="3"/>
       <c r="C485" s="10"/>
@@ -13549,7 +13709,7 @@
       <c r="W485" s="3"/>
       <c r="X485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:24" ht="15.75" customHeight="1">
       <c r="A486" s="8"/>
       <c r="B486" s="3"/>
       <c r="C486" s="10"/>
@@ -13575,7 +13735,7 @@
       <c r="W486" s="3"/>
       <c r="X486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:24" ht="15.75" customHeight="1">
       <c r="A487" s="8"/>
       <c r="B487" s="3"/>
       <c r="C487" s="10"/>
@@ -13601,7 +13761,7 @@
       <c r="W487" s="3"/>
       <c r="X487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:24" ht="15.75" customHeight="1">
       <c r="A488" s="8"/>
       <c r="B488" s="3"/>
       <c r="C488" s="10"/>
@@ -13627,7 +13787,7 @@
       <c r="W488" s="3"/>
       <c r="X488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:24" ht="15.75" customHeight="1">
       <c r="A489" s="8"/>
       <c r="B489" s="3"/>
       <c r="C489" s="10"/>
@@ -13653,7 +13813,7 @@
       <c r="W489" s="3"/>
       <c r="X489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:24" ht="15.75" customHeight="1">
       <c r="A490" s="8"/>
       <c r="B490" s="3"/>
       <c r="C490" s="10"/>
@@ -13679,7 +13839,7 @@
       <c r="W490" s="3"/>
       <c r="X490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:24" ht="15.75" customHeight="1">
       <c r="A491" s="8"/>
       <c r="B491" s="3"/>
       <c r="C491" s="10"/>
@@ -13705,7 +13865,7 @@
       <c r="W491" s="3"/>
       <c r="X491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:24" ht="15.75" customHeight="1">
       <c r="A492" s="8"/>
       <c r="B492" s="3"/>
       <c r="C492" s="10"/>
@@ -13731,7 +13891,7 @@
       <c r="W492" s="3"/>
       <c r="X492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:24" ht="15.75" customHeight="1">
       <c r="A493" s="8"/>
       <c r="B493" s="3"/>
       <c r="C493" s="10"/>
@@ -13757,7 +13917,7 @@
       <c r="W493" s="3"/>
       <c r="X493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:24" ht="15.75" customHeight="1">
       <c r="A494" s="8"/>
       <c r="B494" s="3"/>
       <c r="C494" s="10"/>
@@ -13783,7 +13943,7 @@
       <c r="W494" s="3"/>
       <c r="X494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:24" ht="15.75" customHeight="1">
       <c r="A495" s="8"/>
       <c r="B495" s="3"/>
       <c r="C495" s="10"/>
@@ -13809,7 +13969,7 @@
       <c r="W495" s="3"/>
       <c r="X495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:24" ht="15.75" customHeight="1">
       <c r="A496" s="8"/>
       <c r="B496" s="3"/>
       <c r="C496" s="10"/>
@@ -13835,7 +13995,7 @@
       <c r="W496" s="3"/>
       <c r="X496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:24" ht="15.75" customHeight="1">
       <c r="A497" s="8"/>
       <c r="B497" s="3"/>
       <c r="C497" s="10"/>
@@ -13861,7 +14021,7 @@
       <c r="W497" s="3"/>
       <c r="X497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:24" ht="15.75" customHeight="1">
       <c r="A498" s="8"/>
       <c r="B498" s="3"/>
       <c r="C498" s="10"/>
@@ -13887,7 +14047,7 @@
       <c r="W498" s="3"/>
       <c r="X498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:24" ht="15.75" customHeight="1">
       <c r="A499" s="8"/>
       <c r="B499" s="3"/>
       <c r="C499" s="10"/>
@@ -13913,7 +14073,7 @@
       <c r="W499" s="3"/>
       <c r="X499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:24" ht="15.75" customHeight="1">
       <c r="A500" s="8"/>
       <c r="B500" s="3"/>
       <c r="C500" s="10"/>
@@ -13939,7 +14099,7 @@
       <c r="W500" s="3"/>
       <c r="X500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:24" ht="15.75" customHeight="1">
       <c r="A501" s="8"/>
       <c r="B501" s="3"/>
       <c r="C501" s="10"/>
@@ -13965,7 +14125,7 @@
       <c r="W501" s="3"/>
       <c r="X501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:24" ht="15.75" customHeight="1">
       <c r="A502" s="8"/>
       <c r="B502" s="3"/>
       <c r="C502" s="10"/>
@@ -13991,7 +14151,7 @@
       <c r="W502" s="3"/>
       <c r="X502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:24" ht="15.75" customHeight="1">
       <c r="A503" s="8"/>
       <c r="B503" s="3"/>
       <c r="C503" s="10"/>
@@ -14017,7 +14177,7 @@
       <c r="W503" s="3"/>
       <c r="X503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:24" ht="15.75" customHeight="1">
       <c r="A504" s="8"/>
       <c r="B504" s="3"/>
       <c r="C504" s="10"/>
@@ -14043,7 +14203,7 @@
       <c r="W504" s="3"/>
       <c r="X504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:24" ht="15.75" customHeight="1">
       <c r="A505" s="8"/>
       <c r="B505" s="3"/>
       <c r="C505" s="10"/>
@@ -14069,7 +14229,7 @@
       <c r="W505" s="3"/>
       <c r="X505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:24" ht="15.75" customHeight="1">
       <c r="A506" s="8"/>
       <c r="B506" s="3"/>
       <c r="C506" s="10"/>
@@ -14095,7 +14255,7 @@
       <c r="W506" s="3"/>
       <c r="X506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:24" ht="15.75" customHeight="1">
       <c r="A507" s="8"/>
       <c r="B507" s="3"/>
       <c r="C507" s="10"/>
@@ -14121,7 +14281,7 @@
       <c r="W507" s="3"/>
       <c r="X507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:24" ht="15.75" customHeight="1">
       <c r="A508" s="8"/>
       <c r="B508" s="3"/>
       <c r="C508" s="10"/>
@@ -14147,7 +14307,7 @@
       <c r="W508" s="3"/>
       <c r="X508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:24" ht="15.75" customHeight="1">
       <c r="A509" s="8"/>
       <c r="B509" s="3"/>
       <c r="C509" s="10"/>
@@ -14173,7 +14333,7 @@
       <c r="W509" s="3"/>
       <c r="X509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:24" ht="15.75" customHeight="1">
       <c r="A510" s="8"/>
       <c r="B510" s="3"/>
       <c r="C510" s="10"/>
@@ -14199,7 +14359,7 @@
       <c r="W510" s="3"/>
       <c r="X510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:24" ht="15.75" customHeight="1">
       <c r="A511" s="8"/>
       <c r="B511" s="3"/>
       <c r="C511" s="10"/>
@@ -14225,7 +14385,7 @@
       <c r="W511" s="3"/>
       <c r="X511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:24" ht="15.75" customHeight="1">
       <c r="A512" s="8"/>
       <c r="B512" s="3"/>
       <c r="C512" s="10"/>
@@ -14251,7 +14411,7 @@
       <c r="W512" s="3"/>
       <c r="X512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:24" ht="15.75" customHeight="1">
       <c r="A513" s="8"/>
       <c r="B513" s="3"/>
       <c r="C513" s="10"/>
@@ -14277,7 +14437,7 @@
       <c r="W513" s="3"/>
       <c r="X513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:24" ht="15.75" customHeight="1">
       <c r="A514" s="8"/>
       <c r="B514" s="3"/>
       <c r="C514" s="10"/>
@@ -14303,7 +14463,7 @@
       <c r="W514" s="3"/>
       <c r="X514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:24" ht="15.75" customHeight="1">
       <c r="A515" s="8"/>
       <c r="B515" s="3"/>
       <c r="C515" s="10"/>
@@ -14329,7 +14489,7 @@
       <c r="W515" s="3"/>
       <c r="X515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:24" ht="15.75" customHeight="1">
       <c r="A516" s="8"/>
       <c r="B516" s="3"/>
       <c r="C516" s="10"/>
@@ -14355,7 +14515,7 @@
       <c r="W516" s="3"/>
       <c r="X516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:24" ht="15.75" customHeight="1">
       <c r="A517" s="8"/>
       <c r="B517" s="3"/>
       <c r="C517" s="10"/>
@@ -14381,7 +14541,7 @@
       <c r="W517" s="3"/>
       <c r="X517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:24" ht="15.75" customHeight="1">
       <c r="A518" s="8"/>
       <c r="B518" s="3"/>
       <c r="C518" s="10"/>
@@ -14407,7 +14567,7 @@
       <c r="W518" s="3"/>
       <c r="X518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:24" ht="15.75" customHeight="1">
       <c r="A519" s="8"/>
       <c r="B519" s="3"/>
       <c r="C519" s="10"/>
@@ -14433,7 +14593,7 @@
       <c r="W519" s="3"/>
       <c r="X519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:24" ht="15.75" customHeight="1">
       <c r="A520" s="8"/>
       <c r="B520" s="3"/>
       <c r="C520" s="10"/>
@@ -14459,7 +14619,7 @@
       <c r="W520" s="3"/>
       <c r="X520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:24" ht="15.75" customHeight="1">
       <c r="A521" s="8"/>
       <c r="B521" s="3"/>
       <c r="C521" s="10"/>
@@ -14485,7 +14645,7 @@
       <c r="W521" s="3"/>
       <c r="X521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:24" ht="15.75" customHeight="1">
       <c r="A522" s="8"/>
       <c r="B522" s="3"/>
       <c r="C522" s="10"/>
@@ -14511,7 +14671,7 @@
       <c r="W522" s="3"/>
       <c r="X522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:24" ht="15.75" customHeight="1">
       <c r="A523" s="8"/>
       <c r="B523" s="3"/>
       <c r="C523" s="10"/>
@@ -14537,7 +14697,7 @@
       <c r="W523" s="3"/>
       <c r="X523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:24" ht="15.75" customHeight="1">
       <c r="A524" s="8"/>
       <c r="B524" s="3"/>
       <c r="C524" s="10"/>
@@ -14563,7 +14723,7 @@
       <c r="W524" s="3"/>
       <c r="X524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:24" ht="15.75" customHeight="1">
       <c r="A525" s="8"/>
       <c r="B525" s="3"/>
       <c r="C525" s="10"/>
@@ -14589,7 +14749,7 @@
       <c r="W525" s="3"/>
       <c r="X525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:24" ht="15.75" customHeight="1">
       <c r="A526" s="8"/>
       <c r="B526" s="3"/>
       <c r="C526" s="10"/>
@@ -14615,7 +14775,7 @@
       <c r="W526" s="3"/>
       <c r="X526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:24" ht="15.75" customHeight="1">
       <c r="A527" s="8"/>
       <c r="B527" s="3"/>
       <c r="C527" s="10"/>
@@ -14641,7 +14801,7 @@
       <c r="W527" s="3"/>
       <c r="X527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:24" ht="15.75" customHeight="1">
       <c r="A528" s="8"/>
       <c r="B528" s="3"/>
       <c r="C528" s="10"/>
@@ -14667,7 +14827,7 @@
       <c r="W528" s="3"/>
       <c r="X528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:24" ht="15.75" customHeight="1">
       <c r="A529" s="8"/>
       <c r="B529" s="3"/>
       <c r="C529" s="10"/>
@@ -14693,7 +14853,7 @@
       <c r="W529" s="3"/>
       <c r="X529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:24" ht="15.75" customHeight="1">
       <c r="A530" s="8"/>
       <c r="B530" s="3"/>
       <c r="C530" s="10"/>
@@ -14719,7 +14879,7 @@
       <c r="W530" s="3"/>
       <c r="X530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:24" ht="15.75" customHeight="1">
       <c r="A531" s="8"/>
       <c r="B531" s="3"/>
       <c r="C531" s="10"/>
@@ -14745,7 +14905,7 @@
       <c r="W531" s="3"/>
       <c r="X531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:24" ht="15.75" customHeight="1">
       <c r="A532" s="8"/>
       <c r="B532" s="3"/>
       <c r="C532" s="10"/>
@@ -14771,7 +14931,7 @@
       <c r="W532" s="3"/>
       <c r="X532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:24" ht="15.75" customHeight="1">
       <c r="A533" s="8"/>
       <c r="B533" s="3"/>
       <c r="C533" s="10"/>
@@ -14797,7 +14957,7 @@
       <c r="W533" s="3"/>
       <c r="X533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:24" ht="15.75" customHeight="1">
       <c r="A534" s="8"/>
       <c r="B534" s="3"/>
       <c r="C534" s="10"/>
@@ -14823,7 +14983,7 @@
       <c r="W534" s="3"/>
       <c r="X534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:24" ht="15.75" customHeight="1">
       <c r="A535" s="8"/>
       <c r="B535" s="3"/>
       <c r="C535" s="10"/>
@@ -14849,7 +15009,7 @@
       <c r="W535" s="3"/>
       <c r="X535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:24" ht="15.75" customHeight="1">
       <c r="A536" s="8"/>
       <c r="B536" s="3"/>
       <c r="C536" s="10"/>
@@ -14875,7 +15035,7 @@
       <c r="W536" s="3"/>
       <c r="X536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:24" ht="15.75" customHeight="1">
       <c r="A537" s="8"/>
       <c r="B537" s="3"/>
       <c r="C537" s="10"/>
@@ -14901,7 +15061,7 @@
       <c r="W537" s="3"/>
       <c r="X537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:24" ht="15.75" customHeight="1">
       <c r="A538" s="8"/>
       <c r="B538" s="3"/>
       <c r="C538" s="10"/>
@@ -14927,7 +15087,7 @@
       <c r="W538" s="3"/>
       <c r="X538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:24" ht="15.75" customHeight="1">
       <c r="A539" s="8"/>
       <c r="B539" s="3"/>
       <c r="C539" s="10"/>
@@ -14953,7 +15113,7 @@
       <c r="W539" s="3"/>
       <c r="X539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:24" ht="15.75" customHeight="1">
       <c r="A540" s="8"/>
       <c r="B540" s="3"/>
       <c r="C540" s="10"/>
@@ -14979,7 +15139,7 @@
       <c r="W540" s="3"/>
       <c r="X540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:24" ht="15.75" customHeight="1">
       <c r="A541" s="8"/>
       <c r="B541" s="3"/>
       <c r="C541" s="10"/>
@@ -15005,7 +15165,7 @@
       <c r="W541" s="3"/>
       <c r="X541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:24" ht="15.75" customHeight="1">
       <c r="A542" s="8"/>
       <c r="B542" s="3"/>
       <c r="C542" s="10"/>
@@ -15031,7 +15191,7 @@
       <c r="W542" s="3"/>
       <c r="X542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:24" ht="15.75" customHeight="1">
       <c r="A543" s="8"/>
       <c r="B543" s="3"/>
       <c r="C543" s="10"/>
@@ -15057,7 +15217,7 @@
       <c r="W543" s="3"/>
       <c r="X543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:24" ht="15.75" customHeight="1">
       <c r="A544" s="8"/>
       <c r="B544" s="3"/>
       <c r="C544" s="10"/>
@@ -15083,7 +15243,7 @@
       <c r="W544" s="3"/>
       <c r="X544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:24" ht="15.75" customHeight="1">
       <c r="A545" s="8"/>
       <c r="B545" s="3"/>
       <c r="C545" s="10"/>
@@ -15109,7 +15269,7 @@
       <c r="W545" s="3"/>
       <c r="X545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:24" ht="15.75" customHeight="1">
       <c r="A546" s="8"/>
       <c r="B546" s="3"/>
       <c r="C546" s="10"/>
@@ -15135,7 +15295,7 @@
       <c r="W546" s="3"/>
       <c r="X546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:24" ht="15.75" customHeight="1">
       <c r="A547" s="8"/>
       <c r="B547" s="3"/>
       <c r="C547" s="10"/>
@@ -15161,7 +15321,7 @@
       <c r="W547" s="3"/>
       <c r="X547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:24" ht="15.75" customHeight="1">
       <c r="A548" s="8"/>
       <c r="B548" s="3"/>
       <c r="C548" s="10"/>
@@ -15187,7 +15347,7 @@
       <c r="W548" s="3"/>
       <c r="X548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:24" ht="15.75" customHeight="1">
       <c r="A549" s="8"/>
       <c r="B549" s="3"/>
       <c r="C549" s="10"/>
@@ -15213,7 +15373,7 @@
       <c r="W549" s="3"/>
       <c r="X549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:24" ht="15.75" customHeight="1">
       <c r="A550" s="8"/>
       <c r="B550" s="3"/>
       <c r="C550" s="10"/>
@@ -15239,7 +15399,7 @@
       <c r="W550" s="3"/>
       <c r="X550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:24" ht="15.75" customHeight="1">
       <c r="A551" s="8"/>
       <c r="B551" s="3"/>
       <c r="C551" s="10"/>
@@ -15265,7 +15425,7 @@
       <c r="W551" s="3"/>
       <c r="X551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:24" ht="15.75" customHeight="1">
       <c r="A552" s="8"/>
       <c r="B552" s="3"/>
       <c r="C552" s="10"/>
@@ -15291,7 +15451,7 @@
       <c r="W552" s="3"/>
       <c r="X552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:24" ht="15.75" customHeight="1">
       <c r="A553" s="8"/>
       <c r="B553" s="3"/>
       <c r="C553" s="10"/>
@@ -15317,7 +15477,7 @@
       <c r="W553" s="3"/>
       <c r="X553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:24" ht="15.75" customHeight="1">
       <c r="A554" s="8"/>
       <c r="B554" s="3"/>
       <c r="C554" s="10"/>
@@ -15343,7 +15503,7 @@
       <c r="W554" s="3"/>
       <c r="X554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:24" ht="15.75" customHeight="1">
       <c r="A555" s="8"/>
       <c r="B555" s="3"/>
       <c r="C555" s="10"/>
@@ -15369,7 +15529,7 @@
       <c r="W555" s="3"/>
       <c r="X555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:24" ht="15.75" customHeight="1">
       <c r="A556" s="8"/>
       <c r="B556" s="3"/>
       <c r="C556" s="10"/>
@@ -15395,7 +15555,7 @@
       <c r="W556" s="3"/>
       <c r="X556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:24" ht="15.75" customHeight="1">
       <c r="A557" s="8"/>
       <c r="B557" s="3"/>
       <c r="C557" s="10"/>
@@ -15421,7 +15581,7 @@
       <c r="W557" s="3"/>
       <c r="X557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:24" ht="15.75" customHeight="1">
       <c r="A558" s="8"/>
       <c r="B558" s="3"/>
       <c r="C558" s="10"/>
@@ -15447,7 +15607,7 @@
       <c r="W558" s="3"/>
       <c r="X558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:24" ht="15.75" customHeight="1">
       <c r="A559" s="8"/>
       <c r="B559" s="3"/>
       <c r="C559" s="10"/>
@@ -15473,7 +15633,7 @@
       <c r="W559" s="3"/>
       <c r="X559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:24" ht="15.75" customHeight="1">
       <c r="A560" s="8"/>
       <c r="B560" s="3"/>
       <c r="C560" s="10"/>
@@ -15499,7 +15659,7 @@
       <c r="W560" s="3"/>
       <c r="X560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:24" ht="15.75" customHeight="1">
       <c r="A561" s="8"/>
       <c r="B561" s="3"/>
       <c r="C561" s="10"/>
@@ -15525,7 +15685,7 @@
       <c r="W561" s="3"/>
       <c r="X561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:24" ht="15.75" customHeight="1">
       <c r="A562" s="8"/>
       <c r="B562" s="3"/>
       <c r="C562" s="10"/>
@@ -15551,7 +15711,7 @@
       <c r="W562" s="3"/>
       <c r="X562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:24" ht="15.75" customHeight="1">
       <c r="A563" s="8"/>
       <c r="B563" s="3"/>
       <c r="C563" s="10"/>
@@ -15577,7 +15737,7 @@
       <c r="W563" s="3"/>
       <c r="X563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:24" ht="15.75" customHeight="1">
       <c r="A564" s="8"/>
       <c r="B564" s="3"/>
       <c r="C564" s="10"/>
@@ -15603,7 +15763,7 @@
       <c r="W564" s="3"/>
       <c r="X564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:24" ht="15.75" customHeight="1">
       <c r="A565" s="8"/>
       <c r="B565" s="3"/>
       <c r="C565" s="10"/>
@@ -15629,7 +15789,7 @@
       <c r="W565" s="3"/>
       <c r="X565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:24" ht="15.75" customHeight="1">
       <c r="A566" s="8"/>
       <c r="B566" s="3"/>
       <c r="C566" s="10"/>
@@ -15655,7 +15815,7 @@
       <c r="W566" s="3"/>
       <c r="X566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:24" ht="15.75" customHeight="1">
       <c r="A567" s="8"/>
       <c r="B567" s="3"/>
       <c r="C567" s="10"/>
@@ -15681,7 +15841,7 @@
       <c r="W567" s="3"/>
       <c r="X567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:24" ht="15.75" customHeight="1">
       <c r="A568" s="8"/>
       <c r="B568" s="3"/>
       <c r="C568" s="10"/>
@@ -15707,7 +15867,7 @@
       <c r="W568" s="3"/>
       <c r="X568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:24" ht="15.75" customHeight="1">
       <c r="A569" s="8"/>
       <c r="B569" s="3"/>
       <c r="C569" s="10"/>
@@ -15733,7 +15893,7 @@
       <c r="W569" s="3"/>
       <c r="X569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:24" ht="15.75" customHeight="1">
       <c r="A570" s="8"/>
       <c r="B570" s="3"/>
       <c r="C570" s="10"/>
@@ -15759,7 +15919,7 @@
       <c r="W570" s="3"/>
       <c r="X570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:24" ht="15.75" customHeight="1">
       <c r="A571" s="8"/>
       <c r="B571" s="3"/>
       <c r="C571" s="10"/>
@@ -15785,7 +15945,7 @@
       <c r="W571" s="3"/>
       <c r="X571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:24" ht="15.75" customHeight="1">
       <c r="A572" s="8"/>
       <c r="B572" s="3"/>
       <c r="C572" s="10"/>
@@ -15811,7 +15971,7 @@
       <c r="W572" s="3"/>
       <c r="X572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:24" ht="15.75" customHeight="1">
       <c r="A573" s="8"/>
       <c r="B573" s="3"/>
       <c r="C573" s="10"/>
@@ -15837,7 +15997,7 @@
       <c r="W573" s="3"/>
       <c r="X573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:24" ht="15.75" customHeight="1">
       <c r="A574" s="8"/>
       <c r="B574" s="3"/>
       <c r="C574" s="10"/>
@@ -15863,7 +16023,7 @@
       <c r="W574" s="3"/>
       <c r="X574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:24" ht="15.75" customHeight="1">
       <c r="A575" s="8"/>
       <c r="B575" s="3"/>
       <c r="C575" s="10"/>
@@ -15889,7 +16049,7 @@
       <c r="W575" s="3"/>
       <c r="X575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:24" ht="15.75" customHeight="1">
       <c r="A576" s="8"/>
       <c r="B576" s="3"/>
       <c r="C576" s="10"/>
@@ -15915,7 +16075,7 @@
       <c r="W576" s="3"/>
       <c r="X576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:24" ht="15.75" customHeight="1">
       <c r="A577" s="8"/>
       <c r="B577" s="3"/>
       <c r="C577" s="10"/>
@@ -15941,7 +16101,7 @@
       <c r="W577" s="3"/>
       <c r="X577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:24" ht="15.75" customHeight="1">
       <c r="A578" s="8"/>
       <c r="B578" s="3"/>
       <c r="C578" s="10"/>
@@ -15967,7 +16127,7 @@
       <c r="W578" s="3"/>
       <c r="X578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:24" ht="15.75" customHeight="1">
       <c r="A579" s="8"/>
       <c r="B579" s="3"/>
       <c r="C579" s="10"/>
@@ -15993,7 +16153,7 @@
       <c r="W579" s="3"/>
       <c r="X579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:24" ht="15.75" customHeight="1">
       <c r="A580" s="8"/>
       <c r="B580" s="3"/>
       <c r="C580" s="10"/>
@@ -16019,7 +16179,7 @@
       <c r="W580" s="3"/>
       <c r="X580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:24" ht="15.75" customHeight="1">
       <c r="A581" s="8"/>
       <c r="B581" s="3"/>
       <c r="C581" s="10"/>
@@ -16045,7 +16205,7 @@
       <c r="W581" s="3"/>
       <c r="X581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:24" ht="15.75" customHeight="1">
       <c r="A582" s="8"/>
       <c r="B582" s="3"/>
       <c r="C582" s="10"/>
@@ -16071,7 +16231,7 @@
       <c r="W582" s="3"/>
       <c r="X582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:24" ht="15.75" customHeight="1">
       <c r="A583" s="8"/>
       <c r="B583" s="3"/>
       <c r="C583" s="10"/>
@@ -16097,7 +16257,7 @@
       <c r="W583" s="3"/>
       <c r="X583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:24" ht="15.75" customHeight="1">
       <c r="A584" s="8"/>
       <c r="B584" s="3"/>
       <c r="C584" s="10"/>
@@ -16123,7 +16283,7 @@
       <c r="W584" s="3"/>
       <c r="X584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:24" ht="15.75" customHeight="1">
       <c r="A585" s="8"/>
       <c r="B585" s="3"/>
       <c r="C585" s="10"/>
@@ -16149,7 +16309,7 @@
       <c r="W585" s="3"/>
       <c r="X585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:24" ht="15.75" customHeight="1">
       <c r="A586" s="8"/>
       <c r="B586" s="3"/>
       <c r="C586" s="10"/>
@@ -16175,7 +16335,7 @@
       <c r="W586" s="3"/>
       <c r="X586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:24" ht="15.75" customHeight="1">
       <c r="A587" s="8"/>
       <c r="B587" s="3"/>
       <c r="C587" s="10"/>
@@ -16201,7 +16361,7 @@
       <c r="W587" s="3"/>
       <c r="X587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:24" ht="15.75" customHeight="1">
       <c r="A588" s="8"/>
       <c r="B588" s="3"/>
       <c r="C588" s="10"/>
@@ -16227,7 +16387,7 @@
       <c r="W588" s="3"/>
       <c r="X588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:24" ht="15.75" customHeight="1">
       <c r="A589" s="8"/>
       <c r="B589" s="3"/>
       <c r="C589" s="10"/>
@@ -16253,7 +16413,7 @@
       <c r="W589" s="3"/>
       <c r="X589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:24" ht="15.75" customHeight="1">
       <c r="A590" s="8"/>
       <c r="B590" s="3"/>
       <c r="C590" s="10"/>
@@ -16279,7 +16439,7 @@
       <c r="W590" s="3"/>
       <c r="X590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:24" ht="15.75" customHeight="1">
       <c r="A591" s="8"/>
       <c r="B591" s="3"/>
       <c r="C591" s="10"/>
@@ -16305,7 +16465,7 @@
       <c r="W591" s="3"/>
       <c r="X591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:24" ht="15.75" customHeight="1">
       <c r="A592" s="8"/>
       <c r="B592" s="3"/>
       <c r="C592" s="10"/>
@@ -16331,7 +16491,7 @@
       <c r="W592" s="3"/>
       <c r="X592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:24" ht="15.75" customHeight="1">
       <c r="A593" s="8"/>
       <c r="B593" s="3"/>
       <c r="C593" s="10"/>
@@ -16357,7 +16517,7 @@
       <c r="W593" s="3"/>
       <c r="X593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:24" ht="15.75" customHeight="1">
       <c r="A594" s="8"/>
       <c r="B594" s="3"/>
       <c r="C594" s="10"/>
@@ -16383,7 +16543,7 @@
       <c r="W594" s="3"/>
       <c r="X594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:24" ht="15.75" customHeight="1">
       <c r="A595" s="8"/>
       <c r="B595" s="3"/>
       <c r="C595" s="10"/>
@@ -16409,7 +16569,7 @@
       <c r="W595" s="3"/>
       <c r="X595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:24" ht="15.75" customHeight="1">
       <c r="A596" s="8"/>
       <c r="B596" s="3"/>
       <c r="C596" s="10"/>
@@ -16435,7 +16595,7 @@
       <c r="W596" s="3"/>
       <c r="X596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:24" ht="15.75" customHeight="1">
       <c r="A597" s="8"/>
       <c r="B597" s="3"/>
       <c r="C597" s="10"/>
@@ -16461,7 +16621,7 @@
       <c r="W597" s="3"/>
       <c r="X597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:24" ht="15.75" customHeight="1">
       <c r="A598" s="8"/>
       <c r="B598" s="3"/>
       <c r="C598" s="10"/>
@@ -16487,7 +16647,7 @@
       <c r="W598" s="3"/>
       <c r="X598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:24" ht="15.75" customHeight="1">
       <c r="A599" s="8"/>
       <c r="B599" s="3"/>
       <c r="C599" s="10"/>
@@ -16513,7 +16673,7 @@
       <c r="W599" s="3"/>
       <c r="X599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:24" ht="15.75" customHeight="1">
       <c r="A600" s="8"/>
       <c r="B600" s="3"/>
       <c r="C600" s="10"/>
@@ -16539,7 +16699,7 @@
       <c r="W600" s="3"/>
       <c r="X600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:24" ht="15.75" customHeight="1">
       <c r="A601" s="8"/>
       <c r="B601" s="3"/>
       <c r="C601" s="10"/>
@@ -16565,7 +16725,7 @@
       <c r="W601" s="3"/>
       <c r="X601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:24" ht="15.75" customHeight="1">
       <c r="A602" s="8"/>
       <c r="B602" s="3"/>
       <c r="C602" s="10"/>
@@ -16591,7 +16751,7 @@
       <c r="W602" s="3"/>
       <c r="X602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:24" ht="15.75" customHeight="1">
       <c r="A603" s="8"/>
       <c r="B603" s="3"/>
       <c r="C603" s="10"/>
@@ -16617,7 +16777,7 @@
       <c r="W603" s="3"/>
       <c r="X603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:24" ht="15.75" customHeight="1">
       <c r="A604" s="8"/>
       <c r="B604" s="3"/>
       <c r="C604" s="10"/>
@@ -16643,7 +16803,7 @@
       <c r="W604" s="3"/>
       <c r="X604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:24" ht="15.75" customHeight="1">
       <c r="A605" s="8"/>
       <c r="B605" s="3"/>
       <c r="C605" s="10"/>
@@ -16669,7 +16829,7 @@
       <c r="W605" s="3"/>
       <c r="X605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:24" ht="15.75" customHeight="1">
       <c r="A606" s="8"/>
       <c r="B606" s="3"/>
       <c r="C606" s="10"/>
@@ -16695,7 +16855,7 @@
       <c r="W606" s="3"/>
       <c r="X606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:24" ht="15.75" customHeight="1">
       <c r="A607" s="8"/>
       <c r="B607" s="3"/>
       <c r="C607" s="10"/>
@@ -16721,7 +16881,7 @@
       <c r="W607" s="3"/>
       <c r="X607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:24" ht="15.75" customHeight="1">
       <c r="A608" s="8"/>
       <c r="B608" s="3"/>
       <c r="C608" s="10"/>
@@ -16747,7 +16907,7 @@
       <c r="W608" s="3"/>
       <c r="X608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:24" ht="15.75" customHeight="1">
       <c r="A609" s="8"/>
       <c r="B609" s="3"/>
       <c r="C609" s="10"/>
@@ -16773,7 +16933,7 @@
       <c r="W609" s="3"/>
       <c r="X609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:24" ht="15.75" customHeight="1">
       <c r="A610" s="8"/>
       <c r="B610" s="3"/>
       <c r="C610" s="10"/>
@@ -16799,7 +16959,7 @@
       <c r="W610" s="3"/>
       <c r="X610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:24" ht="15.75" customHeight="1">
       <c r="A611" s="8"/>
       <c r="B611" s="3"/>
       <c r="C611" s="10"/>
@@ -16825,7 +16985,7 @@
       <c r="W611" s="3"/>
       <c r="X611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:24" ht="15.75" customHeight="1">
       <c r="A612" s="8"/>
       <c r="B612" s="3"/>
       <c r="C612" s="10"/>
@@ -16851,7 +17011,7 @@
       <c r="W612" s="3"/>
       <c r="X612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:24" ht="15.75" customHeight="1">
       <c r="A613" s="8"/>
       <c r="B613" s="3"/>
       <c r="C613" s="10"/>
@@ -16877,7 +17037,7 @@
       <c r="W613" s="3"/>
       <c r="X613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:24" ht="15.75" customHeight="1">
       <c r="A614" s="8"/>
       <c r="B614" s="3"/>
       <c r="C614" s="10"/>
@@ -16903,7 +17063,7 @@
       <c r="W614" s="3"/>
       <c r="X614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:24" ht="15.75" customHeight="1">
       <c r="A615" s="8"/>
       <c r="B615" s="3"/>
       <c r="C615" s="10"/>
@@ -16929,7 +17089,7 @@
       <c r="W615" s="3"/>
       <c r="X615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:24" ht="15.75" customHeight="1">
       <c r="A616" s="8"/>
       <c r="B616" s="3"/>
       <c r="C616" s="10"/>
@@ -16955,7 +17115,7 @@
       <c r="W616" s="3"/>
       <c r="X616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:24" ht="15.75" customHeight="1">
       <c r="A617" s="8"/>
       <c r="B617" s="3"/>
       <c r="C617" s="10"/>
@@ -16981,7 +17141,7 @@
       <c r="W617" s="3"/>
       <c r="X617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:24" ht="15.75" customHeight="1">
       <c r="A618" s="8"/>
       <c r="B618" s="3"/>
       <c r="C618" s="10"/>
@@ -17007,7 +17167,7 @@
       <c r="W618" s="3"/>
       <c r="X618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:24" ht="15.75" customHeight="1">
       <c r="A619" s="8"/>
       <c r="B619" s="3"/>
       <c r="C619" s="10"/>
@@ -17033,7 +17193,7 @@
       <c r="W619" s="3"/>
       <c r="X619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:24" ht="15.75" customHeight="1">
       <c r="A620" s="8"/>
       <c r="B620" s="3"/>
       <c r="C620" s="10"/>
@@ -17059,7 +17219,7 @@
       <c r="W620" s="3"/>
       <c r="X620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:24" ht="15.75" customHeight="1">
       <c r="A621" s="8"/>
       <c r="B621" s="3"/>
       <c r="C621" s="10"/>
@@ -17085,7 +17245,7 @@
       <c r="W621" s="3"/>
       <c r="X621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:24" ht="15.75" customHeight="1">
       <c r="A622" s="8"/>
       <c r="B622" s="3"/>
       <c r="C622" s="10"/>
@@ -17111,7 +17271,7 @@
       <c r="W622" s="3"/>
       <c r="X622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:24" ht="15.75" customHeight="1">
       <c r="A623" s="8"/>
       <c r="B623" s="3"/>
       <c r="C623" s="10"/>
@@ -17137,7 +17297,7 @@
       <c r="W623" s="3"/>
       <c r="X623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:24" ht="15.75" customHeight="1">
       <c r="A624" s="8"/>
       <c r="B624" s="3"/>
       <c r="C624" s="10"/>
@@ -17163,7 +17323,7 @@
       <c r="W624" s="3"/>
       <c r="X624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:24" ht="15.75" customHeight="1">
       <c r="A625" s="8"/>
       <c r="B625" s="3"/>
       <c r="C625" s="10"/>
@@ -17189,7 +17349,7 @@
       <c r="W625" s="3"/>
       <c r="X625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:24" ht="15.75" customHeight="1">
       <c r="A626" s="8"/>
       <c r="B626" s="3"/>
       <c r="C626" s="10"/>
@@ -17215,7 +17375,7 @@
       <c r="W626" s="3"/>
       <c r="X626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:24" ht="15.75" customHeight="1">
       <c r="A627" s="8"/>
       <c r="B627" s="3"/>
       <c r="C627" s="10"/>
@@ -17241,7 +17401,7 @@
       <c r="W627" s="3"/>
       <c r="X627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:24" ht="15.75" customHeight="1">
       <c r="A628" s="8"/>
       <c r="B628" s="3"/>
       <c r="C628" s="10"/>
@@ -17267,7 +17427,7 @@
       <c r="W628" s="3"/>
       <c r="X628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:24" ht="15.75" customHeight="1">
       <c r="A629" s="8"/>
       <c r="B629" s="3"/>
       <c r="C629" s="10"/>
@@ -17293,7 +17453,7 @@
       <c r="W629" s="3"/>
       <c r="X629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:24" ht="15.75" customHeight="1">
       <c r="A630" s="8"/>
       <c r="B630" s="3"/>
       <c r="C630" s="10"/>
@@ -17319,7 +17479,7 @@
       <c r="W630" s="3"/>
       <c r="X630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:24" ht="15.75" customHeight="1">
       <c r="A631" s="8"/>
       <c r="B631" s="3"/>
       <c r="C631" s="10"/>
@@ -17345,7 +17505,7 @@
       <c r="W631" s="3"/>
       <c r="X631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:24" ht="15.75" customHeight="1">
       <c r="A632" s="8"/>
       <c r="B632" s="3"/>
       <c r="C632" s="10"/>
@@ -17371,7 +17531,7 @@
       <c r="W632" s="3"/>
       <c r="X632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:24" ht="15.75" customHeight="1">
       <c r="A633" s="8"/>
       <c r="B633" s="3"/>
       <c r="C633" s="10"/>
@@ -17397,7 +17557,7 @@
       <c r="W633" s="3"/>
       <c r="X633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:24" ht="15.75" customHeight="1">
       <c r="A634" s="8"/>
       <c r="B634" s="3"/>
       <c r="C634" s="10"/>
@@ -17423,7 +17583,7 @@
       <c r="W634" s="3"/>
       <c r="X634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:24" ht="15.75" customHeight="1">
       <c r="A635" s="8"/>
       <c r="B635" s="3"/>
       <c r="C635" s="10"/>
@@ -17449,7 +17609,7 @@
       <c r="W635" s="3"/>
       <c r="X635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:24" ht="15.75" customHeight="1">
       <c r="A636" s="8"/>
       <c r="B636" s="3"/>
       <c r="C636" s="10"/>
@@ -17475,7 +17635,7 @@
       <c r="W636" s="3"/>
       <c r="X636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:24" ht="15.75" customHeight="1">
       <c r="A637" s="8"/>
       <c r="B637" s="3"/>
       <c r="C637" s="10"/>
@@ -17501,7 +17661,7 @@
       <c r="W637" s="3"/>
       <c r="X637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:24" ht="15.75" customHeight="1">
       <c r="A638" s="8"/>
       <c r="B638" s="3"/>
       <c r="C638" s="10"/>
@@ -17527,7 +17687,7 @@
       <c r="W638" s="3"/>
       <c r="X638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:24" ht="15.75" customHeight="1">
       <c r="A639" s="8"/>
       <c r="B639" s="3"/>
       <c r="C639" s="10"/>
@@ -17553,7 +17713,7 @@
       <c r="W639" s="3"/>
       <c r="X639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:24" ht="15.75" customHeight="1">
       <c r="A640" s="8"/>
       <c r="B640" s="3"/>
       <c r="C640" s="10"/>
@@ -17579,7 +17739,7 @@
       <c r="W640" s="3"/>
       <c r="X640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:24" ht="15.75" customHeight="1">
       <c r="A641" s="8"/>
       <c r="B641" s="3"/>
       <c r="C641" s="10"/>
@@ -17605,7 +17765,7 @@
       <c r="W641" s="3"/>
       <c r="X641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:24" ht="15.75" customHeight="1">
       <c r="A642" s="8"/>
       <c r="B642" s="3"/>
       <c r="C642" s="10"/>
@@ -17631,7 +17791,7 @@
       <c r="W642" s="3"/>
       <c r="X642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:24" ht="15.75" customHeight="1">
       <c r="A643" s="8"/>
       <c r="B643" s="3"/>
       <c r="C643" s="10"/>
@@ -17657,7 +17817,7 @@
       <c r="W643" s="3"/>
       <c r="X643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:24" ht="15.75" customHeight="1">
       <c r="A644" s="8"/>
       <c r="B644" s="3"/>
       <c r="C644" s="10"/>
@@ -17683,7 +17843,7 @@
       <c r="W644" s="3"/>
       <c r="X644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:24" ht="15.75" customHeight="1">
       <c r="A645" s="8"/>
       <c r="B645" s="3"/>
       <c r="C645" s="10"/>
@@ -17709,7 +17869,7 @@
       <c r="W645" s="3"/>
       <c r="X645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:24" ht="15.75" customHeight="1">
       <c r="A646" s="8"/>
       <c r="B646" s="3"/>
       <c r="C646" s="10"/>
@@ -17735,7 +17895,7 @@
       <c r="W646" s="3"/>
       <c r="X646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:24" ht="15.75" customHeight="1">
       <c r="A647" s="8"/>
       <c r="B647" s="3"/>
       <c r="C647" s="10"/>
@@ -17761,7 +17921,7 @@
       <c r="W647" s="3"/>
       <c r="X647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:24" ht="15.75" customHeight="1">
       <c r="A648" s="8"/>
       <c r="B648" s="3"/>
       <c r="C648" s="10"/>
@@ -17787,7 +17947,7 @@
       <c r="W648" s="3"/>
       <c r="X648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:24" ht="15.75" customHeight="1">
       <c r="A649" s="8"/>
       <c r="B649" s="3"/>
       <c r="C649" s="10"/>
@@ -17813,7 +17973,7 @@
       <c r="W649" s="3"/>
       <c r="X649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:24" ht="15.75" customHeight="1">
       <c r="A650" s="8"/>
       <c r="B650" s="3"/>
       <c r="C650" s="10"/>
@@ -17839,7 +17999,7 @@
       <c r="W650" s="3"/>
       <c r="X650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:24" ht="15.75" customHeight="1">
       <c r="A651" s="8"/>
       <c r="B651" s="3"/>
       <c r="C651" s="10"/>
@@ -17865,7 +18025,7 @@
       <c r="W651" s="3"/>
       <c r="X651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:24" ht="15.75" customHeight="1">
       <c r="A652" s="8"/>
       <c r="B652" s="3"/>
       <c r="C652" s="10"/>
@@ -17891,7 +18051,7 @@
       <c r="W652" s="3"/>
       <c r="X652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:24" ht="15.75" customHeight="1">
       <c r="A653" s="8"/>
       <c r="B653" s="3"/>
       <c r="C653" s="10"/>
@@ -17917,7 +18077,7 @@
       <c r="W653" s="3"/>
       <c r="X653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:24" ht="15.75" customHeight="1">
       <c r="A654" s="8"/>
       <c r="B654" s="3"/>
       <c r="C654" s="10"/>
@@ -17943,7 +18103,7 @@
       <c r="W654" s="3"/>
       <c r="X654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:24" ht="15.75" customHeight="1">
       <c r="A655" s="8"/>
       <c r="B655" s="3"/>
       <c r="C655" s="10"/>
@@ -17969,7 +18129,7 @@
       <c r="W655" s="3"/>
       <c r="X655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:24" ht="15.75" customHeight="1">
       <c r="A656" s="8"/>
       <c r="B656" s="3"/>
       <c r="C656" s="10"/>
@@ -17995,7 +18155,7 @@
       <c r="W656" s="3"/>
       <c r="X656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:24" ht="15.75" customHeight="1">
       <c r="A657" s="8"/>
       <c r="B657" s="3"/>
       <c r="C657" s="10"/>
@@ -18021,7 +18181,7 @@
       <c r="W657" s="3"/>
       <c r="X657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:24" ht="15.75" customHeight="1">
       <c r="A658" s="8"/>
       <c r="B658" s="3"/>
       <c r="C658" s="10"/>
@@ -18047,7 +18207,7 @@
       <c r="W658" s="3"/>
       <c r="X658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:24" ht="15.75" customHeight="1">
       <c r="A659" s="8"/>
       <c r="B659" s="3"/>
       <c r="C659" s="10"/>
@@ -18073,7 +18233,7 @@
       <c r="W659" s="3"/>
       <c r="X659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:24" ht="15.75" customHeight="1">
       <c r="A660" s="8"/>
       <c r="B660" s="3"/>
       <c r="C660" s="10"/>
@@ -18099,7 +18259,7 @@
       <c r="W660" s="3"/>
       <c r="X660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:24" ht="15.75" customHeight="1">
       <c r="A661" s="8"/>
       <c r="B661" s="3"/>
       <c r="C661" s="10"/>
@@ -18125,7 +18285,7 @@
       <c r="W661" s="3"/>
       <c r="X661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:24" ht="15.75" customHeight="1">
       <c r="A662" s="8"/>
       <c r="B662" s="3"/>
       <c r="C662" s="10"/>
@@ -18151,7 +18311,7 @@
       <c r="W662" s="3"/>
       <c r="X662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:24" ht="15.75" customHeight="1">
       <c r="A663" s="8"/>
       <c r="B663" s="3"/>
       <c r="C663" s="10"/>
@@ -18177,7 +18337,7 @@
       <c r="W663" s="3"/>
       <c r="X663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:24" ht="15.75" customHeight="1">
       <c r="A664" s="8"/>
       <c r="B664" s="3"/>
       <c r="C664" s="10"/>
@@ -18203,7 +18363,7 @@
       <c r="W664" s="3"/>
       <c r="X664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:24" ht="15.75" customHeight="1">
       <c r="A665" s="8"/>
       <c r="B665" s="3"/>
       <c r="C665" s="10"/>
@@ -18229,7 +18389,7 @@
       <c r="W665" s="3"/>
       <c r="X665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:24" ht="15.75" customHeight="1">
       <c r="A666" s="8"/>
       <c r="B666" s="3"/>
       <c r="C666" s="10"/>
@@ -18255,7 +18415,7 @@
       <c r="W666" s="3"/>
       <c r="X666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:24" ht="15.75" customHeight="1">
       <c r="A667" s="8"/>
       <c r="B667" s="3"/>
       <c r="C667" s="10"/>
@@ -18281,7 +18441,7 @@
       <c r="W667" s="3"/>
       <c r="X667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:24" ht="15.75" customHeight="1">
       <c r="A668" s="8"/>
       <c r="B668" s="3"/>
       <c r="C668" s="10"/>
@@ -18307,7 +18467,7 @@
       <c r="W668" s="3"/>
       <c r="X668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:24" ht="15.75" customHeight="1">
       <c r="A669" s="8"/>
       <c r="B669" s="3"/>
       <c r="C669" s="10"/>
@@ -18333,7 +18493,7 @@
       <c r="W669" s="3"/>
       <c r="X669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:24" ht="15.75" customHeight="1">
       <c r="A670" s="8"/>
       <c r="B670" s="3"/>
       <c r="C670" s="10"/>
@@ -18359,7 +18519,7 @@
       <c r="W670" s="3"/>
       <c r="X670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:24" ht="15.75" customHeight="1">
       <c r="A671" s="8"/>
       <c r="B671" s="3"/>
       <c r="C671" s="10"/>
@@ -18385,7 +18545,7 @@
       <c r="W671" s="3"/>
       <c r="X671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:24" ht="15.75" customHeight="1">
       <c r="A672" s="8"/>
       <c r="B672" s="3"/>
       <c r="C672" s="10"/>
@@ -18411,7 +18571,7 @@
       <c r="W672" s="3"/>
       <c r="X672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:24" ht="15.75" customHeight="1">
       <c r="A673" s="8"/>
       <c r="B673" s="3"/>
       <c r="C673" s="10"/>
@@ -18437,7 +18597,7 @@
       <c r="W673" s="3"/>
       <c r="X673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:24" ht="15.75" customHeight="1">
       <c r="A674" s="8"/>
       <c r="B674" s="3"/>
       <c r="C674" s="10"/>
@@ -18463,7 +18623,7 @@
       <c r="W674" s="3"/>
       <c r="X674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:24" ht="15.75" customHeight="1">
       <c r="A675" s="8"/>
       <c r="B675" s="3"/>
       <c r="C675" s="10"/>
@@ -18489,7 +18649,7 @@
       <c r="W675" s="3"/>
       <c r="X675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:24" ht="15.75" customHeight="1">
       <c r="A676" s="8"/>
       <c r="B676" s="3"/>
       <c r="C676" s="10"/>
@@ -18515,7 +18675,7 @@
       <c r="W676" s="3"/>
       <c r="X676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:24" ht="15.75" customHeight="1">
       <c r="A677" s="8"/>
       <c r="B677" s="3"/>
       <c r="C677" s="10"/>
@@ -18541,7 +18701,7 @@
       <c r="W677" s="3"/>
       <c r="X677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:24" ht="15.75" customHeight="1">
       <c r="A678" s="8"/>
       <c r="B678" s="3"/>
       <c r="C678" s="10"/>
@@ -18567,7 +18727,7 @@
       <c r="W678" s="3"/>
       <c r="X678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:24" ht="15.75" customHeight="1">
       <c r="A679" s="8"/>
       <c r="B679" s="3"/>
       <c r="C679" s="10"/>
@@ -18593,7 +18753,7 @@
       <c r="W679" s="3"/>
       <c r="X679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:24" ht="15.75" customHeight="1">
       <c r="A680" s="8"/>
       <c r="B680" s="3"/>
       <c r="C680" s="10"/>
@@ -18619,7 +18779,7 @@
       <c r="W680" s="3"/>
       <c r="X680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:24" ht="15.75" customHeight="1">
       <c r="A681" s="8"/>
       <c r="B681" s="3"/>
       <c r="C681" s="10"/>
@@ -18645,7 +18805,7 @@
       <c r="W681" s="3"/>
       <c r="X681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:24" ht="15.75" customHeight="1">
       <c r="A682" s="8"/>
       <c r="B682" s="3"/>
       <c r="C682" s="10"/>
@@ -18671,7 +18831,7 @@
       <c r="W682" s="3"/>
       <c r="X682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:24" ht="15.75" customHeight="1">
       <c r="A683" s="8"/>
       <c r="B683" s="3"/>
       <c r="C683" s="10"/>
@@ -18697,7 +18857,7 @@
       <c r="W683" s="3"/>
       <c r="X683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:24" ht="15.75" customHeight="1">
       <c r="A684" s="8"/>
       <c r="B684" s="3"/>
       <c r="C684" s="10"/>
@@ -18723,7 +18883,7 @@
       <c r="W684" s="3"/>
       <c r="X684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:24" ht="15.75" customHeight="1">
       <c r="A685" s="8"/>
       <c r="B685" s="3"/>
       <c r="C685" s="10"/>
@@ -18749,7 +18909,7 @@
       <c r="W685" s="3"/>
       <c r="X685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:24" ht="15.75" customHeight="1">
       <c r="A686" s="8"/>
       <c r="B686" s="3"/>
       <c r="C686" s="10"/>
@@ -18775,7 +18935,7 @@
       <c r="W686" s="3"/>
       <c r="X686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:24" ht="15.75" customHeight="1">
       <c r="A687" s="8"/>
       <c r="B687" s="3"/>
       <c r="C687" s="10"/>
@@ -18801,7 +18961,7 @@
       <c r="W687" s="3"/>
       <c r="X687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:24" ht="15.75" customHeight="1">
       <c r="A688" s="8"/>
       <c r="B688" s="3"/>
       <c r="C688" s="10"/>
@@ -18827,7 +18987,7 @@
       <c r="W688" s="3"/>
       <c r="X688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:24" ht="15.75" customHeight="1">
       <c r="A689" s="8"/>
       <c r="B689" s="3"/>
       <c r="C689" s="10"/>
@@ -18853,7 +19013,7 @@
       <c r="W689" s="3"/>
       <c r="X689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:24" ht="15.75" customHeight="1">
       <c r="A690" s="8"/>
       <c r="B690" s="3"/>
       <c r="C690" s="10"/>
@@ -18879,7 +19039,7 @@
       <c r="W690" s="3"/>
       <c r="X690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:24" ht="15.75" customHeight="1">
       <c r="A691" s="8"/>
       <c r="B691" s="3"/>
       <c r="C691" s="10"/>
@@ -18905,7 +19065,7 @@
       <c r="W691" s="3"/>
       <c r="X691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:24" ht="15.75" customHeight="1">
       <c r="A692" s="8"/>
       <c r="B692" s="3"/>
       <c r="C692" s="10"/>
@@ -18931,7 +19091,7 @@
       <c r="W692" s="3"/>
       <c r="X692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:24" ht="15.75" customHeight="1">
       <c r="A693" s="8"/>
       <c r="B693" s="3"/>
       <c r="C693" s="10"/>
@@ -18957,7 +19117,7 @@
       <c r="W693" s="3"/>
       <c r="X693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:24" ht="15.75" customHeight="1">
       <c r="A694" s="8"/>
       <c r="B694" s="3"/>
       <c r="C694" s="10"/>
@@ -18983,7 +19143,7 @@
       <c r="W694" s="3"/>
       <c r="X694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:24" ht="15.75" customHeight="1">
       <c r="A695" s="8"/>
       <c r="B695" s="3"/>
       <c r="C695" s="10"/>
@@ -19009,7 +19169,7 @@
       <c r="W695" s="3"/>
       <c r="X695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:24" ht="15.75" customHeight="1">
       <c r="A696" s="8"/>
       <c r="B696" s="3"/>
       <c r="C696" s="10"/>
@@ -19035,7 +19195,7 @@
       <c r="W696" s="3"/>
       <c r="X696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:24" ht="15.75" customHeight="1">
       <c r="A697" s="8"/>
       <c r="B697" s="3"/>
       <c r="C697" s="10"/>
@@ -19061,7 +19221,7 @@
       <c r="W697" s="3"/>
       <c r="X697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:24" ht="15.75" customHeight="1">
       <c r="A698" s="8"/>
       <c r="B698" s="3"/>
       <c r="C698" s="10"/>
@@ -19087,7 +19247,7 @@
       <c r="W698" s="3"/>
       <c r="X698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:24" ht="15.75" customHeight="1">
       <c r="A699" s="8"/>
       <c r="B699" s="3"/>
       <c r="C699" s="10"/>
@@ -19113,7 +19273,7 @@
       <c r="W699" s="3"/>
       <c r="X699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:24" ht="15.75" customHeight="1">
       <c r="A700" s="8"/>
       <c r="B700" s="3"/>
       <c r="C700" s="10"/>
@@ -19139,7 +19299,7 @@
       <c r="W700" s="3"/>
       <c r="X700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:24" ht="15.75" customHeight="1">
       <c r="A701" s="8"/>
       <c r="B701" s="3"/>
       <c r="C701" s="10"/>
@@ -19165,7 +19325,7 @@
       <c r="W701" s="3"/>
       <c r="X701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:24" ht="15.75" customHeight="1">
       <c r="A702" s="8"/>
       <c r="B702" s="3"/>
       <c r="C702" s="10"/>
@@ -19191,7 +19351,7 @@
       <c r="W702" s="3"/>
       <c r="X702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:24" ht="15.75" customHeight="1">
       <c r="A703" s="8"/>
       <c r="B703" s="3"/>
       <c r="C703" s="10"/>
@@ -19217,7 +19377,7 @@
       <c r="W703" s="3"/>
       <c r="X703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:24" ht="15.75" customHeight="1">
       <c r="A704" s="8"/>
       <c r="B704" s="3"/>
       <c r="C704" s="10"/>
@@ -19243,7 +19403,7 @@
       <c r="W704" s="3"/>
       <c r="X704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:24" ht="15.75" customHeight="1">
       <c r="A705" s="8"/>
       <c r="B705" s="3"/>
       <c r="C705" s="10"/>
@@ -19269,7 +19429,7 @@
       <c r="W705" s="3"/>
       <c r="X705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:24" ht="15.75" customHeight="1">
       <c r="A706" s="8"/>
       <c r="B706" s="3"/>
       <c r="C706" s="10"/>
@@ -19295,7 +19455,7 @@
       <c r="W706" s="3"/>
       <c r="X706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:24" ht="15.75" customHeight="1">
       <c r="A707" s="8"/>
       <c r="B707" s="3"/>
       <c r="C707" s="10"/>
@@ -19321,7 +19481,7 @@
       <c r="W707" s="3"/>
       <c r="X707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:24" ht="15.75" customHeight="1">
       <c r="A708" s="8"/>
       <c r="B708" s="3"/>
       <c r="C708" s="10"/>
@@ -19347,7 +19507,7 @@
       <c r="W708" s="3"/>
       <c r="X708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:24" ht="15.75" customHeight="1">
       <c r="A709" s="8"/>
       <c r="B709" s="3"/>
       <c r="C709" s="10"/>
@@ -19373,7 +19533,7 @@
       <c r="W709" s="3"/>
       <c r="X709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:24" ht="15.75" customHeight="1">
       <c r="A710" s="8"/>
       <c r="B710" s="3"/>
       <c r="C710" s="10"/>
@@ -19399,7 +19559,7 @@
       <c r="W710" s="3"/>
       <c r="X710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:24" ht="15.75" customHeight="1">
       <c r="A711" s="8"/>
       <c r="B711" s="3"/>
       <c r="C711" s="10"/>
@@ -19425,7 +19585,7 @@
       <c r="W711" s="3"/>
       <c r="X711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:24" ht="15.75" customHeight="1">
       <c r="A712" s="8"/>
       <c r="B712" s="3"/>
       <c r="C712" s="10"/>
@@ -19451,7 +19611,7 @@
       <c r="W712" s="3"/>
       <c r="X712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:24" ht="15.75" customHeight="1">
       <c r="A713" s="8"/>
       <c r="B713" s="3"/>
       <c r="C713" s="10"/>
@@ -19477,7 +19637,7 @@
       <c r="W713" s="3"/>
       <c r="X713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:24" ht="15.75" customHeight="1">
       <c r="A714" s="8"/>
       <c r="B714" s="3"/>
       <c r="C714" s="10"/>
@@ -19503,7 +19663,7 @@
       <c r="W714" s="3"/>
       <c r="X714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:24" ht="15.75" customHeight="1">
       <c r="A715" s="8"/>
       <c r="B715" s="3"/>
       <c r="C715" s="10"/>
@@ -19529,7 +19689,7 @@
       <c r="W715" s="3"/>
       <c r="X715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:24" ht="15.75" customHeight="1">
       <c r="A716" s="8"/>
       <c r="B716" s="3"/>
       <c r="C716" s="10"/>
@@ -19555,7 +19715,7 @@
       <c r="W716" s="3"/>
       <c r="X716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:24" ht="15.75" customHeight="1">
       <c r="A717" s="8"/>
       <c r="B717" s="3"/>
       <c r="C717" s="10"/>
@@ -19581,7 +19741,7 @@
       <c r="W717" s="3"/>
       <c r="X717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:24" ht="15.75" customHeight="1">
       <c r="A718" s="8"/>
       <c r="B718" s="3"/>
       <c r="C718" s="10"/>
@@ -19607,7 +19767,7 @@
       <c r="W718" s="3"/>
       <c r="X718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:24" ht="15.75" customHeight="1">
       <c r="A719" s="8"/>
       <c r="B719" s="3"/>
       <c r="C719" s="10"/>
@@ -19633,7 +19793,7 @@
       <c r="W719" s="3"/>
       <c r="X719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:24" ht="15.75" customHeight="1">
       <c r="A720" s="8"/>
       <c r="B720" s="3"/>
       <c r="C720" s="10"/>
@@ -19659,7 +19819,7 @@
       <c r="W720" s="3"/>
       <c r="X720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:24" ht="15.75" customHeight="1">
       <c r="A721" s="8"/>
       <c r="B721" s="3"/>
       <c r="C721" s="10"/>
@@ -19685,7 +19845,7 @@
       <c r="W721" s="3"/>
       <c r="X721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:24" ht="15.75" customHeight="1">
       <c r="A722" s="8"/>
       <c r="B722" s="3"/>
       <c r="C722" s="10"/>
@@ -19711,7 +19871,7 @@
       <c r="W722" s="3"/>
       <c r="X722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:24" ht="15.75" customHeight="1">
       <c r="A723" s="8"/>
       <c r="B723" s="3"/>
       <c r="C723" s="10"/>
@@ -19737,7 +19897,7 @@
       <c r="W723" s="3"/>
       <c r="X723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:24" ht="15.75" customHeight="1">
       <c r="A724" s="8"/>
       <c r="B724" s="3"/>
       <c r="C724" s="10"/>
@@ -19763,7 +19923,7 @@
       <c r="W724" s="3"/>
       <c r="X724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:24" ht="15.75" customHeight="1">
       <c r="A725" s="8"/>
       <c r="B725" s="3"/>
       <c r="C725" s="10"/>
@@ -19789,7 +19949,7 @@
       <c r="W725" s="3"/>
       <c r="X725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:24" ht="15.75" customHeight="1">
       <c r="A726" s="8"/>
       <c r="B726" s="3"/>
       <c r="C726" s="10"/>
@@ -19815,7 +19975,7 @@
       <c r="W726" s="3"/>
       <c r="X726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:24" ht="15.75" customHeight="1">
       <c r="A727" s="8"/>
       <c r="B727" s="3"/>
       <c r="C727" s="10"/>
@@ -19841,7 +20001,7 @@
       <c r="W727" s="3"/>
       <c r="X727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:24" ht="15.75" customHeight="1">
       <c r="A728" s="8"/>
       <c r="B728" s="3"/>
       <c r="C728" s="10"/>
@@ -19867,7 +20027,7 @@
       <c r="W728" s="3"/>
       <c r="X728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:24" ht="15.75" customHeight="1">
       <c r="A729" s="8"/>
       <c r="B729" s="3"/>
       <c r="C729" s="10"/>
@@ -19893,7 +20053,7 @@
       <c r="W729" s="3"/>
       <c r="X729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:24" ht="15.75" customHeight="1">
       <c r="A730" s="8"/>
       <c r="B730" s="3"/>
       <c r="C730" s="10"/>
@@ -19919,7 +20079,7 @@
       <c r="W730" s="3"/>
       <c r="X730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:24" ht="15.75" customHeight="1">
       <c r="A731" s="8"/>
       <c r="B731" s="3"/>
       <c r="C731" s="10"/>
@@ -19945,7 +20105,7 @@
       <c r="W731" s="3"/>
       <c r="X731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:24" ht="15.75" customHeight="1">
       <c r="A732" s="8"/>
       <c r="B732" s="3"/>
       <c r="C732" s="10"/>
@@ -19971,7 +20131,7 @@
       <c r="W732" s="3"/>
       <c r="X732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:24" ht="15.75" customHeight="1">
       <c r="A733" s="8"/>
       <c r="B733" s="3"/>
       <c r="C733" s="10"/>
@@ -19997,7 +20157,7 @@
       <c r="W733" s="3"/>
       <c r="X733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:24" ht="15.75" customHeight="1">
       <c r="A734" s="8"/>
       <c r="B734" s="3"/>
       <c r="C734" s="10"/>
@@ -20023,7 +20183,7 @@
       <c r="W734" s="3"/>
       <c r="X734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:24" ht="15.75" customHeight="1">
       <c r="A735" s="8"/>
       <c r="B735" s="3"/>
       <c r="C735" s="10"/>
@@ -20049,7 +20209,7 @@
       <c r="W735" s="3"/>
       <c r="X735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:24" ht="15.75" customHeight="1">
       <c r="A736" s="8"/>
       <c r="B736" s="3"/>
       <c r="C736" s="10"/>
@@ -20075,7 +20235,7 @@
       <c r="W736" s="3"/>
       <c r="X736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:24" ht="15.75" customHeight="1">
       <c r="A737" s="8"/>
       <c r="B737" s="3"/>
       <c r="C737" s="10"/>
@@ -20101,7 +20261,7 @@
       <c r="W737" s="3"/>
       <c r="X737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:24" ht="15.75" customHeight="1">
       <c r="A738" s="8"/>
       <c r="B738" s="3"/>
       <c r="C738" s="10"/>
@@ -20127,7 +20287,7 @@
       <c r="W738" s="3"/>
       <c r="X738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:24" ht="15.75" customHeight="1">
       <c r="A739" s="8"/>
       <c r="B739" s="3"/>
       <c r="C739" s="10"/>
@@ -20153,7 +20313,7 @@
       <c r="W739" s="3"/>
       <c r="X739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:24" ht="15.75" customHeight="1">
       <c r="A740" s="8"/>
       <c r="B740" s="3"/>
       <c r="C740" s="10"/>
@@ -20179,7 +20339,7 @@
       <c r="W740" s="3"/>
       <c r="X740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:24" ht="15.75" customHeight="1">
       <c r="A741" s="8"/>
       <c r="B741" s="3"/>
       <c r="C741" s="10"/>
@@ -20205,7 +20365,7 @@
       <c r="W741" s="3"/>
       <c r="X741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:24" ht="15.75" customHeight="1">
       <c r="A742" s="8"/>
       <c r="B742" s="3"/>
       <c r="C742" s="10"/>
@@ -20231,7 +20391,7 @@
       <c r="W742" s="3"/>
       <c r="X742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:24" ht="15.75" customHeight="1">
       <c r="A743" s="8"/>
       <c r="B743" s="3"/>
       <c r="C743" s="10"/>
@@ -20257,7 +20417,7 @@
       <c r="W743" s="3"/>
       <c r="X743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:24" ht="15.75" customHeight="1">
       <c r="A744" s="8"/>
       <c r="B744" s="3"/>
       <c r="C744" s="10"/>
@@ -20283,7 +20443,7 @@
       <c r="W744" s="3"/>
       <c r="X744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:24" ht="15.75" customHeight="1">
       <c r="A745" s="8"/>
       <c r="B745" s="3"/>
       <c r="C745" s="10"/>
@@ -20309,7 +20469,7 @@
       <c r="W745" s="3"/>
       <c r="X745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:24" ht="15.75" customHeight="1">
       <c r="A746" s="8"/>
       <c r="B746" s="3"/>
       <c r="C746" s="10"/>
@@ -20335,7 +20495,7 @@
       <c r="W746" s="3"/>
       <c r="X746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:24" ht="15.75" customHeight="1">
       <c r="A747" s="8"/>
       <c r="B747" s="3"/>
       <c r="C747" s="10"/>
@@ -20361,7 +20521,7 @@
       <c r="W747" s="3"/>
       <c r="X747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:24" ht="15.75" customHeight="1">
       <c r="A748" s="8"/>
       <c r="B748" s="3"/>
       <c r="C748" s="10"/>
@@ -20387,7 +20547,7 @@
       <c r="W748" s="3"/>
       <c r="X748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:24" ht="15.75" customHeight="1">
       <c r="A749" s="8"/>
       <c r="B749" s="3"/>
       <c r="C749" s="10"/>
@@ -20413,7 +20573,7 @@
       <c r="W749" s="3"/>
       <c r="X749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:24" ht="15.75" customHeight="1">
       <c r="A750" s="8"/>
       <c r="B750" s="3"/>
       <c r="C750" s="10"/>
@@ -20439,7 +20599,7 @@
       <c r="W750" s="3"/>
       <c r="X750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:24" ht="15.75" customHeight="1">
       <c r="A751" s="8"/>
       <c r="B751" s="3"/>
       <c r="C751" s="10"/>
@@ -20465,7 +20625,7 @@
       <c r="W751" s="3"/>
       <c r="X751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:24" ht="15.75" customHeight="1">
       <c r="A752" s="8"/>
       <c r="B752" s="3"/>
       <c r="C752" s="10"/>
@@ -20491,7 +20651,7 @@
       <c r="W752" s="3"/>
       <c r="X752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:24" ht="15.75" customHeight="1">
       <c r="A753" s="8"/>
       <c r="B753" s="3"/>
       <c r="C753" s="10"/>
@@ -20517,7 +20677,7 @@
       <c r="W753" s="3"/>
       <c r="X753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:24" ht="15.75" customHeight="1">
       <c r="A754" s="8"/>
       <c r="B754" s="3"/>
       <c r="C754" s="10"/>
@@ -20543,7 +20703,7 @@
       <c r="W754" s="3"/>
       <c r="X754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:24" ht="15.75" customHeight="1">
       <c r="A755" s="8"/>
       <c r="B755" s="3"/>
       <c r="C755" s="10"/>
@@ -20569,7 +20729,7 @@
       <c r="W755" s="3"/>
       <c r="X755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:24" ht="15.75" customHeight="1">
       <c r="A756" s="8"/>
       <c r="B756" s="3"/>
       <c r="C756" s="10"/>
@@ -20595,7 +20755,7 @@
       <c r="W756" s="3"/>
       <c r="X756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:24" ht="15.75" customHeight="1">
       <c r="A757" s="8"/>
       <c r="B757" s="3"/>
       <c r="C757" s="10"/>
@@ -20621,7 +20781,7 @@
       <c r="W757" s="3"/>
       <c r="X757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:24" ht="15.75" customHeight="1">
       <c r="A758" s="8"/>
       <c r="B758" s="3"/>
       <c r="C758" s="10"/>
@@ -20647,7 +20807,7 @@
       <c r="W758" s="3"/>
       <c r="X758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:24" ht="15.75" customHeight="1">
       <c r="A759" s="8"/>
       <c r="B759" s="3"/>
       <c r="C759" s="10"/>
@@ -20673,7 +20833,7 @@
       <c r="W759" s="3"/>
       <c r="X759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:24" ht="15.75" customHeight="1">
       <c r="A760" s="8"/>
       <c r="B760" s="3"/>
       <c r="C760" s="10"/>
@@ -20699,7 +20859,7 @@
       <c r="W760" s="3"/>
       <c r="X760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:24" ht="15.75" customHeight="1">
       <c r="A761" s="8"/>
       <c r="B761" s="3"/>
       <c r="C761" s="10"/>
@@ -20725,7 +20885,7 @@
       <c r="W761" s="3"/>
       <c r="X761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:24" ht="15.75" customHeight="1">
       <c r="A762" s="8"/>
       <c r="B762" s="3"/>
       <c r="C762" s="10"/>
@@ -20751,7 +20911,7 @@
       <c r="W762" s="3"/>
       <c r="X762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:24" ht="15.75" customHeight="1">
       <c r="A763" s="8"/>
       <c r="B763" s="3"/>
       <c r="C763" s="10"/>
@@ -20777,7 +20937,7 @@
       <c r="W763" s="3"/>
       <c r="X763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:24" ht="15.75" customHeight="1">
       <c r="A764" s="8"/>
       <c r="B764" s="3"/>
       <c r="C764" s="10"/>
@@ -20803,7 +20963,7 @@
       <c r="W764" s="3"/>
       <c r="X764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:24" ht="15.75" customHeight="1">
       <c r="A765" s="8"/>
       <c r="B765" s="3"/>
       <c r="C765" s="10"/>
@@ -20829,7 +20989,7 @@
       <c r="W765" s="3"/>
       <c r="X765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:24" ht="15.75" customHeight="1">
       <c r="A766" s="8"/>
       <c r="B766" s="3"/>
       <c r="C766" s="10"/>
@@ -20855,7 +21015,7 @@
       <c r="W766" s="3"/>
       <c r="X766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:24" ht="15.75" customHeight="1">
       <c r="A767" s="8"/>
       <c r="B767" s="3"/>
       <c r="C767" s="10"/>
@@ -20881,7 +21041,7 @@
       <c r="W767" s="3"/>
       <c r="X767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:24" ht="15.75" customHeight="1">
       <c r="A768" s="8"/>
       <c r="B768" s="3"/>
       <c r="C768" s="10"/>
@@ -20907,7 +21067,7 @@
       <c r="W768" s="3"/>
       <c r="X768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:24" ht="15.75" customHeight="1">
       <c r="A769" s="8"/>
       <c r="B769" s="3"/>
       <c r="C769" s="10"/>
@@ -20933,7 +21093,7 @@
       <c r="W769" s="3"/>
       <c r="X769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:24" ht="15.75" customHeight="1">
       <c r="A770" s="8"/>
       <c r="B770" s="3"/>
       <c r="C770" s="10"/>
@@ -20959,7 +21119,7 @@
       <c r="W770" s="3"/>
       <c r="X770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:24" ht="15.75" customHeight="1">
       <c r="A771" s="8"/>
       <c r="B771" s="3"/>
       <c r="C771" s="10"/>
@@ -20985,7 +21145,7 @@
       <c r="W771" s="3"/>
       <c r="X771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:24" ht="15.75" customHeight="1">
       <c r="A772" s="8"/>
       <c r="B772" s="3"/>
       <c r="C772" s="10"/>
@@ -21011,7 +21171,7 @@
       <c r="W772" s="3"/>
       <c r="X772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:24" ht="15.75" customHeight="1">
       <c r="A773" s="8"/>
       <c r="B773" s="3"/>
       <c r="C773" s="10"/>
@@ -21037,7 +21197,7 @@
       <c r="W773" s="3"/>
       <c r="X773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:24" ht="15.75" customHeight="1">
       <c r="A774" s="8"/>
       <c r="B774" s="3"/>
       <c r="C774" s="10"/>
@@ -21063,7 +21223,7 @@
       <c r="W774" s="3"/>
       <c r="X774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:24" ht="15.75" customHeight="1">
       <c r="A775" s="8"/>
       <c r="B775" s="3"/>
       <c r="C775" s="10"/>
@@ -21089,7 +21249,7 @@
       <c r="W775" s="3"/>
       <c r="X775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:24" ht="15.75" customHeight="1">
       <c r="A776" s="8"/>
       <c r="B776" s="3"/>
       <c r="C776" s="10"/>
@@ -21115,7 +21275,7 @@
       <c r="W776" s="3"/>
       <c r="X776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:24" ht="15.75" customHeight="1">
       <c r="A777" s="8"/>
       <c r="B777" s="3"/>
       <c r="C777" s="10"/>
@@ -21141,7 +21301,7 @@
       <c r="W777" s="3"/>
       <c r="X777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:24" ht="15.75" customHeight="1">
       <c r="A778" s="8"/>
       <c r="B778" s="3"/>
       <c r="C778" s="10"/>
@@ -21167,7 +21327,7 @@
       <c r="W778" s="3"/>
       <c r="X778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:24" ht="15.75" customHeight="1">
       <c r="A779" s="8"/>
       <c r="B779" s="3"/>
       <c r="C779" s="10"/>
@@ -21193,7 +21353,7 @@
       <c r="W779" s="3"/>
       <c r="X779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:24" ht="15.75" customHeight="1">
       <c r="A780" s="8"/>
       <c r="B780" s="3"/>
       <c r="C780" s="10"/>
@@ -21219,7 +21379,7 @@
       <c r="W780" s="3"/>
       <c r="X780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:24" ht="15.75" customHeight="1">
       <c r="A781" s="8"/>
       <c r="B781" s="3"/>
       <c r="C781" s="10"/>
@@ -21245,7 +21405,7 @@
       <c r="W781" s="3"/>
       <c r="X781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:24" ht="15.75" customHeight="1">
       <c r="A782" s="8"/>
       <c r="B782" s="3"/>
       <c r="C782" s="10"/>
@@ -21271,7 +21431,7 @@
       <c r="W782" s="3"/>
       <c r="X782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:24" ht="15.75" customHeight="1">
       <c r="A783" s="8"/>
       <c r="B783" s="3"/>
       <c r="C783" s="10"/>
@@ -21297,7 +21457,7 @@
       <c r="W783" s="3"/>
       <c r="X783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:24" ht="15.75" customHeight="1">
       <c r="A784" s="8"/>
       <c r="B784" s="3"/>
       <c r="C784" s="10"/>
@@ -21323,7 +21483,7 @@
       <c r="W784" s="3"/>
       <c r="X784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:24" ht="15.75" customHeight="1">
       <c r="A785" s="8"/>
       <c r="B785" s="3"/>
       <c r="C785" s="10"/>
@@ -21349,7 +21509,7 @@
       <c r="W785" s="3"/>
       <c r="X785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:24" ht="15.75" customHeight="1">
       <c r="A786" s="8"/>
       <c r="B786" s="3"/>
       <c r="C786" s="10"/>
@@ -21375,7 +21535,7 @@
       <c r="W786" s="3"/>
       <c r="X786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:24" ht="15.75" customHeight="1">
       <c r="A787" s="8"/>
       <c r="B787" s="3"/>
       <c r="C787" s="10"/>
@@ -21401,7 +21561,7 @@
       <c r="W787" s="3"/>
       <c r="X787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:24" ht="15.75" customHeight="1">
       <c r="A788" s="8"/>
       <c r="B788" s="3"/>
       <c r="C788" s="10"/>
@@ -21427,7 +21587,7 @@
       <c r="W788" s="3"/>
       <c r="X788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:24" ht="15.75" customHeight="1">
       <c r="A789" s="8"/>
       <c r="B789" s="3"/>
       <c r="C789" s="10"/>
@@ -21453,7 +21613,7 @@
       <c r="W789" s="3"/>
       <c r="X789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:24" ht="15.75" customHeight="1">
       <c r="A790" s="8"/>
       <c r="B790" s="3"/>
       <c r="C790" s="10"/>
@@ -21479,7 +21639,7 @@
       <c r="W790" s="3"/>
       <c r="X790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:24" ht="15.75" customHeight="1">
       <c r="A791" s="8"/>
       <c r="B791" s="3"/>
       <c r="C791" s="10"/>
@@ -21505,7 +21665,7 @@
       <c r="W791" s="3"/>
       <c r="X791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:24" ht="15.75" customHeight="1">
       <c r="A792" s="8"/>
       <c r="B792" s="3"/>
       <c r="C792" s="10"/>
@@ -21531,7 +21691,7 @@
       <c r="W792" s="3"/>
       <c r="X792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:24" ht="15.75" customHeight="1">
       <c r="A793" s="8"/>
       <c r="B793" s="3"/>
       <c r="C793" s="10"/>
@@ -21557,7 +21717,7 @@
       <c r="W793" s="3"/>
       <c r="X793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:24" ht="15.75" customHeight="1">
       <c r="A794" s="8"/>
       <c r="B794" s="3"/>
       <c r="C794" s="10"/>
@@ -21583,7 +21743,7 @@
       <c r="W794" s="3"/>
       <c r="X794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:24" ht="15.75" customHeight="1">
       <c r="A795" s="8"/>
       <c r="B795" s="3"/>
       <c r="C795" s="10"/>
@@ -21609,7 +21769,7 @@
       <c r="W795" s="3"/>
       <c r="X795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:24" ht="15.75" customHeight="1">
       <c r="A796" s="8"/>
       <c r="B796" s="3"/>
       <c r="C796" s="10"/>
@@ -21635,7 +21795,7 @@
       <c r="W796" s="3"/>
       <c r="X796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:24" ht="15.75" customHeight="1">
       <c r="A797" s="8"/>
       <c r="B797" s="3"/>
       <c r="C797" s="10"/>
@@ -21661,7 +21821,7 @@
       <c r="W797" s="3"/>
       <c r="X797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:24" ht="15.75" customHeight="1">
       <c r="A798" s="8"/>
       <c r="B798" s="3"/>
       <c r="C798" s="10"/>
@@ -21687,7 +21847,7 @@
       <c r="W798" s="3"/>
       <c r="X798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:24" ht="15.75" customHeight="1">
       <c r="A799" s="8"/>
       <c r="B799" s="3"/>
       <c r="C799" s="10"/>
@@ -21713,7 +21873,7 @@
       <c r="W799" s="3"/>
       <c r="X799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:24" ht="15.75" customHeight="1">
       <c r="A800" s="8"/>
       <c r="B800" s="3"/>
       <c r="C800" s="10"/>
@@ -21739,7 +21899,7 @@
       <c r="W800" s="3"/>
       <c r="X800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:24" ht="15.75" customHeight="1">
       <c r="A801" s="8"/>
       <c r="B801" s="3"/>
       <c r="C801" s="10"/>
@@ -21765,7 +21925,7 @@
       <c r="W801" s="3"/>
       <c r="X801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:24" ht="15.75" customHeight="1">
       <c r="A802" s="8"/>
       <c r="B802" s="3"/>
       <c r="C802" s="10"/>
@@ -21791,7 +21951,7 @@
       <c r="W802" s="3"/>
       <c r="X802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:24" ht="15.75" customHeight="1">
       <c r="A803" s="8"/>
       <c r="B803" s="3"/>
       <c r="C803" s="10"/>
@@ -21817,7 +21977,7 @@
       <c r="W803" s="3"/>
       <c r="X803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:24" ht="15.75" customHeight="1">
       <c r="A804" s="8"/>
       <c r="B804" s="3"/>
       <c r="C804" s="10"/>
@@ -21843,7 +22003,7 @@
       <c r="W804" s="3"/>
       <c r="X804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:24" ht="15.75" customHeight="1">
       <c r="A805" s="8"/>
       <c r="B805" s="3"/>
       <c r="C805" s="10"/>
@@ -21869,7 +22029,7 @@
       <c r="W805" s="3"/>
       <c r="X805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:24" ht="15.75" customHeight="1">
       <c r="A806" s="8"/>
       <c r="B806" s="3"/>
       <c r="C806" s="10"/>
@@ -21895,7 +22055,7 @@
       <c r="W806" s="3"/>
       <c r="X806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:24" ht="15.75" customHeight="1">
       <c r="A807" s="8"/>
       <c r="B807" s="3"/>
       <c r="C807" s="10"/>
@@ -21921,7 +22081,7 @@
       <c r="W807" s="3"/>
       <c r="X807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:24" ht="15.75" customHeight="1">
       <c r="A808" s="8"/>
       <c r="B808" s="3"/>
       <c r="C808" s="10"/>
@@ -21947,7 +22107,7 @@
       <c r="W808" s="3"/>
       <c r="X808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:24" ht="15.75" customHeight="1">
       <c r="A809" s="8"/>
       <c r="B809" s="3"/>
       <c r="C809" s="10"/>
@@ -21973,7 +22133,7 @@
       <c r="W809" s="3"/>
       <c r="X809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:24" ht="15.75" customHeight="1">
       <c r="A810" s="8"/>
       <c r="B810" s="3"/>
       <c r="C810" s="10"/>
@@ -21999,7 +22159,7 @@
       <c r="W810" s="3"/>
       <c r="X810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:24" ht="15.75" customHeight="1">
       <c r="A811" s="8"/>
       <c r="B811" s="3"/>
       <c r="C811" s="10"/>
@@ -22025,7 +22185,7 @@
       <c r="W811" s="3"/>
       <c r="X811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:24" ht="15.75" customHeight="1">
       <c r="A812" s="8"/>
       <c r="B812" s="3"/>
       <c r="C812" s="10"/>
@@ -22051,7 +22211,7 @@
       <c r="W812" s="3"/>
       <c r="X812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:24" ht="15.75" customHeight="1">
       <c r="A813" s="8"/>
       <c r="B813" s="3"/>
       <c r="C813" s="10"/>
@@ -22077,7 +22237,7 @@
       <c r="W813" s="3"/>
       <c r="X813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:24" ht="15.75" customHeight="1">
       <c r="A814" s="8"/>
       <c r="B814" s="3"/>
       <c r="C814" s="10"/>
@@ -22103,7 +22263,7 @@
       <c r="W814" s="3"/>
       <c r="X814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:24" ht="15.75" customHeight="1">
       <c r="A815" s="8"/>
       <c r="B815" s="3"/>
       <c r="C815" s="10"/>
@@ -22129,7 +22289,7 @@
       <c r="W815" s="3"/>
       <c r="X815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:24" ht="15.75" customHeight="1">
       <c r="A816" s="8"/>
       <c r="B816" s="3"/>
       <c r="C816" s="10"/>
@@ -22155,7 +22315,7 @@
       <c r="W816" s="3"/>
       <c r="X816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:24" ht="15.75" customHeight="1">
       <c r="A817" s="8"/>
       <c r="B817" s="3"/>
       <c r="C817" s="10"/>
@@ -22181,7 +22341,7 @@
       <c r="W817" s="3"/>
       <c r="X817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:24" ht="15.75" customHeight="1">
       <c r="A818" s="8"/>
       <c r="B818" s="3"/>
       <c r="C818" s="10"/>
@@ -22207,7 +22367,7 @@
       <c r="W818" s="3"/>
       <c r="X818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:24" ht="15.75" customHeight="1">
       <c r="A819" s="8"/>
       <c r="B819" s="3"/>
       <c r="C819" s="10"/>
@@ -22233,7 +22393,7 @@
       <c r="W819" s="3"/>
       <c r="X819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:24" ht="15.75" customHeight="1">
       <c r="A820" s="8"/>
       <c r="B820" s="3"/>
       <c r="C820" s="10"/>
@@ -22259,7 +22419,7 @@
       <c r="W820" s="3"/>
       <c r="X820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:24" ht="15.75" customHeight="1">
       <c r="A821" s="8"/>
       <c r="B821" s="3"/>
       <c r="C821" s="10"/>
@@ -22285,7 +22445,7 @@
       <c r="W821" s="3"/>
       <c r="X821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:24" ht="15.75" customHeight="1">
       <c r="A822" s="8"/>
       <c r="B822" s="3"/>
       <c r="C822" s="10"/>
@@ -22311,7 +22471,7 @@
       <c r="W822" s="3"/>
       <c r="X822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:24" ht="15.75" customHeight="1">
       <c r="A823" s="8"/>
       <c r="B823" s="3"/>
       <c r="C823" s="10"/>
@@ -22337,7 +22497,7 @@
       <c r="W823" s="3"/>
       <c r="X823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:24" ht="15.75" customHeight="1">
       <c r="A824" s="8"/>
       <c r="B824" s="3"/>
       <c r="C824" s="10"/>
@@ -22363,7 +22523,7 @@
       <c r="W824" s="3"/>
       <c r="X824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:24" ht="15.75" customHeight="1">
       <c r="A825" s="8"/>
       <c r="B825" s="3"/>
       <c r="C825" s="10"/>
@@ -22389,7 +22549,7 @@
       <c r="W825" s="3"/>
       <c r="X825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:24" ht="15.75" customHeight="1">
       <c r="A826" s="8"/>
       <c r="B826" s="3"/>
       <c r="C826" s="10"/>
@@ -22415,7 +22575,7 @@
       <c r="W826" s="3"/>
       <c r="X826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:24" ht="15.75" customHeight="1">
       <c r="A827" s="8"/>
       <c r="B827" s="3"/>
       <c r="C827" s="10"/>
@@ -22441,7 +22601,7 @@
       <c r="W827" s="3"/>
       <c r="X827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:24" ht="15.75" customHeight="1">
       <c r="A828" s="8"/>
       <c r="B828" s="3"/>
       <c r="C828" s="10"/>
@@ -22467,7 +22627,7 @@
       <c r="W828" s="3"/>
       <c r="X828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:24" ht="15.75" customHeight="1">
       <c r="A829" s="8"/>
       <c r="B829" s="3"/>
       <c r="C829" s="10"/>
@@ -22493,7 +22653,7 @@
       <c r="W829" s="3"/>
       <c r="X829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:24" ht="15.75" customHeight="1">
       <c r="A830" s="8"/>
       <c r="B830" s="3"/>
       <c r="C830" s="10"/>
@@ -22519,7 +22679,7 @@
       <c r="W830" s="3"/>
       <c r="X830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:24" ht="15.75" customHeight="1">
       <c r="A831" s="8"/>
       <c r="B831" s="3"/>
       <c r="C831" s="10"/>
@@ -22545,7 +22705,7 @@
       <c r="W831" s="3"/>
       <c r="X831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:24" ht="15.75" customHeight="1">
       <c r="A832" s="8"/>
       <c r="B832" s="3"/>
       <c r="C832" s="10"/>
@@ -22571,7 +22731,7 @@
       <c r="W832" s="3"/>
       <c r="X832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:24" ht="15.75" customHeight="1">
       <c r="A833" s="8"/>
       <c r="B833" s="3"/>
       <c r="C833" s="10"/>
@@ -22597,7 +22757,7 @@
       <c r="W833" s="3"/>
       <c r="X833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:24" ht="15.75" customHeight="1">
       <c r="A834" s="8"/>
       <c r="B834" s="3"/>
       <c r="C834" s="10"/>
@@ -22623,7 +22783,7 @@
       <c r="W834" s="3"/>
       <c r="X834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:24" ht="15.75" customHeight="1">
       <c r="A835" s="8"/>
       <c r="B835" s="3"/>
       <c r="C835" s="10"/>
@@ -22649,7 +22809,7 @@
       <c r="W835" s="3"/>
       <c r="X835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:24" ht="15.75" customHeight="1">
       <c r="A836" s="8"/>
       <c r="B836" s="3"/>
       <c r="C836" s="10"/>
@@ -22675,7 +22835,7 @@
       <c r="W836" s="3"/>
       <c r="X836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:24" ht="15.75" customHeight="1">
       <c r="A837" s="8"/>
       <c r="B837" s="3"/>
       <c r="C837" s="10"/>
@@ -22701,7 +22861,7 @@
       <c r="W837" s="3"/>
       <c r="X837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:24" ht="15.75" customHeight="1">
       <c r="A838" s="8"/>
       <c r="B838" s="3"/>
       <c r="C838" s="10"/>
@@ -22727,7 +22887,7 @@
       <c r="W838" s="3"/>
       <c r="X838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:24" ht="15.75" customHeight="1">
       <c r="A839" s="8"/>
       <c r="B839" s="3"/>
       <c r="C839" s="10"/>
@@ -22753,7 +22913,7 @@
       <c r="W839" s="3"/>
       <c r="X839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:24" ht="15.75" customHeight="1">
       <c r="A840" s="8"/>
       <c r="B840" s="3"/>
       <c r="C840" s="10"/>
@@ -22779,7 +22939,7 @@
       <c r="W840" s="3"/>
       <c r="X840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:24" ht="15.75" customHeight="1">
       <c r="A841" s="8"/>
       <c r="B841" s="3"/>
       <c r="C841" s="10"/>
@@ -22805,7 +22965,7 @@
       <c r="W841" s="3"/>
       <c r="X841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:24" ht="15.75" customHeight="1">
       <c r="A842" s="8"/>
       <c r="B842" s="3"/>
       <c r="C842" s="10"/>
@@ -22831,7 +22991,7 @@
       <c r="W842" s="3"/>
       <c r="X842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:24" ht="15.75" customHeight="1">
       <c r="A843" s="8"/>
       <c r="B843" s="3"/>
       <c r="C843" s="10"/>
@@ -22857,7 +23017,7 @@
       <c r="W843" s="3"/>
       <c r="X843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:24" ht="15.75" customHeight="1">
       <c r="A844" s="8"/>
       <c r="B844" s="3"/>
       <c r="C844" s="10"/>
@@ -22883,7 +23043,7 @@
       <c r="W844" s="3"/>
       <c r="X844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:24" ht="15.75" customHeight="1">
       <c r="A845" s="8"/>
       <c r="B845" s="3"/>
       <c r="C845" s="10"/>
@@ -22909,7 +23069,7 @@
       <c r="W845" s="3"/>
       <c r="X845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:24" ht="15.75" customHeight="1">
       <c r="A846" s="8"/>
       <c r="B846" s="3"/>
       <c r="C846" s="10"/>
@@ -22935,7 +23095,7 @@
       <c r="W846" s="3"/>
       <c r="X846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:24" ht="15.75" customHeight="1">
       <c r="A847" s="8"/>
       <c r="B847" s="3"/>
       <c r="C847" s="10"/>
@@ -22961,7 +23121,7 @@
       <c r="W847" s="3"/>
       <c r="X847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:24" ht="15.75" customHeight="1">
       <c r="A848" s="8"/>
       <c r="B848" s="3"/>
       <c r="C848" s="10"/>
@@ -22987,7 +23147,7 @@
       <c r="W848" s="3"/>
       <c r="X848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:24" ht="15.75" customHeight="1">
       <c r="A849" s="8"/>
       <c r="B849" s="3"/>
       <c r="C849" s="10"/>
@@ -23013,7 +23173,7 @@
       <c r="W849" s="3"/>
       <c r="X849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:24" ht="15.75" customHeight="1">
       <c r="A850" s="8"/>
       <c r="B850" s="3"/>
       <c r="C850" s="10"/>
@@ -23039,7 +23199,7 @@
       <c r="W850" s="3"/>
       <c r="X850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:24" ht="15.75" customHeight="1">
       <c r="A851" s="8"/>
       <c r="B851" s="3"/>
       <c r="C851" s="10"/>
@@ -23065,7 +23225,7 @@
       <c r="W851" s="3"/>
       <c r="X851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:24" ht="15.75" customHeight="1">
       <c r="A852" s="8"/>
       <c r="B852" s="3"/>
       <c r="C852" s="10"/>
@@ -23091,7 +23251,7 @@
       <c r="W852" s="3"/>
       <c r="X852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:24" ht="15.75" customHeight="1">
       <c r="A853" s="8"/>
       <c r="B853" s="3"/>
       <c r="C853" s="10"/>
@@ -23117,7 +23277,7 @@
       <c r="W853" s="3"/>
       <c r="X853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:24" ht="15.75" customHeight="1">
       <c r="A854" s="8"/>
       <c r="B854" s="3"/>
       <c r="C854" s="10"/>
@@ -23143,7 +23303,7 @@
       <c r="W854" s="3"/>
       <c r="X854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:24" ht="15.75" customHeight="1">
       <c r="A855" s="8"/>
       <c r="B855" s="3"/>
       <c r="C855" s="10"/>
@@ -23169,7 +23329,7 @@
       <c r="W855" s="3"/>
       <c r="X855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:24" ht="15.75" customHeight="1">
       <c r="A856" s="8"/>
       <c r="B856" s="3"/>
       <c r="C856" s="10"/>
@@ -23195,7 +23355,7 @@
       <c r="W856" s="3"/>
       <c r="X856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:24" ht="15.75" customHeight="1">
       <c r="A857" s="8"/>
       <c r="B857" s="3"/>
       <c r="C857" s="10"/>
@@ -23221,7 +23381,7 @@
       <c r="W857" s="3"/>
       <c r="X857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:24" ht="15.75" customHeight="1">
       <c r="A858" s="8"/>
       <c r="B858" s="3"/>
       <c r="C858" s="10"/>
@@ -23247,7 +23407,7 @@
       <c r="W858" s="3"/>
       <c r="X858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:24" ht="15.75" customHeight="1">
       <c r="A859" s="8"/>
       <c r="B859" s="3"/>
       <c r="C859" s="10"/>
@@ -23273,7 +23433,7 @@
       <c r="W859" s="3"/>
       <c r="X859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:24" ht="15.75" customHeight="1">
       <c r="A860" s="8"/>
       <c r="B860" s="3"/>
       <c r="C860" s="10"/>
@@ -23299,7 +23459,7 @@
       <c r="W860" s="3"/>
       <c r="X860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:24" ht="15.75" customHeight="1">
       <c r="A861" s="8"/>
       <c r="B861" s="3"/>
       <c r="C861" s="10"/>
@@ -23325,7 +23485,7 @@
       <c r="W861" s="3"/>
       <c r="X861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:24" ht="15.75" customHeight="1">
       <c r="A862" s="8"/>
       <c r="B862" s="3"/>
       <c r="C862" s="10"/>
@@ -23351,7 +23511,7 @@
       <c r="W862" s="3"/>
       <c r="X862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:24" ht="15.75" customHeight="1">
       <c r="A863" s="8"/>
       <c r="B863" s="3"/>
       <c r="C863" s="10"/>
@@ -23377,7 +23537,7 @@
       <c r="W863" s="3"/>
       <c r="X863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:24" ht="15.75" customHeight="1">
       <c r="A864" s="8"/>
       <c r="B864" s="3"/>
       <c r="C864" s="10"/>
@@ -23403,7 +23563,7 @@
       <c r="W864" s="3"/>
       <c r="X864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:24" ht="15.75" customHeight="1">
       <c r="A865" s="8"/>
       <c r="B865" s="3"/>
       <c r="C865" s="10"/>
@@ -23429,7 +23589,7 @@
       <c r="W865" s="3"/>
       <c r="X865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:24" ht="15.75" customHeight="1">
       <c r="A866" s="8"/>
       <c r="B866" s="3"/>
       <c r="C866" s="10"/>
@@ -23455,7 +23615,7 @@
       <c r="W866" s="3"/>
       <c r="X866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:24" ht="15.75" customHeight="1">
       <c r="A867" s="8"/>
       <c r="B867" s="3"/>
       <c r="C867" s="10"/>
@@ -23481,7 +23641,7 @@
       <c r="W867" s="3"/>
       <c r="X867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:24" ht="15.75" customHeight="1">
       <c r="A868" s="8"/>
       <c r="B868" s="3"/>
       <c r="C868" s="10"/>
@@ -23507,7 +23667,7 @@
       <c r="W868" s="3"/>
       <c r="X868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:24" ht="15.75" customHeight="1">
       <c r="A869" s="8"/>
       <c r="B869" s="3"/>
       <c r="C869" s="10"/>
@@ -23533,7 +23693,7 @@
       <c r="W869" s="3"/>
       <c r="X869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:24" ht="15.75" customHeight="1">
       <c r="A870" s="8"/>
       <c r="B870" s="3"/>
       <c r="C870" s="10"/>
@@ -23559,7 +23719,7 @@
       <c r="W870" s="3"/>
       <c r="X870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:24" ht="15.75" customHeight="1">
       <c r="A871" s="8"/>
       <c r="B871" s="3"/>
       <c r="C871" s="10"/>
@@ -23585,7 +23745,7 @@
       <c r="W871" s="3"/>
       <c r="X871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:24" ht="15.75" customHeight="1">
       <c r="A872" s="8"/>
       <c r="B872" s="3"/>
       <c r="C872" s="10"/>
@@ -23611,7 +23771,7 @@
       <c r="W872" s="3"/>
       <c r="X872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:24" ht="15.75" customHeight="1">
       <c r="A873" s="8"/>
       <c r="B873" s="3"/>
       <c r="C873" s="10"/>
@@ -23637,7 +23797,7 @@
       <c r="W873" s="3"/>
       <c r="X873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:24" ht="15.75" customHeight="1">
       <c r="A874" s="8"/>
       <c r="B874" s="3"/>
       <c r="C874" s="10"/>
@@ -23663,7 +23823,7 @@
       <c r="W874" s="3"/>
       <c r="X874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:24" ht="15.75" customHeight="1">
       <c r="A875" s="8"/>
       <c r="B875" s="3"/>
       <c r="C875" s="10"/>
@@ -23689,7 +23849,7 @@
       <c r="W875" s="3"/>
       <c r="X875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:24" ht="15.75" customHeight="1">
       <c r="A876" s="8"/>
       <c r="B876" s="3"/>
       <c r="C876" s="10"/>
@@ -23715,7 +23875,7 @@
       <c r="W876" s="3"/>
       <c r="X876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:24" ht="15.75" customHeight="1">
       <c r="A877" s="8"/>
       <c r="B877" s="3"/>
       <c r="C877" s="10"/>
@@ -23741,7 +23901,7 @@
       <c r="W877" s="3"/>
       <c r="X877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:24" ht="15.75" customHeight="1">
       <c r="A878" s="8"/>
       <c r="B878" s="3"/>
       <c r="C878" s="10"/>
@@ -23767,7 +23927,7 @@
       <c r="W878" s="3"/>
       <c r="X878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:24" ht="15.75" customHeight="1">
       <c r="A879" s="8"/>
       <c r="B879" s="3"/>
       <c r="C879" s="10"/>
@@ -23793,7 +23953,7 @@
       <c r="W879" s="3"/>
       <c r="X879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:24" ht="15.75" customHeight="1">
       <c r="A880" s="8"/>
       <c r="B880" s="3"/>
       <c r="C880" s="10"/>
@@ -23819,7 +23979,7 @@
       <c r="W880" s="3"/>
       <c r="X880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:24" ht="15.75" customHeight="1">
       <c r="A881" s="8"/>
       <c r="B881" s="3"/>
       <c r="C881" s="10"/>
@@ -23845,7 +24005,7 @@
       <c r="W881" s="3"/>
       <c r="X881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:24" ht="15.75" customHeight="1">
       <c r="A882" s="8"/>
       <c r="B882" s="3"/>
       <c r="C882" s="10"/>
@@ -23871,7 +24031,7 @@
       <c r="W882" s="3"/>
       <c r="X882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:24" ht="15.75" customHeight="1">
       <c r="A883" s="8"/>
       <c r="B883" s="3"/>
       <c r="C883" s="10"/>
@@ -23897,7 +24057,7 @@
       <c r="W883" s="3"/>
       <c r="X883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:24" ht="15.75" customHeight="1">
       <c r="A884" s="8"/>
       <c r="B884" s="3"/>
       <c r="C884" s="10"/>
@@ -23923,7 +24083,7 @@
       <c r="W884" s="3"/>
       <c r="X884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:24" ht="15.75" customHeight="1">
       <c r="A885" s="8"/>
       <c r="B885" s="3"/>
       <c r="C885" s="10"/>
@@ -23949,7 +24109,7 @@
       <c r="W885" s="3"/>
       <c r="X885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:24" ht="15.75" customHeight="1">
       <c r="A886" s="8"/>
       <c r="B886" s="3"/>
       <c r="C886" s="10"/>
@@ -23975,7 +24135,7 @@
       <c r="W886" s="3"/>
       <c r="X886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:24" ht="15.75" customHeight="1">
       <c r="A887" s="8"/>
       <c r="B887" s="3"/>
       <c r="C887" s="10"/>
@@ -24001,7 +24161,7 @@
       <c r="W887" s="3"/>
       <c r="X887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:24" ht="15.75" customHeight="1">
       <c r="A888" s="8"/>
       <c r="B888" s="3"/>
       <c r="C888" s="10"/>
@@ -24027,7 +24187,7 @@
       <c r="W888" s="3"/>
       <c r="X888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:24" ht="15.75" customHeight="1">
       <c r="A889" s="8"/>
       <c r="B889" s="3"/>
       <c r="C889" s="10"/>
@@ -24053,7 +24213,7 @@
       <c r="W889" s="3"/>
       <c r="X889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:24" ht="15.75" customHeight="1">
       <c r="A890" s="8"/>
       <c r="B890" s="3"/>
       <c r="C890" s="10"/>
@@ -24079,7 +24239,7 @@
       <c r="W890" s="3"/>
       <c r="X890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:24" ht="15.75" customHeight="1">
       <c r="A891" s="8"/>
       <c r="B891" s="3"/>
       <c r="C891" s="10"/>
@@ -24105,7 +24265,7 @@
       <c r="W891" s="3"/>
       <c r="X891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:24" ht="15.75" customHeight="1">
       <c r="A892" s="8"/>
       <c r="B892" s="3"/>
       <c r="C892" s="10"/>
@@ -24131,7 +24291,7 @@
       <c r="W892" s="3"/>
       <c r="X892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:24" ht="15.75" customHeight="1">
       <c r="A893" s="8"/>
       <c r="B893" s="3"/>
       <c r="C893" s="10"/>
@@ -24157,7 +24317,7 @@
       <c r="W893" s="3"/>
       <c r="X893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:24" ht="15.75" customHeight="1">
       <c r="A894" s="8"/>
       <c r="B894" s="3"/>
       <c r="C894" s="10"/>
@@ -24183,7 +24343,7 @@
       <c r="W894" s="3"/>
       <c r="X894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:24" ht="15.75" customHeight="1">
       <c r="A895" s="8"/>
       <c r="B895" s="3"/>
       <c r="C895" s="10"/>
@@ -24209,7 +24369,7 @@
       <c r="W895" s="3"/>
       <c r="X895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:24" ht="15.75" customHeight="1">
       <c r="A896" s="8"/>
       <c r="B896" s="3"/>
       <c r="C896" s="10"/>
@@ -24235,7 +24395,7 @@
       <c r="W896" s="3"/>
       <c r="X896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:24" ht="15.75" customHeight="1">
       <c r="A897" s="8"/>
       <c r="B897" s="3"/>
       <c r="C897" s="10"/>
@@ -24261,7 +24421,7 @@
       <c r="W897" s="3"/>
       <c r="X897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:24" ht="15.75" customHeight="1">
       <c r="A898" s="8"/>
       <c r="B898" s="3"/>
       <c r="C898" s="10"/>
@@ -24287,7 +24447,7 @@
       <c r="W898" s="3"/>
       <c r="X898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:24" ht="15.75" customHeight="1">
       <c r="A899" s="8"/>
       <c r="B899" s="3"/>
       <c r="C899" s="10"/>
@@ -24313,7 +24473,7 @@
       <c r="W899" s="3"/>
       <c r="X899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:24" ht="15.75" customHeight="1">
       <c r="A900" s="8"/>
       <c r="B900" s="3"/>
       <c r="C900" s="10"/>
@@ -24339,7 +24499,7 @@
       <c r="W900" s="3"/>
       <c r="X900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:24" ht="15.75" customHeight="1">
       <c r="A901" s="8"/>
       <c r="B901" s="3"/>
       <c r="C901" s="10"/>
@@ -24365,7 +24525,7 @@
       <c r="W901" s="3"/>
       <c r="X901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:24" ht="15.75" customHeight="1">
       <c r="A902" s="8"/>
       <c r="B902" s="3"/>
       <c r="C902" s="10"/>
@@ -24391,7 +24551,7 @@
       <c r="W902" s="3"/>
       <c r="X902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:24" ht="15.75" customHeight="1">
       <c r="A903" s="8"/>
       <c r="B903" s="3"/>
       <c r="C903" s="10"/>
@@ -24417,7 +24577,7 @@
       <c r="W903" s="3"/>
       <c r="X903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:24" ht="15.75" customHeight="1">
       <c r="A904" s="8"/>
       <c r="B904" s="3"/>
       <c r="C904" s="10"/>
@@ -24443,7 +24603,7 @@
       <c r="W904" s="3"/>
       <c r="X904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:24" ht="15.75" customHeight="1">
       <c r="A905" s="8"/>
       <c r="B905" s="3"/>
       <c r="C905" s="10"/>
@@ -24469,7 +24629,7 @@
       <c r="W905" s="3"/>
       <c r="X905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:24" ht="15.75" customHeight="1">
       <c r="A906" s="8"/>
       <c r="B906" s="3"/>
       <c r="C906" s="10"/>
@@ -24495,7 +24655,7 @@
       <c r="W906" s="3"/>
       <c r="X906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:24" ht="15.75" customHeight="1">
       <c r="A907" s="8"/>
       <c r="B907" s="3"/>
       <c r="C907" s="10"/>
@@ -24521,7 +24681,7 @@
       <c r="W907" s="3"/>
       <c r="X907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:24" ht="15.75" customHeight="1">
       <c r="A908" s="8"/>
       <c r="B908" s="3"/>
       <c r="C908" s="10"/>
@@ -24547,7 +24707,7 @@
       <c r="W908" s="3"/>
       <c r="X908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:24" ht="15.75" customHeight="1">
       <c r="A909" s="8"/>
       <c r="B909" s="3"/>
       <c r="C909" s="10"/>
@@ -24573,7 +24733,7 @@
       <c r="W909" s="3"/>
       <c r="X909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:24" ht="15.75" customHeight="1">
       <c r="A910" s="8"/>
       <c r="B910" s="3"/>
       <c r="C910" s="10"/>
@@ -24599,7 +24759,7 @@
       <c r="W910" s="3"/>
       <c r="X910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:24" ht="15.75" customHeight="1">
       <c r="A911" s="8"/>
       <c r="B911" s="3"/>
       <c r="C911" s="10"/>
@@ -24625,7 +24785,7 @@
       <c r="W911" s="3"/>
       <c r="X911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:24" ht="15.75" customHeight="1">
       <c r="A912" s="8"/>
       <c r="B912" s="3"/>
       <c r="C912" s="10"/>
@@ -24651,7 +24811,7 @@
       <c r="W912" s="3"/>
       <c r="X912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:24" ht="15.75" customHeight="1">
       <c r="A913" s="8"/>
       <c r="B913" s="3"/>
       <c r="C913" s="10"/>
@@ -24677,7 +24837,7 @@
       <c r="W913" s="3"/>
       <c r="X913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:24" ht="15.75" customHeight="1">
       <c r="A914" s="8"/>
       <c r="B914" s="3"/>
       <c r="C914" s="10"/>
@@ -24703,7 +24863,7 @@
       <c r="W914" s="3"/>
       <c r="X914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:24" ht="15.75" customHeight="1">
       <c r="A915" s="8"/>
       <c r="B915" s="3"/>
       <c r="C915" s="10"/>
@@ -24729,7 +24889,7 @@
       <c r="W915" s="3"/>
       <c r="X915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:24" ht="15.75" customHeight="1">
       <c r="A916" s="8"/>
       <c r="B916" s="3"/>
       <c r="C916" s="10"/>
@@ -24755,7 +24915,7 @@
       <c r="W916" s="3"/>
       <c r="X916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:24" ht="15.75" customHeight="1">
       <c r="A917" s="8"/>
       <c r="B917" s="3"/>
       <c r="C917" s="10"/>
@@ -24781,7 +24941,7 @@
       <c r="W917" s="3"/>
       <c r="X917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:24" ht="15.75" customHeight="1">
       <c r="A918" s="8"/>
       <c r="B918" s="3"/>
       <c r="C918" s="10"/>
@@ -24807,7 +24967,7 @@
       <c r="W918" s="3"/>
       <c r="X918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:24" ht="15.75" customHeight="1">
       <c r="A919" s="8"/>
       <c r="B919" s="3"/>
       <c r="C919" s="10"/>
@@ -24833,7 +24993,7 @@
       <c r="W919" s="3"/>
       <c r="X919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:24" ht="15.75" customHeight="1">
       <c r="A920" s="8"/>
       <c r="B920" s="3"/>
       <c r="C920" s="10"/>
@@ -24859,7 +25019,7 @@
       <c r="W920" s="3"/>
       <c r="X920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:24" ht="15.75" customHeight="1">
       <c r="A921" s="8"/>
       <c r="B921" s="3"/>
       <c r="C921" s="10"/>
@@ -24885,7 +25045,7 @@
       <c r="W921" s="3"/>
       <c r="X921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:24" ht="15.75" customHeight="1">
       <c r="A922" s="8"/>
       <c r="B922" s="3"/>
       <c r="C922" s="10"/>
@@ -24911,7 +25071,7 @@
       <c r="W922" s="3"/>
       <c r="X922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:24" ht="15.75" customHeight="1">
       <c r="A923" s="8"/>
       <c r="B923" s="3"/>
       <c r="C923" s="10"/>
@@ -24937,7 +25097,7 @@
       <c r="W923" s="3"/>
       <c r="X923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:24" ht="15.75" customHeight="1">
       <c r="A924" s="8"/>
       <c r="B924" s="3"/>
       <c r="C924" s="10"/>
@@ -24963,7 +25123,7 @@
       <c r="W924" s="3"/>
       <c r="X924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:24" ht="15.75" customHeight="1">
       <c r="A925" s="8"/>
       <c r="B925" s="3"/>
       <c r="C925" s="10"/>
@@ -24989,7 +25149,7 @@
       <c r="W925" s="3"/>
       <c r="X925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:24" ht="15.75" customHeight="1">
       <c r="A926" s="8"/>
       <c r="B926" s="3"/>
       <c r="C926" s="10"/>
@@ -25015,7 +25175,7 @@
       <c r="W926" s="3"/>
       <c r="X926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:24" ht="15.75" customHeight="1">
       <c r="A927" s="8"/>
       <c r="B927" s="3"/>
       <c r="C927" s="10"/>
@@ -25041,7 +25201,7 @@
       <c r="W927" s="3"/>
       <c r="X927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:24" ht="15.75" customHeight="1">
       <c r="A928" s="8"/>
       <c r="B928" s="3"/>
       <c r="C928" s="10"/>
@@ -25067,7 +25227,7 @@
       <c r="W928" s="3"/>
       <c r="X928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:24" ht="15.75" customHeight="1">
       <c r="A929" s="8"/>
       <c r="B929" s="3"/>
       <c r="C929" s="10"/>
@@ -25093,7 +25253,7 @@
       <c r="W929" s="3"/>
       <c r="X929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:24" ht="15.75" customHeight="1">
       <c r="A930" s="8"/>
       <c r="B930" s="3"/>
       <c r="C930" s="10"/>
@@ -25119,7 +25279,7 @@
       <c r="W930" s="3"/>
       <c r="X930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:24" ht="15.75" customHeight="1">
       <c r="A931" s="8"/>
       <c r="B931" s="3"/>
       <c r="C931" s="10"/>
@@ -25145,7 +25305,7 @@
       <c r="W931" s="3"/>
       <c r="X931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:24" ht="15.75" customHeight="1">
       <c r="A932" s="8"/>
       <c r="B932" s="3"/>
       <c r="C932" s="10"/>
@@ -25171,7 +25331,7 @@
       <c r="W932" s="3"/>
       <c r="X932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:24" ht="15.75" customHeight="1">
       <c r="A933" s="8"/>
       <c r="B933" s="3"/>
       <c r="C933" s="10"/>
@@ -25197,7 +25357,7 @@
       <c r="W933" s="3"/>
       <c r="X933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:24" ht="15.75" customHeight="1">
       <c r="A934" s="8"/>
       <c r="B934" s="3"/>
       <c r="C934" s="10"/>
@@ -25223,7 +25383,7 @@
       <c r="W934" s="3"/>
       <c r="X934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:24" ht="15.75" customHeight="1">
       <c r="A935" s="8"/>
       <c r="B935" s="3"/>
       <c r="C935" s="10"/>
@@ -25249,7 +25409,7 @@
       <c r="W935" s="3"/>
       <c r="X935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:24" ht="15.75" customHeight="1">
       <c r="A936" s="8"/>
       <c r="B936" s="3"/>
       <c r="C936" s="10"/>
@@ -25275,7 +25435,7 @@
       <c r="W936" s="3"/>
       <c r="X936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:24" ht="15.75" customHeight="1">
       <c r="A937" s="8"/>
       <c r="B937" s="3"/>
       <c r="C937" s="10"/>
@@ -25301,7 +25461,7 @@
       <c r="W937" s="3"/>
       <c r="X937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:24" ht="15.75" customHeight="1">
       <c r="A938" s="8"/>
       <c r="B938" s="3"/>
       <c r="C938" s="10"/>
@@ -25327,7 +25487,7 @@
       <c r="W938" s="3"/>
       <c r="X938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:24" ht="15.75" customHeight="1">
       <c r="A939" s="8"/>
       <c r="B939" s="3"/>
       <c r="C939" s="10"/>
@@ -25353,7 +25513,7 @@
       <c r="W939" s="3"/>
       <c r="X939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:24" ht="15.75" customHeight="1">
       <c r="A940" s="8"/>
       <c r="B940" s="3"/>
       <c r="C940" s="10"/>
@@ -25379,7 +25539,7 @@
       <c r="W940" s="3"/>
       <c r="X940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:24" ht="15.75" customHeight="1">
       <c r="A941" s="8"/>
       <c r="B941" s="3"/>
       <c r="C941" s="10"/>
@@ -25405,7 +25565,7 @@
       <c r="W941" s="3"/>
       <c r="X941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:24" ht="15.75" customHeight="1">
       <c r="A942" s="8"/>
       <c r="B942" s="3"/>
       <c r="C942" s="10"/>
@@ -25431,7 +25591,7 @@
       <c r="W942" s="3"/>
       <c r="X942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:24" ht="15.75" customHeight="1">
       <c r="A943" s="8"/>
       <c r="B943" s="3"/>
       <c r="C943" s="10"/>
@@ -25457,7 +25617,7 @@
       <c r="W943" s="3"/>
       <c r="X943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:24" ht="15.75" customHeight="1">
       <c r="A944" s="8"/>
       <c r="B944" s="3"/>
       <c r="C944" s="10"/>
@@ -25483,7 +25643,7 @@
       <c r="W944" s="3"/>
       <c r="X944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:24" ht="15.75" customHeight="1">
       <c r="A945" s="8"/>
       <c r="B945" s="3"/>
       <c r="C945" s="10"/>
@@ -25509,7 +25669,7 @@
       <c r="W945" s="3"/>
       <c r="X945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:24" ht="15.75" customHeight="1">
       <c r="A946" s="8"/>
       <c r="B946" s="3"/>
       <c r="C946" s="10"/>
@@ -25535,7 +25695,7 @@
       <c r="W946" s="3"/>
       <c r="X946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:24" ht="15.75" customHeight="1">
       <c r="A947" s="8"/>
       <c r="B947" s="3"/>
       <c r="C947" s="10"/>
@@ -25561,7 +25721,7 @@
       <c r="W947" s="3"/>
       <c r="X947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:24" ht="15.75" customHeight="1">
       <c r="A948" s="8"/>
       <c r="B948" s="3"/>
       <c r="C948" s="10"/>
@@ -25587,7 +25747,7 @@
       <c r="W948" s="3"/>
       <c r="X948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:24" ht="15.75" customHeight="1">
       <c r="A949" s="8"/>
       <c r="B949" s="3"/>
       <c r="C949" s="10"/>
@@ -25613,7 +25773,7 @@
       <c r="W949" s="3"/>
       <c r="X949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:24" ht="15.75" customHeight="1">
       <c r="A950" s="8"/>
       <c r="B950" s="3"/>
       <c r="C950" s="10"/>
@@ -25639,7 +25799,7 @@
       <c r="W950" s="3"/>
       <c r="X950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:24" ht="15.75" customHeight="1">
       <c r="A951" s="8"/>
       <c r="B951" s="3"/>
       <c r="C951" s="10"/>
@@ -25665,7 +25825,7 @@
       <c r="W951" s="3"/>
       <c r="X951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:24" ht="15.75" customHeight="1">
       <c r="A952" s="8"/>
       <c r="B952" s="3"/>
       <c r="C952" s="10"/>
@@ -25691,7 +25851,7 @@
       <c r="W952" s="3"/>
       <c r="X952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:24" ht="15.75" customHeight="1">
       <c r="A953" s="8"/>
       <c r="B953" s="3"/>
       <c r="C953" s="10"/>
@@ -25717,7 +25877,7 @@
       <c r="W953" s="3"/>
       <c r="X953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:24" ht="15.75" customHeight="1">
       <c r="A954" s="8"/>
       <c r="B954" s="3"/>
       <c r="C954" s="10"/>
@@ -25743,7 +25903,7 @@
       <c r="W954" s="3"/>
       <c r="X954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:24" ht="15.75" customHeight="1">
       <c r="A955" s="8"/>
       <c r="B955" s="3"/>
       <c r="C955" s="10"/>
@@ -25769,7 +25929,7 @@
       <c r="W955" s="3"/>
       <c r="X955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:24" ht="15.75" customHeight="1">
       <c r="A956" s="8"/>
       <c r="B956" s="3"/>
       <c r="C956" s="10"/>
@@ -25795,7 +25955,7 @@
       <c r="W956" s="3"/>
       <c r="X956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:24" ht="15.75" customHeight="1">
       <c r="A957" s="8"/>
       <c r="B957" s="3"/>
       <c r="C957" s="10"/>
@@ -25821,7 +25981,7 @@
       <c r="W957" s="3"/>
       <c r="X957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:24" ht="15.75" customHeight="1">
       <c r="A958" s="8"/>
       <c r="B958" s="3"/>
       <c r="C958" s="10"/>
@@ -25847,7 +26007,7 @@
       <c r="W958" s="3"/>
       <c r="X958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:24" ht="15.75" customHeight="1">
       <c r="A959" s="8"/>
       <c r="B959" s="3"/>
       <c r="C959" s="10"/>
@@ -25873,7 +26033,7 @@
       <c r="W959" s="3"/>
       <c r="X959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:24" ht="15.75" customHeight="1">
       <c r="A960" s="8"/>
       <c r="B960" s="3"/>
       <c r="C960" s="10"/>
@@ -25899,7 +26059,7 @@
       <c r="W960" s="3"/>
       <c r="X960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:24" ht="15.75" customHeight="1">
       <c r="A961" s="8"/>
       <c r="B961" s="3"/>
       <c r="C961" s="10"/>
@@ -25925,7 +26085,7 @@
       <c r="W961" s="3"/>
       <c r="X961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:24" ht="15.75" customHeight="1">
       <c r="A962" s="8"/>
       <c r="B962" s="3"/>
       <c r="C962" s="10"/>
@@ -25951,7 +26111,7 @@
       <c r="W962" s="3"/>
       <c r="X962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:24" ht="15.75" customHeight="1">
       <c r="A963" s="8"/>
       <c r="B963" s="3"/>
       <c r="C963" s="10"/>
@@ -25977,7 +26137,7 @@
       <c r="W963" s="3"/>
       <c r="X963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:24" ht="15.75" customHeight="1">
       <c r="A964" s="8"/>
       <c r="B964" s="3"/>
       <c r="C964" s="10"/>
@@ -26003,7 +26163,7 @@
       <c r="W964" s="3"/>
       <c r="X964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:24" ht="15.75" customHeight="1">
       <c r="A965" s="8"/>
       <c r="B965" s="3"/>
       <c r="C965" s="10"/>
@@ -26029,7 +26189,7 @@
       <c r="W965" s="3"/>
       <c r="X965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:24" ht="15.75" customHeight="1">
       <c r="A966" s="8"/>
       <c r="B966" s="3"/>
       <c r="C966" s="10"/>
@@ -26055,7 +26215,7 @@
       <c r="W966" s="3"/>
       <c r="X966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:24" ht="15.75" customHeight="1">
       <c r="A967" s="8"/>
       <c r="B967" s="3"/>
       <c r="C967" s="10"/>
@@ -26081,7 +26241,7 @@
       <c r="W967" s="3"/>
       <c r="X967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:24" ht="15.75" customHeight="1">
       <c r="A968" s="8"/>
       <c r="B968" s="3"/>
       <c r="C968" s="10"/>
@@ -26107,7 +26267,7 @@
       <c r="W968" s="3"/>
       <c r="X968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:24" ht="15.75" customHeight="1">
       <c r="A969" s="8"/>
       <c r="B969" s="3"/>
       <c r="C969" s="10"/>
@@ -26133,7 +26293,7 @@
       <c r="W969" s="3"/>
       <c r="X969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:24" ht="15.75" customHeight="1">
       <c r="A970" s="8"/>
       <c r="B970" s="3"/>
       <c r="C970" s="10"/>
@@ -26159,7 +26319,7 @@
       <c r="W970" s="3"/>
       <c r="X970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:24" ht="15.75" customHeight="1">
       <c r="A971" s="8"/>
       <c r="B971" s="3"/>
       <c r="C971" s="10"/>
@@ -26185,7 +26345,7 @@
       <c r="W971" s="3"/>
       <c r="X971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:24" ht="15.75" customHeight="1">
       <c r="A972" s="8"/>
       <c r="B972" s="3"/>
       <c r="C972" s="10"/>
@@ -26211,7 +26371,7 @@
       <c r="W972" s="3"/>
       <c r="X972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:24" ht="15.75" customHeight="1">
       <c r="A973" s="8"/>
       <c r="B973" s="3"/>
       <c r="C973" s="10"/>
@@ -26237,7 +26397,7 @@
       <c r="W973" s="3"/>
       <c r="X973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:24" ht="15.75" customHeight="1">
       <c r="A974" s="8"/>
       <c r="B974" s="3"/>
       <c r="C974" s="10"/>
@@ -26263,7 +26423,7 @@
       <c r="W974" s="3"/>
       <c r="X974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:24" ht="15.75" customHeight="1">
       <c r="A975" s="8"/>
       <c r="B975" s="3"/>
       <c r="C975" s="10"/>
@@ -26289,7 +26449,7 @@
       <c r="W975" s="3"/>
       <c r="X975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:24" ht="15.75" customHeight="1">
       <c r="A976" s="8"/>
       <c r="B976" s="3"/>
       <c r="C976" s="10"/>
@@ -26315,7 +26475,7 @@
       <c r="W976" s="3"/>
       <c r="X976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:24" ht="15.75" customHeight="1">
       <c r="A977" s="8"/>
       <c r="B977" s="3"/>
       <c r="C977" s="10"/>
@@ -26341,7 +26501,7 @@
       <c r="W977" s="3"/>
       <c r="X977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:24" ht="15.75" customHeight="1">
       <c r="A978" s="8"/>
       <c r="B978" s="3"/>
       <c r="C978" s="10"/>
@@ -26367,7 +26527,7 @@
       <c r="W978" s="3"/>
       <c r="X978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:24" ht="15.75" customHeight="1">
       <c r="A979" s="8"/>
       <c r="B979" s="3"/>
       <c r="C979" s="10"/>
@@ -26393,7 +26553,7 @@
       <c r="W979" s="3"/>
       <c r="X979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:24" ht="15.75" customHeight="1">
       <c r="A980" s="8"/>
       <c r="B980" s="3"/>
       <c r="C980" s="10"/>
@@ -26419,7 +26579,7 @@
       <c r="W980" s="3"/>
       <c r="X980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:24" ht="15.75" customHeight="1">
       <c r="A981" s="8"/>
       <c r="B981" s="3"/>
       <c r="C981" s="10"/>
@@ -26445,7 +26605,7 @@
       <c r="W981" s="3"/>
       <c r="X981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:24" ht="15.75" customHeight="1">
       <c r="A982" s="8"/>
       <c r="B982" s="3"/>
       <c r="C982" s="10"/>
@@ -26471,7 +26631,7 @@
       <c r="W982" s="3"/>
       <c r="X982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:24" ht="15.75" customHeight="1">
       <c r="A983" s="8"/>
       <c r="B983" s="3"/>
       <c r="C983" s="10"/>
@@ -26497,7 +26657,7 @@
       <c r="W983" s="3"/>
       <c r="X983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:24" ht="15.75" customHeight="1">
       <c r="A984" s="8"/>
       <c r="B984" s="3"/>
       <c r="C984" s="10"/>
@@ -26523,7 +26683,7 @@
       <c r="W984" s="3"/>
       <c r="X984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:24" ht="15.75" customHeight="1">
       <c r="A985" s="8"/>
       <c r="B985" s="3"/>
       <c r="C985" s="10"/>
@@ -26549,7 +26709,7 @@
       <c r="W985" s="3"/>
       <c r="X985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:24" ht="15.75" customHeight="1">
       <c r="A986" s="8"/>
       <c r="B986" s="3"/>
       <c r="C986" s="10"/>
@@ -26586,6 +26746,32 @@
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="D37:D41"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1647088513" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1647088513" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1647088513" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1647088513" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1647088513" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1647088513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>